--- a/config_debug/fish_2d_fish_server.xlsx
+++ b/config_debug/fish_2d_fish_server.xlsx
@@ -302,7 +302,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="379">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1640,6 +1640,14 @@
   </si>
   <si>
     <t>"prop_web_chip_huafei",10,0.02,0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>append_life_rate|随机的倍率和奖励</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1842,7 +1850,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -7720,8 +7728,8 @@
   <dimension ref="A1:N167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E171" sqref="E171"/>
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E157" sqref="E157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7748,7 +7756,9 @@
       <c r="C1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>378</v>
+      </c>
       <c r="E1" s="1" t="s">
         <v>136</v>
       </c>
@@ -15591,8 +15601,8 @@
         <v>33</v>
       </c>
       <c r="C167" s="22"/>
-      <c r="D167" s="28">
-        <v>50100</v>
+      <c r="D167" s="28" t="s">
+        <v>377</v>
       </c>
       <c r="E167" s="21">
         <f>LOOKUP(use_fish!B167,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C167,activity!A:A,0)),0)</f>

--- a/config_debug/fish_2d_fish_server.xlsx
+++ b/config_debug/fish_2d_fish_server.xlsx
@@ -302,7 +302,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="392">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1643,11 +1643,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>礼盒鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_12_12_lh",0,0.05,0.1</t>
+  </si>
+  <si>
+    <t>"prop_12_12_lh",0,0.1,0.2</t>
+  </si>
+  <si>
+    <t>"prop_12_12_lh",0,0.2,0.3</t>
+  </si>
+  <si>
+    <t>"prop_12_12_lh",0,0.01,</t>
+  </si>
+  <si>
+    <t>167,</t>
+  </si>
+  <si>
+    <t>168,</t>
+  </si>
+  <si>
+    <t>169,</t>
+  </si>
+  <si>
+    <t>170,</t>
+  </si>
+  <si>
+    <t>171,</t>
+  </si>
+  <si>
+    <t>172,</t>
+  </si>
+  <si>
+    <t>173,</t>
+  </si>
+  <si>
+    <t>174,</t>
+  </si>
+  <si>
+    <t>append_life_rate|随机的倍率和奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>50,100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>append_life_rate|随机的倍率和奖励</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1706,7 +1746,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1740,6 +1780,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1783,7 +1829,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1846,11 +1892,32 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2135,10 +2202,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:W193"/>
+  <dimension ref="A1:W201"/>
   <sheetViews>
     <sheetView topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="K195" sqref="K195"/>
+      <selection activeCell="A198" sqref="A198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -7543,6 +7610,214 @@
         <v>166</v>
       </c>
     </row>
+    <row r="194" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="28">
+        <v>193</v>
+      </c>
+      <c r="B194" s="28">
+        <v>1</v>
+      </c>
+      <c r="C194" s="28" t="s">
+        <v>382</v>
+      </c>
+      <c r="H194" s="28">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q194,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R194,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S194,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T194,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U194,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V194,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W194,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>30</v>
+      </c>
+      <c r="I194" s="28">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q194,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R194,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S194,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T194,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U194,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V194,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W194,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>30</v>
+      </c>
+      <c r="J194" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q194,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R194,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S194,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T194,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U194,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V194,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W194,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="Q194" s="29">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="195" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="28">
+        <v>194</v>
+      </c>
+      <c r="B195" s="28">
+        <v>1</v>
+      </c>
+      <c r="C195" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="H195" s="28">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q195,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R195,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S195,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T195,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U195,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V195,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W195,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>40</v>
+      </c>
+      <c r="I195" s="28">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q195,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R195,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S195,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T195,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U195,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V195,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W195,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>40</v>
+      </c>
+      <c r="J195" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q195,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R195,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S195,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T195,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U195,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V195,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W195,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="Q195" s="29">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="196" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="28">
+        <v>195</v>
+      </c>
+      <c r="B196" s="28">
+        <v>1</v>
+      </c>
+      <c r="C196" s="28" t="s">
+        <v>384</v>
+      </c>
+      <c r="H196" s="28">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q196,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R196,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S196,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T196,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U196,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V196,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W196,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>50</v>
+      </c>
+      <c r="I196" s="28">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q196,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R196,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S196,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T196,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U196,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V196,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W196,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>50</v>
+      </c>
+      <c r="J196" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q196,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R196,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S196,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T196,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U196,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V196,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W196,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="Q196" s="29">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="197" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="28">
+        <v>196</v>
+      </c>
+      <c r="B197" s="28">
+        <v>1</v>
+      </c>
+      <c r="C197" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="H197" s="28">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q197,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R197,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S197,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T197,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U197,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V197,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W197,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>60</v>
+      </c>
+      <c r="I197" s="28">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q197,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R197,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S197,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T197,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U197,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V197,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W197,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>60</v>
+      </c>
+      <c r="J197" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q197,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R197,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S197,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T197,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U197,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V197,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W197,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="Q197" s="29">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="198" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="28">
+        <v>197</v>
+      </c>
+      <c r="B198" s="28">
+        <v>1</v>
+      </c>
+      <c r="C198" s="28" t="s">
+        <v>386</v>
+      </c>
+      <c r="H198" s="28">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q198,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R198,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S198,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T198,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U198,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V198,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W198,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>70</v>
+      </c>
+      <c r="I198" s="28">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q198,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R198,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S198,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T198,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U198,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V198,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W198,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>70</v>
+      </c>
+      <c r="J198" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q198,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R198,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S198,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T198,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U198,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V198,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W198,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="Q198" s="29">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="199" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="28">
+        <v>198</v>
+      </c>
+      <c r="B199" s="28">
+        <v>1</v>
+      </c>
+      <c r="C199" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="H199" s="28">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q199,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R199,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S199,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T199,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U199,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V199,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W199,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>75</v>
+      </c>
+      <c r="I199" s="28">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q199,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R199,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S199,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T199,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U199,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V199,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W199,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>75</v>
+      </c>
+      <c r="J199" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q199,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R199,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S199,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T199,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U199,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V199,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W199,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="Q199" s="29">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="200" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="28">
+        <v>199</v>
+      </c>
+      <c r="B200" s="28">
+        <v>1</v>
+      </c>
+      <c r="C200" s="28" t="s">
+        <v>388</v>
+      </c>
+      <c r="H200" s="28">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q200,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R200,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S200,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T200,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U200,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V200,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W200,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>150</v>
+      </c>
+      <c r="I200" s="28">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q200,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R200,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S200,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T200,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U200,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V200,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W200,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>150</v>
+      </c>
+      <c r="J200" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q200,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R200,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S200,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T200,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U200,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V200,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W200,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="Q200" s="29">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="201" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="28">
+        <v>200</v>
+      </c>
+      <c r="B201" s="28">
+        <v>1</v>
+      </c>
+      <c r="C201" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="H201" s="28">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q201,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R201,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S201,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T201,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U201,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V201,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W201,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>250</v>
+      </c>
+      <c r="I201" s="28">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q201,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R201,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S201,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T201,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U201,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V201,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W201,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>250</v>
+      </c>
+      <c r="J201" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q201,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R201,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S201,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T201,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U201,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V201,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W201,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="Q201" s="29">
+        <v>174</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I1">
@@ -7556,7 +7831,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H145 H149 H151:H193">
+  <conditionalFormatting sqref="H2:H145 H149 H151:H201">
     <cfRule type="iconSet" priority="15">
       <iconSet iconSet="5Arrows">
         <cfvo type="percent" val="0"/>
@@ -7567,7 +7842,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I145 I149 I151:I193">
+  <conditionalFormatting sqref="I2:I145 I149 I151:I201">
     <cfRule type="iconSet" priority="14">
       <iconSet iconSet="5Arrows">
         <cfvo type="percent" val="0"/>
@@ -7578,7 +7853,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J145 J149 J151:J193">
+  <conditionalFormatting sqref="J2:J145 J149 J151:J201">
     <cfRule type="iconSet" priority="13">
       <iconSet iconSet="5Arrows">
         <cfvo type="percent" val="0"/>
@@ -7725,18 +8000,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:N167"/>
+  <dimension ref="A1:N175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E157" sqref="E157"/>
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D167" sqref="D167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="2" max="2" width="11.375" customWidth="1"/>
-    <col min="3" max="4" width="11.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="32" customWidth="1"/>
     <col min="5" max="5" width="16.5" customWidth="1"/>
     <col min="6" max="6" width="25.25" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
@@ -7756,8 +8032,8 @@
       <c r="C1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>378</v>
+      <c r="D1" s="31" t="s">
+        <v>390</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>136</v>
@@ -15171,7 +15447,7 @@
       <c r="C158" s="17">
         <v>38</v>
       </c>
-      <c r="D158" s="17"/>
+      <c r="D158" s="33"/>
       <c r="E158">
         <f>LOOKUP(use_fish!B158,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C158,activity!A:A,0)),0)</f>
         <v>30</v>
@@ -15219,7 +15495,7 @@
       <c r="C159" s="17">
         <v>38</v>
       </c>
-      <c r="D159" s="17"/>
+      <c r="D159" s="33"/>
       <c r="E159">
         <f>LOOKUP(use_fish!B159,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C159,activity!A:A,0)),0)</f>
         <v>40</v>
@@ -15267,7 +15543,7 @@
       <c r="C160" s="17">
         <v>38</v>
       </c>
-      <c r="D160" s="17"/>
+      <c r="D160" s="33"/>
       <c r="E160">
         <f>LOOKUP(use_fish!B160,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C160,activity!A:A,0)),0)</f>
         <v>50</v>
@@ -15315,7 +15591,7 @@
       <c r="C161" s="17">
         <v>38</v>
       </c>
-      <c r="D161" s="17"/>
+      <c r="D161" s="33"/>
       <c r="E161">
         <f>LOOKUP(use_fish!B161,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C161,activity!A:A,0)),0)</f>
         <v>60</v>
@@ -15363,7 +15639,7 @@
       <c r="C162" s="17">
         <v>38</v>
       </c>
-      <c r="D162" s="17"/>
+      <c r="D162" s="33"/>
       <c r="E162">
         <f>LOOKUP(use_fish!B162,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C162,activity!A:A,0)),0)</f>
         <v>70</v>
@@ -15411,7 +15687,7 @@
       <c r="C163" s="17">
         <v>35</v>
       </c>
-      <c r="D163" s="17"/>
+      <c r="D163" s="33"/>
       <c r="E163">
         <f>LOOKUP(use_fish!B163,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C163,activity!A:A,0)),0)</f>
         <v>75</v>
@@ -15459,7 +15735,7 @@
       <c r="C164" s="17">
         <v>36</v>
       </c>
-      <c r="D164" s="17"/>
+      <c r="D164" s="33"/>
       <c r="E164">
         <f>LOOKUP(use_fish!B164,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C164,activity!A:A,0)),0)</f>
         <v>150</v>
@@ -15507,7 +15783,7 @@
       <c r="C165" s="17">
         <v>37</v>
       </c>
-      <c r="D165" s="17"/>
+      <c r="D165" s="33"/>
       <c r="E165">
         <f>LOOKUP(use_fish!B165,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C165,activity!A:A,0)),0)</f>
         <v>250</v>
@@ -15555,7 +15831,7 @@
       <c r="C166" s="22">
         <v>39</v>
       </c>
-      <c r="D166" s="22"/>
+      <c r="D166" s="34"/>
       <c r="E166" s="21">
         <f>LOOKUP(use_fish!B166,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C166,activity!A:A,0)),0)</f>
         <v>75</v>
@@ -15601,16 +15877,14 @@
         <v>33</v>
       </c>
       <c r="C167" s="22"/>
-      <c r="D167" s="28" t="s">
-        <v>377</v>
+      <c r="D167" s="34" t="s">
+        <v>391</v>
       </c>
       <c r="E167" s="21">
         <f>LOOKUP(use_fish!B167,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C167,activity!A:A,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="F167" s="22">
-        <v>0</v>
-      </c>
+      <c r="F167" s="22"/>
       <c r="G167" s="23" t="s">
         <v>81</v>
       </c>
@@ -15638,6 +15912,390 @@
       </c>
       <c r="N167" s="21">
         <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="26">
+        <v>167</v>
+      </c>
+      <c r="B168" s="27">
+        <v>6</v>
+      </c>
+      <c r="C168" s="26">
+        <v>43</v>
+      </c>
+      <c r="D168" s="35"/>
+      <c r="E168" s="28">
+        <f>LOOKUP(use_fish!B168,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C168,activity!A:A,0)),0)</f>
+        <v>30</v>
+      </c>
+      <c r="F168" s="26">
+        <f t="shared" ref="F168:F175" si="8">1/E168</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="G168" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="H168" s="26" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B168,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C168,activity!A:A,0)),"")</f>
+        <v>蓝灯鱼+临时活动</v>
+      </c>
+      <c r="I168" s="28">
+        <f>LOOKUP(use_fish!B168,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C168,activity!A:A,0)),0)</f>
+        <v>30</v>
+      </c>
+      <c r="J168" s="28">
+        <v>1</v>
+      </c>
+      <c r="K168" s="28">
+        <f>LOOKUP(use_fish!B168,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L168" s="28">
+        <f t="shared" ref="L168:L175" si="9">I168</f>
+        <v>30</v>
+      </c>
+      <c r="M168" s="28">
+        <v>1</v>
+      </c>
+      <c r="N168" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="26">
+        <v>168</v>
+      </c>
+      <c r="B169" s="27">
+        <v>7</v>
+      </c>
+      <c r="C169" s="26">
+        <v>43</v>
+      </c>
+      <c r="D169" s="35"/>
+      <c r="E169" s="28">
+        <f>LOOKUP(use_fish!B169,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C169,activity!A:A,0)),0)</f>
+        <v>40</v>
+      </c>
+      <c r="F169" s="26">
+        <f t="shared" si="8"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G169" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="H169" s="26" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B169,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C169,activity!A:A,0)),"")</f>
+        <v>红杉鱼+临时活动</v>
+      </c>
+      <c r="I169" s="28">
+        <f>LOOKUP(use_fish!B169,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C169,activity!A:A,0)),0)</f>
+        <v>40</v>
+      </c>
+      <c r="J169" s="28">
+        <v>1</v>
+      </c>
+      <c r="K169" s="28">
+        <f>LOOKUP(use_fish!B169,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L169" s="28">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="M169" s="28">
+        <v>1</v>
+      </c>
+      <c r="N169" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="26">
+        <v>169</v>
+      </c>
+      <c r="B170" s="27">
+        <v>8</v>
+      </c>
+      <c r="C170" s="26">
+        <v>43</v>
+      </c>
+      <c r="D170" s="35"/>
+      <c r="E170" s="28">
+        <f>LOOKUP(use_fish!B170,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C170,activity!A:A,0)),0)</f>
+        <v>50</v>
+      </c>
+      <c r="F170" s="26">
+        <f t="shared" si="8"/>
+        <v>0.02</v>
+      </c>
+      <c r="G170" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="H170" s="26" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B170,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C170,activity!A:A,0)),"")</f>
+        <v>海龟+临时活动</v>
+      </c>
+      <c r="I170" s="28">
+        <f>LOOKUP(use_fish!B170,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C170,activity!A:A,0)),0)</f>
+        <v>50</v>
+      </c>
+      <c r="J170" s="28">
+        <v>1</v>
+      </c>
+      <c r="K170" s="28">
+        <f>LOOKUP(use_fish!B170,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L170" s="28">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="M170" s="28">
+        <v>1</v>
+      </c>
+      <c r="N170" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="26">
+        <v>170</v>
+      </c>
+      <c r="B171" s="27">
+        <v>9</v>
+      </c>
+      <c r="C171" s="26">
+        <v>43</v>
+      </c>
+      <c r="D171" s="35"/>
+      <c r="E171" s="28">
+        <f>LOOKUP(use_fish!B171,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C171,activity!A:A,0)),0)</f>
+        <v>60</v>
+      </c>
+      <c r="F171" s="26">
+        <f t="shared" si="8"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="G171" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="H171" s="26" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B171,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C171,activity!A:A,0)),"")</f>
+        <v>灯笼鱼+临时活动</v>
+      </c>
+      <c r="I171" s="28">
+        <f>LOOKUP(use_fish!B171,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C171,activity!A:A,0)),0)</f>
+        <v>60</v>
+      </c>
+      <c r="J171" s="28">
+        <v>1</v>
+      </c>
+      <c r="K171" s="28">
+        <f>LOOKUP(use_fish!B171,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L171" s="28">
+        <f t="shared" si="9"/>
+        <v>60</v>
+      </c>
+      <c r="M171" s="28">
+        <v>1</v>
+      </c>
+      <c r="N171" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="26">
+        <v>171</v>
+      </c>
+      <c r="B172" s="27">
+        <v>10</v>
+      </c>
+      <c r="C172" s="26">
+        <v>43</v>
+      </c>
+      <c r="D172" s="35"/>
+      <c r="E172" s="28">
+        <f>LOOKUP(use_fish!B172,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C172,activity!A:A,0)),0)</f>
+        <v>70</v>
+      </c>
+      <c r="F172" s="26">
+        <f t="shared" si="8"/>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="G172" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="H172" s="26" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B172,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C172,activity!A:A,0)),"")</f>
+        <v>魔鬼鱼+临时活动</v>
+      </c>
+      <c r="I172" s="28">
+        <f>LOOKUP(use_fish!B172,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C172,activity!A:A,0)),0)</f>
+        <v>70</v>
+      </c>
+      <c r="J172" s="28">
+        <v>1</v>
+      </c>
+      <c r="K172" s="28">
+        <f>LOOKUP(use_fish!B172,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L172" s="28">
+        <f t="shared" si="9"/>
+        <v>70</v>
+      </c>
+      <c r="M172" s="28">
+        <v>1</v>
+      </c>
+      <c r="N172" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="26">
+        <v>172</v>
+      </c>
+      <c r="B173" s="27">
+        <v>34</v>
+      </c>
+      <c r="C173" s="26">
+        <v>40</v>
+      </c>
+      <c r="D173" s="35"/>
+      <c r="E173" s="28">
+        <f>LOOKUP(use_fish!B173,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C173,activity!A:A,0)),0)</f>
+        <v>75</v>
+      </c>
+      <c r="F173" s="26">
+        <f t="shared" si="8"/>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="G173" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="H173" s="26" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B173,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C173,activity!A:A,0)),"")</f>
+        <v>礼盒鱼+临时活动</v>
+      </c>
+      <c r="I173" s="28">
+        <f>LOOKUP(use_fish!B173,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C173,activity!A:A,0)),0)</f>
+        <v>75</v>
+      </c>
+      <c r="J173" s="28">
+        <v>1</v>
+      </c>
+      <c r="K173" s="28">
+        <f>LOOKUP(use_fish!B173,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L173" s="28">
+        <f t="shared" si="9"/>
+        <v>75</v>
+      </c>
+      <c r="M173" s="28">
+        <v>1</v>
+      </c>
+      <c r="N173" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="26">
+        <v>173</v>
+      </c>
+      <c r="B174" s="27">
+        <v>34</v>
+      </c>
+      <c r="C174" s="26">
+        <v>41</v>
+      </c>
+      <c r="D174" s="35"/>
+      <c r="E174" s="28">
+        <f>LOOKUP(use_fish!B174,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C174,activity!A:A,0)),0)</f>
+        <v>150</v>
+      </c>
+      <c r="F174" s="26">
+        <f t="shared" si="8"/>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="G174" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="H174" s="26" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B174,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C174,activity!A:A,0)),"")</f>
+        <v>礼盒鱼+临时活动</v>
+      </c>
+      <c r="I174" s="28">
+        <f>LOOKUP(use_fish!B174,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C174,activity!A:A,0)),0)</f>
+        <v>150</v>
+      </c>
+      <c r="J174" s="28">
+        <v>1</v>
+      </c>
+      <c r="K174" s="28">
+        <f>LOOKUP(use_fish!B174,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L174" s="28">
+        <f t="shared" si="9"/>
+        <v>150</v>
+      </c>
+      <c r="M174" s="28">
+        <v>1</v>
+      </c>
+      <c r="N174" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="26">
+        <v>174</v>
+      </c>
+      <c r="B175" s="27">
+        <v>34</v>
+      </c>
+      <c r="C175" s="26">
+        <v>42</v>
+      </c>
+      <c r="D175" s="35"/>
+      <c r="E175" s="28">
+        <f>LOOKUP(use_fish!B175,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C175,activity!A:A,0)),0)</f>
+        <v>250</v>
+      </c>
+      <c r="F175" s="26">
+        <f t="shared" si="8"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G175" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="H175" s="26" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B175,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C175,activity!A:A,0)),"")</f>
+        <v>礼盒鱼+临时活动</v>
+      </c>
+      <c r="I175" s="28">
+        <f>LOOKUP(use_fish!B175,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C175,activity!A:A,0)),0)</f>
+        <v>250</v>
+      </c>
+      <c r="J175" s="28">
+        <v>1</v>
+      </c>
+      <c r="K175" s="28">
+        <f>LOOKUP(use_fish!B175,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L175" s="28">
+        <f t="shared" si="9"/>
+        <v>250</v>
+      </c>
+      <c r="M175" s="28">
+        <v>1</v>
+      </c>
+      <c r="N175" s="28">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -15650,10 +16308,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16750,9 +17408,97 @@
         <v>375</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
+    <row r="41" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="28">
+        <v>40</v>
+      </c>
+      <c r="B41" s="28">
+        <v>9</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="D41" s="30">
+        <v>0</v>
+      </c>
+      <c r="E41" s="30">
+        <v>1</v>
+      </c>
+      <c r="F41" s="28">
+        <v>75</v>
+      </c>
+      <c r="G41" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="28">
+        <v>41</v>
+      </c>
+      <c r="B42" s="28">
+        <v>9</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>379</v>
+      </c>
+      <c r="D42" s="30">
+        <v>0</v>
+      </c>
+      <c r="E42" s="30">
+        <v>1</v>
+      </c>
+      <c r="F42" s="28">
+        <v>150</v>
+      </c>
+      <c r="G42" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="28">
+        <v>42</v>
+      </c>
+      <c r="B43" s="28">
+        <v>9</v>
+      </c>
+      <c r="C43" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="D43" s="30">
+        <v>0</v>
+      </c>
+      <c r="E43" s="30">
+        <v>1</v>
+      </c>
+      <c r="F43" s="28">
+        <v>250</v>
+      </c>
+      <c r="G43" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="28">
+        <v>43</v>
+      </c>
+      <c r="B44" s="28">
+        <v>9</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>381</v>
+      </c>
+      <c r="D44" s="30">
+        <v>1</v>
+      </c>
+      <c r="E44" s="30">
+        <v>1</v>
+      </c>
+      <c r="F44" s="28">
+        <v>10</v>
+      </c>
+      <c r="G44" s="28" t="s">
+        <v>132</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -16846,10 +17592,11 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17699,6 +18446,29 @@
         <v>0</v>
       </c>
       <c r="G34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="27">
+        <v>34</v>
+      </c>
+      <c r="B35" s="27">
+        <v>1</v>
+      </c>
+      <c r="C35" s="27">
+        <v>0</v>
+      </c>
+      <c r="D35" s="27">
+        <v>0</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="F35" s="27">
+        <v>0</v>
+      </c>
+      <c r="G35" s="27">
         <v>0</v>
       </c>
     </row>

--- a/config_debug/fish_2d_fish_server.xlsx
+++ b/config_debug/fish_2d_fish_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="group" sheetId="1" r:id="rId1"/>
@@ -302,7 +302,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="372">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1623,18 +1623,6 @@
   </si>
   <si>
     <t>164,</t>
-  </si>
-  <si>
-    <t>165,</t>
-  </si>
-  <si>
-    <t>166,</t>
-  </si>
-  <si>
-    <t>167,</t>
-  </si>
-  <si>
-    <t>168,</t>
   </si>
 </sst>
 </file>
@@ -1692,7 +1680,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1714,6 +1702,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1757,7 +1751,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1806,7 +1800,18 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -2093,8 +2098,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W195"/>
   <sheetViews>
-    <sheetView topLeftCell="B169" workbookViewId="0">
-      <selection activeCell="N185" sqref="N185"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="J196" sqref="J196:K198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -7239,317 +7244,229 @@
         <v>156</v>
       </c>
     </row>
-    <row r="184" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="15">
+    <row r="184" spans="1:17" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="23">
         <v>183</v>
       </c>
-      <c r="B184" s="15">
-        <v>1</v>
-      </c>
-      <c r="C184" s="15" t="s">
+      <c r="B184" s="23">
+        <v>1</v>
+      </c>
+      <c r="C184" s="23" t="s">
         <v>364</v>
       </c>
-      <c r="H184" s="15">
+      <c r="H184" s="23">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q184,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R184,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S184,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T184,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U184,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V184,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W184,use_fish!A:A,use_fish!D:D),0),)</f>
         <v>30</v>
       </c>
-      <c r="I184" s="15">
+      <c r="I184" s="23">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q184,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(R184,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(S184,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(T184,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(U184,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(V184,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(W184,use_fish!A:A,use_fish!H:H),0),)</f>
         <v>30</v>
       </c>
-      <c r="J184" s="18">
+      <c r="J184" s="24">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q184,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(R184,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(S184,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(T184,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(U184,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(V184,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(W184,use_fish!A:A,use_fish!J:J),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q184" s="20">
+      <c r="Q184" s="25">
         <v>157</v>
       </c>
     </row>
-    <row r="185" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="15">
+    <row r="185" spans="1:17" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="23">
         <v>184</v>
       </c>
-      <c r="B185" s="15">
-        <v>1</v>
-      </c>
-      <c r="C185" s="15" t="s">
+      <c r="B185" s="23">
+        <v>1</v>
+      </c>
+      <c r="C185" s="23" t="s">
         <v>365</v>
       </c>
-      <c r="H185" s="15">
+      <c r="H185" s="23">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q185,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R185,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S185,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T185,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U185,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V185,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W185,use_fish!A:A,use_fish!D:D),0),)</f>
         <v>40</v>
       </c>
-      <c r="I185" s="15">
+      <c r="I185" s="23">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q185,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(R185,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(S185,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(T185,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(U185,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(V185,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(W185,use_fish!A:A,use_fish!H:H),0),)</f>
         <v>40</v>
       </c>
-      <c r="J185" s="18">
+      <c r="J185" s="24">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q185,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(R185,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(S185,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(T185,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(U185,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(V185,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(W185,use_fish!A:A,use_fish!J:J),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q185" s="20">
+      <c r="Q185" s="25">
         <v>158</v>
       </c>
     </row>
-    <row r="186" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="15">
+    <row r="186" spans="1:17" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="23">
         <v>185</v>
       </c>
-      <c r="B186" s="15">
-        <v>1</v>
-      </c>
-      <c r="C186" s="15" t="s">
+      <c r="B186" s="23">
+        <v>1</v>
+      </c>
+      <c r="C186" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="H186" s="15">
+      <c r="H186" s="23">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q186,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R186,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S186,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T186,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U186,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V186,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W186,use_fish!A:A,use_fish!D:D),0),)</f>
         <v>50</v>
       </c>
-      <c r="I186" s="15">
+      <c r="I186" s="23">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q186,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(R186,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(S186,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(T186,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(U186,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(V186,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(W186,use_fish!A:A,use_fish!H:H),0),)</f>
         <v>50</v>
       </c>
-      <c r="J186" s="18">
+      <c r="J186" s="24">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q186,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(R186,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(S186,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(T186,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(U186,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(V186,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(W186,use_fish!A:A,use_fish!J:J),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q186" s="20">
+      <c r="Q186" s="25">
         <v>159</v>
       </c>
     </row>
-    <row r="187" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="15">
+    <row r="187" spans="1:17" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="23">
         <v>186</v>
       </c>
-      <c r="B187" s="15">
-        <v>1</v>
-      </c>
-      <c r="C187" s="15" t="s">
+      <c r="B187" s="23">
+        <v>1</v>
+      </c>
+      <c r="C187" s="23" t="s">
         <v>367</v>
       </c>
-      <c r="H187" s="15">
+      <c r="H187" s="23">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q187,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R187,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S187,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T187,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U187,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V187,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W187,use_fish!A:A,use_fish!D:D),0),)</f>
         <v>60</v>
       </c>
-      <c r="I187" s="15">
+      <c r="I187" s="23">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q187,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(R187,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(S187,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(T187,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(U187,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(V187,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(W187,use_fish!A:A,use_fish!H:H),0),)</f>
         <v>60</v>
       </c>
-      <c r="J187" s="18">
+      <c r="J187" s="24">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q187,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(R187,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(S187,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(T187,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(U187,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(V187,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(W187,use_fish!A:A,use_fish!J:J),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q187" s="20">
+      <c r="Q187" s="25">
         <v>160</v>
       </c>
     </row>
-    <row r="188" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="15">
+    <row r="188" spans="1:17" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="23">
         <v>187</v>
       </c>
-      <c r="B188" s="15">
-        <v>1</v>
-      </c>
-      <c r="C188" s="15" t="s">
+      <c r="B188" s="23">
+        <v>1</v>
+      </c>
+      <c r="C188" s="23" t="s">
         <v>368</v>
       </c>
-      <c r="H188" s="15">
+      <c r="H188" s="23">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q188,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R188,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S188,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T188,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U188,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V188,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W188,use_fish!A:A,use_fish!D:D),0),)</f>
         <v>70</v>
       </c>
-      <c r="I188" s="15">
+      <c r="I188" s="23">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q188,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(R188,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(S188,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(T188,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(U188,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(V188,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(W188,use_fish!A:A,use_fish!H:H),0),)</f>
         <v>70</v>
       </c>
-      <c r="J188" s="18">
+      <c r="J188" s="24">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q188,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(R188,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(S188,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(T188,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(U188,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(V188,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(W188,use_fish!A:A,use_fish!J:J),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q188" s="20">
+      <c r="Q188" s="25">
         <v>161</v>
       </c>
     </row>
-    <row r="189" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="15">
+    <row r="189" spans="1:17" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="23">
         <v>188</v>
       </c>
-      <c r="B189" s="15">
-        <v>1</v>
-      </c>
-      <c r="C189" s="15" t="s">
+      <c r="B189" s="23">
+        <v>1</v>
+      </c>
+      <c r="C189" s="23" t="s">
         <v>369</v>
       </c>
-      <c r="H189" s="15">
+      <c r="H189" s="23">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q189,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R189,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S189,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T189,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U189,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V189,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W189,use_fish!A:A,use_fish!D:D),0),)</f>
-        <v>60</v>
-      </c>
-      <c r="I189" s="15">
+        <v>75</v>
+      </c>
+      <c r="I189" s="23">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q189,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(R189,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(S189,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(T189,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(U189,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(V189,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(W189,use_fish!A:A,use_fish!H:H),0),)</f>
-        <v>60</v>
-      </c>
-      <c r="J189" s="18">
+        <v>75</v>
+      </c>
+      <c r="J189" s="24">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q189,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(R189,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(S189,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(T189,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(U189,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(V189,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(W189,use_fish!A:A,use_fish!J:J),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q189" s="20">
+      <c r="Q189" s="25">
         <v>162</v>
       </c>
     </row>
-    <row r="190" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="15">
+    <row r="190" spans="1:17" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="23">
         <v>189</v>
       </c>
-      <c r="B190" s="15">
-        <v>1</v>
-      </c>
-      <c r="C190" s="15" t="s">
+      <c r="B190" s="23">
+        <v>1</v>
+      </c>
+      <c r="C190" s="23" t="s">
         <v>370</v>
       </c>
-      <c r="H190" s="15">
+      <c r="H190" s="23">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q190,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R190,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S190,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T190,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U190,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V190,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W190,use_fish!A:A,use_fish!D:D),0),)</f>
-        <v>60</v>
-      </c>
-      <c r="I190" s="15">
+        <v>150</v>
+      </c>
+      <c r="I190" s="23">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q190,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(R190,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(S190,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(T190,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(U190,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(V190,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(W190,use_fish!A:A,use_fish!H:H),0),)</f>
-        <v>60</v>
-      </c>
-      <c r="J190" s="18">
+        <v>150</v>
+      </c>
+      <c r="J190" s="24">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q190,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(R190,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(S190,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(T190,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(U190,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(V190,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(W190,use_fish!A:A,use_fish!J:J),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q190" s="20">
+      <c r="Q190" s="25">
         <v>163</v>
       </c>
     </row>
-    <row r="191" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="15">
+    <row r="191" spans="1:17" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="23">
         <v>190</v>
       </c>
-      <c r="B191" s="15">
-        <v>1</v>
-      </c>
-      <c r="C191" s="15" t="s">
+      <c r="B191" s="23">
+        <v>1</v>
+      </c>
+      <c r="C191" s="23" t="s">
         <v>371</v>
       </c>
-      <c r="H191" s="15">
+      <c r="H191" s="23">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q191,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R191,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S191,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T191,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U191,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V191,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W191,use_fish!A:A,use_fish!D:D),0),)</f>
-        <v>60</v>
-      </c>
-      <c r="I191" s="15">
+        <v>250</v>
+      </c>
+      <c r="I191" s="23">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q191,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(R191,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(S191,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(T191,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(U191,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(V191,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(W191,use_fish!A:A,use_fish!H:H),0),)</f>
-        <v>60</v>
-      </c>
-      <c r="J191" s="18">
+        <v>250</v>
+      </c>
+      <c r="J191" s="24">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q191,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(R191,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(S191,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(T191,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(U191,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(V191,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(W191,use_fish!A:A,use_fish!J:J),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q191" s="20">
+      <c r="Q191" s="25">
         <v>164</v>
       </c>
     </row>
-    <row r="192" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="15">
-        <v>191</v>
-      </c>
-      <c r="B192" s="15">
-        <v>1</v>
-      </c>
-      <c r="C192" s="15" t="s">
-        <v>372</v>
-      </c>
-      <c r="H192" s="15">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q192,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R192,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S192,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T192,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U192,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V192,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W192,use_fish!A:A,use_fish!D:D),0),)</f>
-        <v>60</v>
-      </c>
-      <c r="I192" s="15">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q192,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(R192,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(S192,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(T192,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(U192,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(V192,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(W192,use_fish!A:A,use_fish!H:H),0),)</f>
-        <v>60</v>
-      </c>
-      <c r="J192" s="18">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q192,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(R192,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(S192,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(T192,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(U192,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(V192,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(W192,use_fish!A:A,use_fish!J:J),0),)</f>
-        <v>0</v>
-      </c>
-      <c r="Q192" s="20">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="193" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="15">
-        <v>192</v>
-      </c>
-      <c r="B193" s="15">
-        <v>1</v>
-      </c>
-      <c r="C193" s="15" t="s">
-        <v>373</v>
-      </c>
-      <c r="H193" s="15">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q193,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R193,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S193,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T193,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U193,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V193,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W193,use_fish!A:A,use_fish!D:D),0),)</f>
-        <v>75</v>
-      </c>
-      <c r="I193" s="15">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q193,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(R193,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(S193,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(T193,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(U193,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(V193,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(W193,use_fish!A:A,use_fish!H:H),0),)</f>
-        <v>75</v>
-      </c>
-      <c r="J193" s="18">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q193,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(R193,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(S193,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(T193,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(U193,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(V193,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(W193,use_fish!A:A,use_fish!J:J),0),)</f>
-        <v>0</v>
-      </c>
-      <c r="Q193" s="20">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="194" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="15">
-        <v>193</v>
-      </c>
-      <c r="B194" s="15">
-        <v>1</v>
-      </c>
-      <c r="C194" s="15" t="s">
-        <v>374</v>
-      </c>
-      <c r="H194" s="15">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q194,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R194,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S194,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T194,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U194,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V194,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W194,use_fish!A:A,use_fish!D:D),0),)</f>
-        <v>150</v>
-      </c>
-      <c r="I194" s="15">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q194,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(R194,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(S194,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(T194,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(U194,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(V194,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(W194,use_fish!A:A,use_fish!H:H),0),)</f>
-        <v>150</v>
-      </c>
-      <c r="J194" s="18">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q194,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(R194,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(S194,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(T194,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(U194,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(V194,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(W194,use_fish!A:A,use_fish!J:J),0),)</f>
-        <v>0</v>
-      </c>
-      <c r="Q194" s="20">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="195" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="15">
-        <v>194</v>
-      </c>
-      <c r="B195" s="15">
-        <v>1</v>
-      </c>
-      <c r="C195" s="15" t="s">
-        <v>375</v>
-      </c>
-      <c r="H195" s="15">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q195,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R195,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S195,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T195,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U195,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V195,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W195,use_fish!A:A,use_fish!D:D),0),)</f>
-        <v>250</v>
-      </c>
-      <c r="I195" s="15">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q195,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(R195,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(S195,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(T195,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(U195,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(V195,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(W195,use_fish!A:A,use_fish!H:H),0),)</f>
-        <v>250</v>
-      </c>
-      <c r="J195" s="18">
-        <f>SUM(_xlfn.IFNA(LOOKUP(Q195,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(R195,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(S195,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(T195,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(U195,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(V195,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(W195,use_fish!A:A,use_fish!J:J),0),)</f>
-        <v>0</v>
-      </c>
-      <c r="Q195" s="20">
-        <v>168</v>
-      </c>
+    <row r="192" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J192" s="21"/>
+      <c r="Q192" s="22"/>
+    </row>
+    <row r="193" spans="10:17" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J193" s="21"/>
+      <c r="Q193" s="22"/>
+    </row>
+    <row r="194" spans="10:17" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J194" s="21"/>
+      <c r="Q194" s="22"/>
+    </row>
+    <row r="195" spans="10:17" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J195" s="21"/>
+      <c r="Q195" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7683,7 +7600,8 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7733,11 +7651,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:M169"/>
+  <dimension ref="A1:M166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O171" sqref="O171:O172"/>
+      <selection pane="bottomLeft" activeCell="A158" sqref="A158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13685,7 +13603,7 @@
         <v>200</v>
       </c>
       <c r="E126" s="2">
-        <f t="shared" ref="E126:E169" si="6">1/D126</f>
+        <f t="shared" ref="E126:E162" si="6">1/D126</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F126" s="3" t="s">
@@ -13942,7 +13860,7 @@
         <v>0</v>
       </c>
       <c r="K131">
-        <f t="shared" ref="K131:K169" si="7">H131</f>
+        <f t="shared" ref="K131:K162" si="7">H131</f>
         <v>93</v>
       </c>
       <c r="L131">
@@ -15406,29 +15324,29 @@
         <v>162</v>
       </c>
       <c r="B163" s="18">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C163" s="17">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D163">
         <f>LOOKUP(use_fish!B163,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C163,activity!A:A,0)),0)</f>
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="E163" s="2">
-        <f t="shared" si="6"/>
-        <v>1.6666666666666666E-2</v>
+        <f>1/D163</f>
+        <v>1.3333333333333334E-2</v>
       </c>
       <c r="F163" s="3" t="s">
         <v>81</v>
       </c>
       <c r="G163" s="2" t="str">
         <f>INDEX(base_fish!E:E,MATCH(use_fish!B163,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C163,activity!A:A,0)),"")</f>
-        <v>大海星+临时活动</v>
+        <v>火鸡鱼+临时活动</v>
       </c>
       <c r="H163">
         <f>LOOKUP(use_fish!B163,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C163,activity!A:A,0)),0)</f>
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="I163">
         <v>1</v>
@@ -15438,8 +15356,8 @@
         <v>0</v>
       </c>
       <c r="K163">
-        <f t="shared" si="7"/>
-        <v>60</v>
+        <f>H163</f>
+        <v>75</v>
       </c>
       <c r="L163">
         <v>1</v>
@@ -15453,29 +15371,29 @@
         <v>163</v>
       </c>
       <c r="B164" s="18">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C164" s="17">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D164">
         <f>LOOKUP(use_fish!B164,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C164,activity!A:A,0)),0)</f>
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="E164" s="2">
-        <f t="shared" si="6"/>
-        <v>1.6666666666666666E-2</v>
+        <f>1/D164</f>
+        <v>6.6666666666666671E-3</v>
       </c>
       <c r="F164" s="3" t="s">
         <v>81</v>
       </c>
       <c r="G164" s="2" t="str">
         <f>INDEX(base_fish!E:E,MATCH(use_fish!B164,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C164,activity!A:A,0)),"")</f>
-        <v>中海星+临时活动</v>
+        <v>火鸡鱼+临时活动</v>
       </c>
       <c r="H164">
         <f>LOOKUP(use_fish!B164,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C164,activity!A:A,0)),0)</f>
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="I164">
         <v>1</v>
@@ -15485,8 +15403,8 @@
         <v>0</v>
       </c>
       <c r="K164">
-        <f t="shared" si="7"/>
-        <v>60</v>
+        <f>H164</f>
+        <v>150</v>
       </c>
       <c r="L164">
         <v>1</v>
@@ -15500,29 +15418,29 @@
         <v>164</v>
       </c>
       <c r="B165" s="18">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C165" s="17">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D165">
         <f>LOOKUP(use_fish!B165,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C165,activity!A:A,0)),0)</f>
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="E165" s="2">
-        <f t="shared" si="6"/>
-        <v>1.6666666666666666E-2</v>
+        <f>1/D165</f>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="F165" s="3" t="s">
         <v>81</v>
       </c>
       <c r="G165" s="2" t="str">
         <f>INDEX(base_fish!E:E,MATCH(use_fish!B165,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C165,activity!A:A,0)),"")</f>
-        <v>小海星+临时活动</v>
+        <v>火鸡鱼+临时活动</v>
       </c>
       <c r="H165">
         <f>LOOKUP(use_fish!B165,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C165,activity!A:A,0)),0)</f>
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="I165">
         <v>1</v>
@@ -15532,8 +15450,8 @@
         <v>0</v>
       </c>
       <c r="K165">
-        <f t="shared" si="7"/>
-        <v>60</v>
+        <f>H165</f>
+        <v>250</v>
       </c>
       <c r="L165">
         <v>1</v>
@@ -15543,192 +15461,19 @@
       </c>
     </row>
     <row r="166" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="17">
-        <v>165</v>
-      </c>
-      <c r="B166" s="18">
-        <v>25</v>
-      </c>
-      <c r="C166" s="17">
-        <v>38</v>
-      </c>
-      <c r="D166">
-        <f>LOOKUP(use_fish!B166,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C166,activity!A:A,0)),0)</f>
-        <v>60</v>
-      </c>
-      <c r="E166" s="2">
-        <f t="shared" si="6"/>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="F166" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G166" s="2" t="str">
-        <f>INDEX(base_fish!E:E,MATCH(use_fish!B166,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C166,activity!A:A,0)),"")</f>
-        <v>海马+临时活动</v>
-      </c>
-      <c r="H166">
-        <f>LOOKUP(use_fish!B166,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C166,activity!A:A,0)),0)</f>
-        <v>60</v>
-      </c>
-      <c r="I166">
-        <v>1</v>
-      </c>
-      <c r="J166">
-        <f>LOOKUP(use_fish!B166,base_fish!A:A,base_fish!G:G)</f>
-        <v>0</v>
-      </c>
-      <c r="K166">
-        <f t="shared" si="7"/>
-        <v>60</v>
-      </c>
-      <c r="L166">
-        <v>1</v>
-      </c>
-      <c r="M166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="17">
-        <v>166</v>
-      </c>
-      <c r="B167" s="18">
-        <v>32</v>
-      </c>
-      <c r="C167" s="17">
-        <v>35</v>
-      </c>
-      <c r="D167">
-        <f>LOOKUP(use_fish!B167,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C167,activity!A:A,0)),0)</f>
-        <v>75</v>
-      </c>
-      <c r="E167" s="2">
-        <f t="shared" si="6"/>
-        <v>1.3333333333333334E-2</v>
-      </c>
-      <c r="F167" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G167" s="2" t="str">
-        <f>INDEX(base_fish!E:E,MATCH(use_fish!B167,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C167,activity!A:A,0)),"")</f>
-        <v>火鸡鱼+临时活动</v>
-      </c>
-      <c r="H167">
-        <f>LOOKUP(use_fish!B167,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C167,activity!A:A,0)),0)</f>
-        <v>75</v>
-      </c>
-      <c r="I167">
-        <v>1</v>
-      </c>
-      <c r="J167">
-        <f>LOOKUP(use_fish!B167,base_fish!A:A,base_fish!G:G)</f>
-        <v>0</v>
-      </c>
-      <c r="K167">
-        <f t="shared" si="7"/>
-        <v>75</v>
-      </c>
-      <c r="L167">
-        <v>1</v>
-      </c>
-      <c r="M167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="17">
-        <v>167</v>
-      </c>
-      <c r="B168" s="18">
-        <v>32</v>
-      </c>
-      <c r="C168" s="17">
-        <v>36</v>
-      </c>
-      <c r="D168">
-        <f>LOOKUP(use_fish!B168,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C168,activity!A:A,0)),0)</f>
-        <v>150</v>
-      </c>
-      <c r="E168" s="2">
-        <f t="shared" si="6"/>
-        <v>6.6666666666666671E-3</v>
-      </c>
-      <c r="F168" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G168" s="2" t="str">
-        <f>INDEX(base_fish!E:E,MATCH(use_fish!B168,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C168,activity!A:A,0)),"")</f>
-        <v>火鸡鱼+临时活动</v>
-      </c>
-      <c r="H168">
-        <f>LOOKUP(use_fish!B168,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C168,activity!A:A,0)),0)</f>
-        <v>150</v>
-      </c>
-      <c r="I168">
-        <v>1</v>
-      </c>
-      <c r="J168">
-        <f>LOOKUP(use_fish!B168,base_fish!A:A,base_fish!G:G)</f>
-        <v>0</v>
-      </c>
-      <c r="K168">
-        <f t="shared" si="7"/>
-        <v>150</v>
-      </c>
-      <c r="L168">
-        <v>1</v>
-      </c>
-      <c r="M168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="17">
-        <v>168</v>
-      </c>
-      <c r="B169" s="18">
-        <v>32</v>
-      </c>
-      <c r="C169" s="17">
-        <v>37</v>
-      </c>
-      <c r="D169">
-        <f>LOOKUP(use_fish!B169,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C169,activity!A:A,0)),0)</f>
-        <v>250</v>
-      </c>
-      <c r="E169" s="2">
-        <f t="shared" si="6"/>
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="F169" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G169" s="2" t="str">
-        <f>INDEX(base_fish!E:E,MATCH(use_fish!B169,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C169,activity!A:A,0)),"")</f>
-        <v>火鸡鱼+临时活动</v>
-      </c>
-      <c r="H169">
-        <f>LOOKUP(use_fish!B169,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C169,activity!A:A,0)),0)</f>
-        <v>250</v>
-      </c>
-      <c r="I169">
-        <v>1</v>
-      </c>
-      <c r="J169">
-        <f>LOOKUP(use_fish!B169,base_fish!A:A,base_fish!G:G)</f>
-        <v>0</v>
-      </c>
-      <c r="K169">
-        <f t="shared" si="7"/>
-        <v>250</v>
-      </c>
-      <c r="L169">
-        <v>1</v>
-      </c>
-      <c r="M169">
-        <v>0</v>
-      </c>
+      <c r="A166" s="17"/>
+      <c r="B166" s="18"/>
+      <c r="C166" s="17"/>
+      <c r="D166"/>
+      <c r="E166" s="2"/>
+      <c r="F166" s="3"/>
+      <c r="G166" s="2"/>
+      <c r="H166"/>
+      <c r="I166"/>
+      <c r="J166"/>
+      <c r="K166"/>
+      <c r="L166"/>
+      <c r="M166"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/config_debug/fish_2d_fish_server.xlsx
+++ b/config_debug/fish_2d_fish_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="group" sheetId="1" r:id="rId1"/>
@@ -302,7 +302,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="378">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1623,6 +1623,28 @@
   </si>
   <si>
     <t>164,</t>
+  </si>
+  <si>
+    <t>165,</t>
+  </si>
+  <si>
+    <t>166,</t>
+  </si>
+  <si>
+    <t>话费鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>话费鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_web_chip_huafei",10,0.02,0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",10,50,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1680,7 +1702,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1707,7 +1729,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1800,19 +1828,19 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2096,10 +2124,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:W195"/>
+  <dimension ref="A1:W193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="J196" sqref="J196:K198"/>
+    <sheetView topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="K183" sqref="K183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -7244,229 +7272,265 @@
         <v>156</v>
       </c>
     </row>
-    <row r="184" spans="1:17" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="23">
+    <row r="184" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="15">
         <v>183</v>
       </c>
-      <c r="B184" s="23">
-        <v>1</v>
-      </c>
-      <c r="C184" s="23" t="s">
+      <c r="B184" s="15">
+        <v>1</v>
+      </c>
+      <c r="C184" s="15" t="s">
         <v>364</v>
       </c>
-      <c r="H184" s="23">
+      <c r="H184">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q184,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R184,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S184,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T184,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U184,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V184,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W184,use_fish!A:A,use_fish!D:D),0),)</f>
         <v>30</v>
       </c>
-      <c r="I184" s="23">
+      <c r="I184">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q184,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(R184,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(S184,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(T184,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(U184,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(V184,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(W184,use_fish!A:A,use_fish!H:H),0),)</f>
         <v>30</v>
       </c>
-      <c r="J184" s="24">
+      <c r="J184" s="3">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q184,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(R184,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(S184,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(T184,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(U184,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(V184,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(W184,use_fish!A:A,use_fish!J:J),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q184" s="25">
+      <c r="Q184" s="20">
         <v>157</v>
       </c>
     </row>
-    <row r="185" spans="1:17" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="23">
+    <row r="185" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="15">
         <v>184</v>
       </c>
-      <c r="B185" s="23">
-        <v>1</v>
-      </c>
-      <c r="C185" s="23" t="s">
+      <c r="B185" s="15">
+        <v>1</v>
+      </c>
+      <c r="C185" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="H185" s="23">
+      <c r="H185">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q185,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R185,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S185,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T185,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U185,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V185,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W185,use_fish!A:A,use_fish!D:D),0),)</f>
         <v>40</v>
       </c>
-      <c r="I185" s="23">
+      <c r="I185">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q185,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(R185,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(S185,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(T185,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(U185,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(V185,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(W185,use_fish!A:A,use_fish!H:H),0),)</f>
         <v>40</v>
       </c>
-      <c r="J185" s="24">
+      <c r="J185" s="3">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q185,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(R185,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(S185,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(T185,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(U185,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(V185,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(W185,use_fish!A:A,use_fish!J:J),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q185" s="25">
+      <c r="Q185" s="20">
         <v>158</v>
       </c>
     </row>
-    <row r="186" spans="1:17" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="23">
+    <row r="186" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="15">
         <v>185</v>
       </c>
-      <c r="B186" s="23">
-        <v>1</v>
-      </c>
-      <c r="C186" s="23" t="s">
+      <c r="B186" s="15">
+        <v>1</v>
+      </c>
+      <c r="C186" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="H186" s="23">
+      <c r="H186">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q186,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R186,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S186,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T186,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U186,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V186,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W186,use_fish!A:A,use_fish!D:D),0),)</f>
         <v>50</v>
       </c>
-      <c r="I186" s="23">
+      <c r="I186">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q186,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(R186,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(S186,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(T186,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(U186,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(V186,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(W186,use_fish!A:A,use_fish!H:H),0),)</f>
         <v>50</v>
       </c>
-      <c r="J186" s="24">
+      <c r="J186" s="3">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q186,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(R186,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(S186,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(T186,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(U186,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(V186,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(W186,use_fish!A:A,use_fish!J:J),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q186" s="25">
+      <c r="Q186" s="20">
         <v>159</v>
       </c>
     </row>
-    <row r="187" spans="1:17" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="23">
+    <row r="187" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="15">
         <v>186</v>
       </c>
-      <c r="B187" s="23">
-        <v>1</v>
-      </c>
-      <c r="C187" s="23" t="s">
+      <c r="B187" s="15">
+        <v>1</v>
+      </c>
+      <c r="C187" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="H187" s="23">
+      <c r="H187">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q187,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R187,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S187,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T187,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U187,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V187,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W187,use_fish!A:A,use_fish!D:D),0),)</f>
         <v>60</v>
       </c>
-      <c r="I187" s="23">
+      <c r="I187">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q187,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(R187,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(S187,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(T187,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(U187,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(V187,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(W187,use_fish!A:A,use_fish!H:H),0),)</f>
         <v>60</v>
       </c>
-      <c r="J187" s="24">
+      <c r="J187" s="3">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q187,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(R187,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(S187,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(T187,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(U187,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(V187,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(W187,use_fish!A:A,use_fish!J:J),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q187" s="25">
+      <c r="Q187" s="20">
         <v>160</v>
       </c>
     </row>
-    <row r="188" spans="1:17" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="23">
+    <row r="188" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="15">
         <v>187</v>
       </c>
-      <c r="B188" s="23">
-        <v>1</v>
-      </c>
-      <c r="C188" s="23" t="s">
+      <c r="B188" s="15">
+        <v>1</v>
+      </c>
+      <c r="C188" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="H188" s="23">
+      <c r="H188">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q188,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R188,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S188,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T188,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U188,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V188,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W188,use_fish!A:A,use_fish!D:D),0),)</f>
         <v>70</v>
       </c>
-      <c r="I188" s="23">
+      <c r="I188">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q188,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(R188,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(S188,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(T188,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(U188,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(V188,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(W188,use_fish!A:A,use_fish!H:H),0),)</f>
         <v>70</v>
       </c>
-      <c r="J188" s="24">
+      <c r="J188" s="3">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q188,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(R188,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(S188,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(T188,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(U188,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(V188,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(W188,use_fish!A:A,use_fish!J:J),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q188" s="25">
+      <c r="Q188" s="20">
         <v>161</v>
       </c>
     </row>
-    <row r="189" spans="1:17" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="23">
+    <row r="189" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="15">
         <v>188</v>
       </c>
-      <c r="B189" s="23">
-        <v>1</v>
-      </c>
-      <c r="C189" s="23" t="s">
+      <c r="B189" s="15">
+        <v>1</v>
+      </c>
+      <c r="C189" s="15" t="s">
         <v>369</v>
       </c>
-      <c r="H189" s="23">
+      <c r="H189">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q189,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R189,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S189,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T189,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U189,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V189,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W189,use_fish!A:A,use_fish!D:D),0),)</f>
         <v>75</v>
       </c>
-      <c r="I189" s="23">
+      <c r="I189">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q189,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(R189,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(S189,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(T189,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(U189,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(V189,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(W189,use_fish!A:A,use_fish!H:H),0),)</f>
         <v>75</v>
       </c>
-      <c r="J189" s="24">
+      <c r="J189" s="3">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q189,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(R189,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(S189,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(T189,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(U189,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(V189,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(W189,use_fish!A:A,use_fish!J:J),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q189" s="25">
+      <c r="Q189" s="20">
         <v>162</v>
       </c>
     </row>
-    <row r="190" spans="1:17" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="23">
+    <row r="190" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="15">
         <v>189</v>
       </c>
-      <c r="B190" s="23">
-        <v>1</v>
-      </c>
-      <c r="C190" s="23" t="s">
+      <c r="B190" s="15">
+        <v>1</v>
+      </c>
+      <c r="C190" s="15" t="s">
         <v>370</v>
       </c>
-      <c r="H190" s="23">
+      <c r="H190">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q190,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R190,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S190,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T190,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U190,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V190,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W190,use_fish!A:A,use_fish!D:D),0),)</f>
         <v>150</v>
       </c>
-      <c r="I190" s="23">
+      <c r="I190">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q190,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(R190,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(S190,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(T190,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(U190,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(V190,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(W190,use_fish!A:A,use_fish!H:H),0),)</f>
         <v>150</v>
       </c>
-      <c r="J190" s="24">
+      <c r="J190" s="3">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q190,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(R190,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(S190,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(T190,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(U190,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(V190,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(W190,use_fish!A:A,use_fish!J:J),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q190" s="25">
+      <c r="Q190" s="20">
         <v>163</v>
       </c>
     </row>
-    <row r="191" spans="1:17" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="23">
+    <row r="191" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="15">
         <v>190</v>
       </c>
-      <c r="B191" s="23">
-        <v>1</v>
-      </c>
-      <c r="C191" s="23" t="s">
+      <c r="B191" s="15">
+        <v>1</v>
+      </c>
+      <c r="C191" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="H191" s="23">
+      <c r="H191">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q191,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R191,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S191,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T191,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U191,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V191,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W191,use_fish!A:A,use_fish!D:D),0),)</f>
         <v>250</v>
       </c>
-      <c r="I191" s="23">
+      <c r="I191">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q191,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(R191,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(S191,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(T191,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(U191,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(V191,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(W191,use_fish!A:A,use_fish!H:H),0),)</f>
         <v>250</v>
       </c>
-      <c r="J191" s="24">
+      <c r="J191" s="3">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q191,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(R191,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(S191,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(T191,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(U191,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(V191,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(W191,use_fish!A:A,use_fish!J:J),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q191" s="25">
+      <c r="Q191" s="20">
         <v>164</v>
       </c>
     </row>
-    <row r="192" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="J192" s="21"/>
-      <c r="Q192" s="22"/>
-    </row>
-    <row r="193" spans="10:17" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="J193" s="21"/>
-      <c r="Q193" s="22"/>
-    </row>
-    <row r="194" spans="10:17" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="J194" s="21"/>
-      <c r="Q194" s="22"/>
-    </row>
-    <row r="195" spans="10:17" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="J195" s="21"/>
-      <c r="Q195" s="22"/>
+    <row r="192" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="15">
+        <v>191</v>
+      </c>
+      <c r="B192" s="21">
+        <v>1</v>
+      </c>
+      <c r="C192" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="H192">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q192,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R192,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S192,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T192,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U192,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V192,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W192,use_fish!A:A,use_fish!D:D),0),)</f>
+        <v>75</v>
+      </c>
+      <c r="I192">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q192,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(R192,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(S192,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(T192,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(U192,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(V192,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(W192,use_fish!A:A,use_fish!H:H),0),)</f>
+        <v>75</v>
+      </c>
+      <c r="J192" s="3">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q192,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(R192,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(S192,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(T192,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(U192,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(V192,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(W192,use_fish!A:A,use_fish!J:J),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="Q192" s="20">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="193" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="15">
+        <v>192</v>
+      </c>
+      <c r="B193" s="21">
+        <v>1</v>
+      </c>
+      <c r="C193" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="H193">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q193,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(R193,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(S193,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(T193,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(U193,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(V193,use_fish!A:A,use_fish!D:D),0),_xlfn.IFNA(LOOKUP(W193,use_fish!A:A,use_fish!D:D),0),)</f>
+        <v>75</v>
+      </c>
+      <c r="I193">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q193,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(R193,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(S193,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(T193,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(U193,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(V193,use_fish!A:A,use_fish!H:H),0),_xlfn.IFNA(LOOKUP(W193,use_fish!A:A,use_fish!H:H),0),)</f>
+        <v>75</v>
+      </c>
+      <c r="J193" s="3">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q193,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(R193,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(S193,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(T193,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(U193,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(V193,use_fish!A:A,use_fish!J:J),0),_xlfn.IFNA(LOOKUP(W193,use_fish!A:A,use_fish!J:J),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="Q193" s="20">
+        <v>166</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7481,7 +7545,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H145 H149 H151:H195">
+  <conditionalFormatting sqref="H2:H145 H149 H151:H193">
     <cfRule type="iconSet" priority="15">
       <iconSet iconSet="5Arrows">
         <cfvo type="percent" val="0"/>
@@ -7492,7 +7556,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I145 I149 I151:I195">
+  <conditionalFormatting sqref="I2:I145 I149 I151:I193">
     <cfRule type="iconSet" priority="14">
       <iconSet iconSet="5Arrows">
         <cfvo type="percent" val="0"/>
@@ -7503,7 +7567,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J145 J149 J151:J195">
+  <conditionalFormatting sqref="J2:J145 J149 J151:J193">
     <cfRule type="iconSet" priority="13">
       <iconSet iconSet="5Arrows">
         <cfvo type="percent" val="0"/>
@@ -7600,8 +7664,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7651,11 +7714,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:M166"/>
+  <dimension ref="A1:M167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A158" sqref="A158"/>
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E175" sqref="E175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15460,20 +15523,99 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="17"/>
-      <c r="B166" s="18"/>
-      <c r="C166" s="17"/>
-      <c r="D166"/>
-      <c r="E166" s="2"/>
-      <c r="F166" s="3"/>
-      <c r="G166" s="2"/>
-      <c r="H166"/>
-      <c r="I166"/>
-      <c r="J166"/>
-      <c r="K166"/>
-      <c r="L166"/>
-      <c r="M166"/>
+    <row r="166" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="17">
+        <v>165</v>
+      </c>
+      <c r="B166" s="23">
+        <v>33</v>
+      </c>
+      <c r="C166" s="22">
+        <v>39</v>
+      </c>
+      <c r="D166" s="21">
+        <f>LOOKUP(use_fish!B166,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C166,activity!A:A,0)),0)</f>
+        <v>75</v>
+      </c>
+      <c r="E166" s="22">
+        <f>1/D166</f>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="F166" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="G166" s="22" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B166,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C166,activity!A:A,0)),"")</f>
+        <v>话费鱼+话费鱼</v>
+      </c>
+      <c r="H166" s="21">
+        <f>LOOKUP(use_fish!B166,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C166,activity!A:A,0)),0)</f>
+        <v>75</v>
+      </c>
+      <c r="I166" s="21">
+        <v>1</v>
+      </c>
+      <c r="J166" s="21">
+        <f>LOOKUP(use_fish!B166,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="K166" s="21">
+        <f>H166</f>
+        <v>75</v>
+      </c>
+      <c r="L166" s="21">
+        <v>1</v>
+      </c>
+      <c r="M166" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="17">
+        <v>166</v>
+      </c>
+      <c r="B167" s="23">
+        <v>33</v>
+      </c>
+      <c r="C167" s="22">
+        <v>40</v>
+      </c>
+      <c r="D167" s="21">
+        <f>LOOKUP(use_fish!B167,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C167,activity!A:A,0)),0)</f>
+        <v>75</v>
+      </c>
+      <c r="E167" s="22">
+        <f>1/D167</f>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="F167" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="G167" s="22" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B167,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C167,activity!A:A,0)),"")</f>
+        <v>话费鱼+话费鱼</v>
+      </c>
+      <c r="H167" s="21">
+        <f>LOOKUP(use_fish!B167,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C167,activity!A:A,0)),0)</f>
+        <v>75</v>
+      </c>
+      <c r="I167" s="21">
+        <v>1</v>
+      </c>
+      <c r="J167" s="21">
+        <f>LOOKUP(use_fish!B167,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="K167" s="21">
+        <f>H167</f>
+        <v>75</v>
+      </c>
+      <c r="L167" s="21">
+        <v>1</v>
+      </c>
+      <c r="M167" s="21">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -15485,16 +15627,16 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:G11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="27.25" customWidth="1"/>
+    <col min="3" max="3" width="29.375" customWidth="1"/>
     <col min="4" max="5" width="16.125" customWidth="1"/>
     <col min="6" max="7" width="15.125" customWidth="1"/>
     <col min="11" max="11" width="12.125" customWidth="1"/>
@@ -16560,6 +16702,52 @@
       </c>
       <c r="G39" s="10" t="s">
         <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="24">
+        <v>39</v>
+      </c>
+      <c r="B40" s="24">
+        <v>9</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="D40" s="25">
+        <v>1</v>
+      </c>
+      <c r="E40" s="25">
+        <v>1</v>
+      </c>
+      <c r="F40" s="24">
+        <v>75</v>
+      </c>
+      <c r="G40" s="24" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="24">
+        <v>40</v>
+      </c>
+      <c r="B41" s="24">
+        <v>9</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>377</v>
+      </c>
+      <c r="D41" s="25">
+        <v>1</v>
+      </c>
+      <c r="E41" s="25">
+        <v>1</v>
+      </c>
+      <c r="F41" s="24">
+        <v>75</v>
+      </c>
+      <c r="G41" s="24" t="s">
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -16654,10 +16842,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17484,6 +17672,29 @@
         <v>0</v>
       </c>
       <c r="G33" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3">
         <v>0</v>
       </c>
     </row>

--- a/config_debug/fish_2d_fish_server.xlsx
+++ b/config_debug/fish_2d_fish_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="group" sheetId="1" r:id="rId1"/>
@@ -302,7 +302,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="405">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1688,6 +1688,50 @@
   </si>
   <si>
     <t>50,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饺子鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>175,</t>
+  </si>
+  <si>
+    <t>176,</t>
+  </si>
+  <si>
+    <t>177,</t>
+  </si>
+  <si>
+    <t>178,</t>
+  </si>
+  <si>
+    <t>179,</t>
+  </si>
+  <si>
+    <t>180,</t>
+  </si>
+  <si>
+    <t>181,</t>
+  </si>
+  <si>
+    <t>182,</t>
+  </si>
+  <si>
+    <t>"prop_dz_jz",1,0.01,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_dz_jz",0,0.05,0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_dz_jz",0,0.1,0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_dz_jz",0,0.2,0.3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1746,7 +1790,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1786,6 +1830,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1829,7 +1879,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1919,6 +1969,22 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2202,10 +2268,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:W201"/>
+  <dimension ref="A1:W209"/>
   <sheetViews>
-    <sheetView topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="A198" sqref="A198"/>
+    <sheetView topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="I200" sqref="I200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -7818,6 +7884,294 @@
         <v>174</v>
       </c>
     </row>
+    <row r="202" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A202" s="37">
+        <v>201</v>
+      </c>
+      <c r="B202" s="37">
+        <v>1</v>
+      </c>
+      <c r="C202" s="37" t="s">
+        <v>393</v>
+      </c>
+      <c r="D202" s="37"/>
+      <c r="E202" s="37"/>
+      <c r="F202" s="37"/>
+      <c r="G202" s="37"/>
+      <c r="H202" s="37">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q202,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R202,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S202,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T202,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U202,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V202,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W202,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>30</v>
+      </c>
+      <c r="I202" s="37">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q202,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R202,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S202,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T202,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U202,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V202,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W202,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>30</v>
+      </c>
+      <c r="J202" s="36">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q202,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R202,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S202,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T202,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U202,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V202,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W202,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K202" s="37"/>
+      <c r="L202" s="37"/>
+      <c r="M202" s="37"/>
+      <c r="N202" s="37"/>
+      <c r="O202" s="37"/>
+      <c r="P202" s="37"/>
+      <c r="Q202" s="41">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="203" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A203" s="37">
+        <v>202</v>
+      </c>
+      <c r="B203" s="37">
+        <v>1</v>
+      </c>
+      <c r="C203" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="D203" s="37"/>
+      <c r="E203" s="37"/>
+      <c r="F203" s="37"/>
+      <c r="G203" s="37"/>
+      <c r="H203" s="37">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q203,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R203,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S203,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T203,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U203,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V203,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W203,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>40</v>
+      </c>
+      <c r="I203" s="37">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q203,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R203,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S203,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T203,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U203,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V203,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W203,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>40</v>
+      </c>
+      <c r="J203" s="36">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q203,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R203,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S203,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T203,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U203,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V203,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W203,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K203" s="37"/>
+      <c r="L203" s="37"/>
+      <c r="M203" s="37"/>
+      <c r="N203" s="37"/>
+      <c r="O203" s="37"/>
+      <c r="P203" s="37"/>
+      <c r="Q203" s="41">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="204" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A204" s="37">
+        <v>203</v>
+      </c>
+      <c r="B204" s="37">
+        <v>1</v>
+      </c>
+      <c r="C204" s="37" t="s">
+        <v>395</v>
+      </c>
+      <c r="D204" s="37"/>
+      <c r="E204" s="37"/>
+      <c r="F204" s="37"/>
+      <c r="G204" s="37"/>
+      <c r="H204" s="37">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q204,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R204,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S204,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T204,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U204,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V204,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W204,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>50</v>
+      </c>
+      <c r="I204" s="37">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q204,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R204,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S204,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T204,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U204,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V204,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W204,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>50</v>
+      </c>
+      <c r="J204" s="36">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q204,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R204,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S204,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T204,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U204,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V204,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W204,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K204" s="37"/>
+      <c r="L204" s="37"/>
+      <c r="M204" s="37"/>
+      <c r="N204" s="37"/>
+      <c r="O204" s="37"/>
+      <c r="P204" s="37"/>
+      <c r="Q204" s="41">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="205" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A205" s="37">
+        <v>204</v>
+      </c>
+      <c r="B205" s="37">
+        <v>1</v>
+      </c>
+      <c r="C205" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="D205" s="37"/>
+      <c r="E205" s="37"/>
+      <c r="F205" s="37"/>
+      <c r="G205" s="37"/>
+      <c r="H205" s="37">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q205,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R205,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S205,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T205,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U205,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V205,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W205,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>60</v>
+      </c>
+      <c r="I205" s="37">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q205,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R205,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S205,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T205,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U205,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V205,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W205,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>60</v>
+      </c>
+      <c r="J205" s="36">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q205,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R205,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S205,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T205,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U205,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V205,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W205,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K205" s="37"/>
+      <c r="L205" s="37"/>
+      <c r="M205" s="37"/>
+      <c r="N205" s="37"/>
+      <c r="O205" s="37"/>
+      <c r="P205" s="37"/>
+      <c r="Q205" s="41">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="206" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A206" s="37">
+        <v>205</v>
+      </c>
+      <c r="B206" s="37">
+        <v>1</v>
+      </c>
+      <c r="C206" s="37" t="s">
+        <v>397</v>
+      </c>
+      <c r="D206" s="37"/>
+      <c r="E206" s="37"/>
+      <c r="F206" s="37"/>
+      <c r="G206" s="37"/>
+      <c r="H206" s="37">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q206,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R206,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S206,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T206,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U206,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V206,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W206,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>70</v>
+      </c>
+      <c r="I206" s="37">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q206,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R206,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S206,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T206,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U206,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V206,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W206,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>70</v>
+      </c>
+      <c r="J206" s="36">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q206,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R206,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S206,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T206,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U206,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V206,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W206,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K206" s="37"/>
+      <c r="L206" s="37"/>
+      <c r="M206" s="37"/>
+      <c r="N206" s="37"/>
+      <c r="O206" s="37"/>
+      <c r="P206" s="37"/>
+      <c r="Q206" s="41">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="207" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A207" s="37">
+        <v>206</v>
+      </c>
+      <c r="B207" s="37">
+        <v>1</v>
+      </c>
+      <c r="C207" s="37" t="s">
+        <v>398</v>
+      </c>
+      <c r="D207" s="37"/>
+      <c r="E207" s="37"/>
+      <c r="F207" s="37"/>
+      <c r="G207" s="37"/>
+      <c r="H207" s="37">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q207,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R207,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S207,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T207,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U207,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V207,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W207,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>75</v>
+      </c>
+      <c r="I207" s="37">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q207,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R207,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S207,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T207,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U207,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V207,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W207,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>75</v>
+      </c>
+      <c r="J207" s="36">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q207,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R207,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S207,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T207,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U207,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V207,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W207,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K207" s="37"/>
+      <c r="L207" s="37"/>
+      <c r="M207" s="37"/>
+      <c r="N207" s="37"/>
+      <c r="O207" s="37"/>
+      <c r="P207" s="37"/>
+      <c r="Q207" s="41">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="208" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A208" s="37">
+        <v>207</v>
+      </c>
+      <c r="B208" s="37">
+        <v>1</v>
+      </c>
+      <c r="C208" s="37" t="s">
+        <v>399</v>
+      </c>
+      <c r="D208" s="37"/>
+      <c r="E208" s="37"/>
+      <c r="F208" s="37"/>
+      <c r="G208" s="37"/>
+      <c r="H208" s="37">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q208,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R208,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S208,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T208,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U208,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V208,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W208,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>150</v>
+      </c>
+      <c r="I208" s="37">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q208,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R208,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S208,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T208,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U208,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V208,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W208,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>150</v>
+      </c>
+      <c r="J208" s="36">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q208,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R208,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S208,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T208,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U208,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V208,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W208,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K208" s="37"/>
+      <c r="L208" s="37"/>
+      <c r="M208" s="37"/>
+      <c r="N208" s="37"/>
+      <c r="O208" s="37"/>
+      <c r="P208" s="37"/>
+      <c r="Q208" s="41">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="209" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A209" s="37">
+        <v>208</v>
+      </c>
+      <c r="B209" s="37">
+        <v>1</v>
+      </c>
+      <c r="C209" s="37" t="s">
+        <v>400</v>
+      </c>
+      <c r="D209" s="37"/>
+      <c r="E209" s="37"/>
+      <c r="F209" s="37"/>
+      <c r="G209" s="37"/>
+      <c r="H209" s="37">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q209,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R209,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S209,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T209,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U209,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V209,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W209,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>250</v>
+      </c>
+      <c r="I209" s="37">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q209,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R209,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S209,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T209,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U209,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V209,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W209,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>250</v>
+      </c>
+      <c r="J209" s="36">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q209,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R209,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S209,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T209,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U209,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V209,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W209,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K209" s="37"/>
+      <c r="L209" s="37"/>
+      <c r="M209" s="37"/>
+      <c r="N209" s="37"/>
+      <c r="O209" s="37"/>
+      <c r="P209" s="37"/>
+      <c r="Q209" s="41">
+        <v>182</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I1">
@@ -7831,7 +8185,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H145 H149 H151:H201">
+  <conditionalFormatting sqref="H2:H145 H149 H151:H209">
     <cfRule type="iconSet" priority="15">
       <iconSet iconSet="5Arrows">
         <cfvo type="percent" val="0"/>
@@ -7842,7 +8196,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I145 I149 I151:I201">
+  <conditionalFormatting sqref="I2:I145 I149 I151:I209">
     <cfRule type="iconSet" priority="14">
       <iconSet iconSet="5Arrows">
         <cfvo type="percent" val="0"/>
@@ -7853,7 +8207,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J145 J149 J151:J201">
+  <conditionalFormatting sqref="J2:J145 J149 J151:J209">
     <cfRule type="iconSet" priority="13">
       <iconSet iconSet="5Arrows">
         <cfvo type="percent" val="0"/>
@@ -8000,11 +8354,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:N175"/>
+  <dimension ref="A1:N183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D167" sqref="D167"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K181" sqref="K181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15930,7 +16284,7 @@
         <v>30</v>
       </c>
       <c r="F168" s="26">
-        <f t="shared" ref="F168:F175" si="8">1/E168</f>
+        <f t="shared" ref="F168:F183" si="8">1/E168</f>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="G168" s="27" t="s">
@@ -15952,7 +16306,7 @@
         <v>0</v>
       </c>
       <c r="L168" s="28">
-        <f t="shared" ref="L168:L175" si="9">I168</f>
+        <f t="shared" ref="L168:L183" si="9">I168</f>
         <v>30</v>
       </c>
       <c r="M168" s="28">
@@ -16295,6 +16649,390 @@
         <v>1</v>
       </c>
       <c r="N175" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A176" s="39">
+        <v>175</v>
+      </c>
+      <c r="B176" s="36">
+        <v>6</v>
+      </c>
+      <c r="C176" s="39">
+        <v>47</v>
+      </c>
+      <c r="D176" s="40"/>
+      <c r="E176" s="37">
+        <f>LOOKUP(use_fish!B176,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C176,activity!A:A,0)),0)</f>
+        <v>30</v>
+      </c>
+      <c r="F176" s="39">
+        <f t="shared" si="8"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="G176" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="H176" s="39" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B176,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C176,activity!A:A,0)),"")</f>
+        <v>蓝灯鱼+临时活动</v>
+      </c>
+      <c r="I176" s="37">
+        <f>LOOKUP(use_fish!B176,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C176,activity!A:A,0)),0)</f>
+        <v>30</v>
+      </c>
+      <c r="J176" s="37">
+        <v>1</v>
+      </c>
+      <c r="K176" s="37">
+        <f>LOOKUP(use_fish!B176,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L176" s="37">
+        <f t="shared" si="9"/>
+        <v>30</v>
+      </c>
+      <c r="M176" s="37">
+        <v>1</v>
+      </c>
+      <c r="N176" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A177" s="39">
+        <v>176</v>
+      </c>
+      <c r="B177" s="36">
+        <v>7</v>
+      </c>
+      <c r="C177" s="39">
+        <v>47</v>
+      </c>
+      <c r="D177" s="40"/>
+      <c r="E177" s="37">
+        <f>LOOKUP(use_fish!B177,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C177,activity!A:A,0)),0)</f>
+        <v>40</v>
+      </c>
+      <c r="F177" s="39">
+        <f t="shared" si="8"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G177" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="H177" s="39" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B177,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C177,activity!A:A,0)),"")</f>
+        <v>红杉鱼+临时活动</v>
+      </c>
+      <c r="I177" s="37">
+        <f>LOOKUP(use_fish!B177,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C177,activity!A:A,0)),0)</f>
+        <v>40</v>
+      </c>
+      <c r="J177" s="37">
+        <v>1</v>
+      </c>
+      <c r="K177" s="37">
+        <f>LOOKUP(use_fish!B177,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L177" s="37">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="M177" s="37">
+        <v>1</v>
+      </c>
+      <c r="N177" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A178" s="39">
+        <v>177</v>
+      </c>
+      <c r="B178" s="36">
+        <v>8</v>
+      </c>
+      <c r="C178" s="39">
+        <v>47</v>
+      </c>
+      <c r="D178" s="40"/>
+      <c r="E178" s="37">
+        <f>LOOKUP(use_fish!B178,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C178,activity!A:A,0)),0)</f>
+        <v>50</v>
+      </c>
+      <c r="F178" s="39">
+        <f t="shared" si="8"/>
+        <v>0.02</v>
+      </c>
+      <c r="G178" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="H178" s="39" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B178,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C178,activity!A:A,0)),"")</f>
+        <v>海龟+临时活动</v>
+      </c>
+      <c r="I178" s="37">
+        <f>LOOKUP(use_fish!B178,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C178,activity!A:A,0)),0)</f>
+        <v>50</v>
+      </c>
+      <c r="J178" s="37">
+        <v>1</v>
+      </c>
+      <c r="K178" s="37">
+        <f>LOOKUP(use_fish!B178,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L178" s="37">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="M178" s="37">
+        <v>1</v>
+      </c>
+      <c r="N178" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A179" s="39">
+        <v>178</v>
+      </c>
+      <c r="B179" s="36">
+        <v>9</v>
+      </c>
+      <c r="C179" s="39">
+        <v>47</v>
+      </c>
+      <c r="D179" s="40"/>
+      <c r="E179" s="37">
+        <f>LOOKUP(use_fish!B179,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C179,activity!A:A,0)),0)</f>
+        <v>60</v>
+      </c>
+      <c r="F179" s="39">
+        <f t="shared" si="8"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="G179" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="H179" s="39" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B179,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C179,activity!A:A,0)),"")</f>
+        <v>灯笼鱼+临时活动</v>
+      </c>
+      <c r="I179" s="37">
+        <f>LOOKUP(use_fish!B179,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C179,activity!A:A,0)),0)</f>
+        <v>60</v>
+      </c>
+      <c r="J179" s="37">
+        <v>1</v>
+      </c>
+      <c r="K179" s="37">
+        <f>LOOKUP(use_fish!B179,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L179" s="37">
+        <f t="shared" si="9"/>
+        <v>60</v>
+      </c>
+      <c r="M179" s="37">
+        <v>1</v>
+      </c>
+      <c r="N179" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A180" s="39">
+        <v>179</v>
+      </c>
+      <c r="B180" s="36">
+        <v>10</v>
+      </c>
+      <c r="C180" s="39">
+        <v>47</v>
+      </c>
+      <c r="D180" s="40"/>
+      <c r="E180" s="37">
+        <f>LOOKUP(use_fish!B180,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C180,activity!A:A,0)),0)</f>
+        <v>70</v>
+      </c>
+      <c r="F180" s="39">
+        <f t="shared" si="8"/>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="G180" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="H180" s="39" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B180,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C180,activity!A:A,0)),"")</f>
+        <v>魔鬼鱼+临时活动</v>
+      </c>
+      <c r="I180" s="37">
+        <f>LOOKUP(use_fish!B180,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C180,activity!A:A,0)),0)</f>
+        <v>70</v>
+      </c>
+      <c r="J180" s="37">
+        <v>1</v>
+      </c>
+      <c r="K180" s="37">
+        <f>LOOKUP(use_fish!B180,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L180" s="37">
+        <f t="shared" si="9"/>
+        <v>70</v>
+      </c>
+      <c r="M180" s="37">
+        <v>1</v>
+      </c>
+      <c r="N180" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A181" s="39">
+        <v>180</v>
+      </c>
+      <c r="B181" s="36">
+        <v>35</v>
+      </c>
+      <c r="C181" s="39">
+        <v>44</v>
+      </c>
+      <c r="D181" s="40"/>
+      <c r="E181" s="37">
+        <f>LOOKUP(use_fish!B181,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C181,activity!A:A,0)),0)</f>
+        <v>75</v>
+      </c>
+      <c r="F181" s="39">
+        <f t="shared" si="8"/>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="G181" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="H181" s="39" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B181,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C181,activity!A:A,0)),"")</f>
+        <v>饺子鱼+临时活动</v>
+      </c>
+      <c r="I181" s="37">
+        <f>LOOKUP(use_fish!B181,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C181,activity!A:A,0)),0)</f>
+        <v>75</v>
+      </c>
+      <c r="J181" s="37">
+        <v>1</v>
+      </c>
+      <c r="K181" s="37">
+        <f>LOOKUP(use_fish!B181,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L181" s="37">
+        <f t="shared" si="9"/>
+        <v>75</v>
+      </c>
+      <c r="M181" s="37">
+        <v>1</v>
+      </c>
+      <c r="N181" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A182" s="39">
+        <v>181</v>
+      </c>
+      <c r="B182" s="36">
+        <v>35</v>
+      </c>
+      <c r="C182" s="39">
+        <v>45</v>
+      </c>
+      <c r="D182" s="40"/>
+      <c r="E182" s="37">
+        <f>LOOKUP(use_fish!B182,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C182,activity!A:A,0)),0)</f>
+        <v>150</v>
+      </c>
+      <c r="F182" s="39">
+        <f t="shared" si="8"/>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="G182" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="H182" s="39" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B182,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C182,activity!A:A,0)),"")</f>
+        <v>饺子鱼+临时活动</v>
+      </c>
+      <c r="I182" s="37">
+        <f>LOOKUP(use_fish!B182,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C182,activity!A:A,0)),0)</f>
+        <v>150</v>
+      </c>
+      <c r="J182" s="37">
+        <v>1</v>
+      </c>
+      <c r="K182" s="37">
+        <f>LOOKUP(use_fish!B182,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L182" s="37">
+        <f t="shared" si="9"/>
+        <v>150</v>
+      </c>
+      <c r="M182" s="37">
+        <v>1</v>
+      </c>
+      <c r="N182" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A183" s="39">
+        <v>182</v>
+      </c>
+      <c r="B183" s="36">
+        <v>35</v>
+      </c>
+      <c r="C183" s="39">
+        <v>46</v>
+      </c>
+      <c r="D183" s="40"/>
+      <c r="E183" s="37">
+        <f>LOOKUP(use_fish!B183,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C183,activity!A:A,0)),0)</f>
+        <v>250</v>
+      </c>
+      <c r="F183" s="39">
+        <f t="shared" si="8"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G183" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="H183" s="39" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B183,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C183,activity!A:A,0)),"")</f>
+        <v>饺子鱼+临时活动</v>
+      </c>
+      <c r="I183" s="37">
+        <f>LOOKUP(use_fish!B183,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C183,activity!A:A,0)),0)</f>
+        <v>250</v>
+      </c>
+      <c r="J183" s="37">
+        <v>1</v>
+      </c>
+      <c r="K183" s="37">
+        <f>LOOKUP(use_fish!B183,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L183" s="37">
+        <f t="shared" si="9"/>
+        <v>250</v>
+      </c>
+      <c r="M183" s="37">
+        <v>1</v>
+      </c>
+      <c r="N183" s="37">
         <v>0</v>
       </c>
     </row>
@@ -16308,10 +17046,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17500,10 +18238,102 @@
         <v>132</v>
       </c>
     </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="37">
+        <v>44</v>
+      </c>
+      <c r="B45" s="37">
+        <v>9</v>
+      </c>
+      <c r="C45" s="37" t="s">
+        <v>402</v>
+      </c>
+      <c r="D45" s="38">
+        <v>0</v>
+      </c>
+      <c r="E45" s="38">
+        <v>1</v>
+      </c>
+      <c r="F45" s="37">
+        <v>75</v>
+      </c>
+      <c r="G45" s="37" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="37">
+        <v>45</v>
+      </c>
+      <c r="B46" s="37">
+        <v>9</v>
+      </c>
+      <c r="C46" s="37" t="s">
+        <v>403</v>
+      </c>
+      <c r="D46" s="38">
+        <v>0</v>
+      </c>
+      <c r="E46" s="38">
+        <v>1</v>
+      </c>
+      <c r="F46" s="37">
+        <v>150</v>
+      </c>
+      <c r="G46" s="37" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="37">
+        <v>46</v>
+      </c>
+      <c r="B47" s="37">
+        <v>9</v>
+      </c>
+      <c r="C47" s="37" t="s">
+        <v>404</v>
+      </c>
+      <c r="D47" s="38">
+        <v>0</v>
+      </c>
+      <c r="E47" s="38">
+        <v>1</v>
+      </c>
+      <c r="F47" s="37">
+        <v>250</v>
+      </c>
+      <c r="G47" s="37" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="37">
+        <v>47</v>
+      </c>
+      <c r="B48" s="37">
+        <v>9</v>
+      </c>
+      <c r="C48" s="37" t="s">
+        <v>401</v>
+      </c>
+      <c r="D48" s="38">
+        <v>1</v>
+      </c>
+      <c r="E48" s="38">
+        <v>1</v>
+      </c>
+      <c r="F48" s="37">
+        <v>10</v>
+      </c>
+      <c r="G48" s="37" t="s">
+        <v>132</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17592,11 +18422,11 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
+      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18469,6 +19299,29 @@
         <v>0</v>
       </c>
       <c r="G35" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="36">
+        <v>1</v>
+      </c>
+      <c r="C36" s="36">
+        <v>0</v>
+      </c>
+      <c r="D36" s="36">
+        <v>0</v>
+      </c>
+      <c r="E36" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="F36" s="36">
+        <v>0</v>
+      </c>
+      <c r="G36" s="36">
         <v>0</v>
       </c>
     </row>

--- a/config_debug/fish_2d_fish_server.xlsx
+++ b/config_debug/fish_2d_fish_server.xlsx
@@ -1719,10 +1719,6 @@
     <t>182,</t>
   </si>
   <si>
-    <t>"prop_dz_jz",1,0.01,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"prop_dz_jz",0,0.05,0.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1732,6 +1728,10 @@
   </si>
   <si>
     <t>"prop_dz_jz",0,0.2,0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_dz_jz",0,0.01,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8358,7 +8358,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K181" sqref="K181"/>
+      <selection pane="bottomLeft" activeCell="A176" sqref="A176:N183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17049,7 +17049,7 @@
   <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18246,7 +18246,7 @@
         <v>9</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D45" s="38">
         <v>0</v>
@@ -18269,7 +18269,7 @@
         <v>9</v>
       </c>
       <c r="C46" s="37" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D46" s="38">
         <v>0</v>
@@ -18292,7 +18292,7 @@
         <v>9</v>
       </c>
       <c r="C47" s="37" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D47" s="38">
         <v>0</v>
@@ -18315,7 +18315,7 @@
         <v>9</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D48" s="38">
         <v>1</v>

--- a/config_debug/fish_2d_fish_server.xlsx
+++ b/config_debug/fish_2d_fish_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="group" sheetId="1" r:id="rId1"/>
@@ -1691,10 +1691,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>饺子鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>175,</t>
   </si>
   <si>
@@ -1719,19 +1715,19 @@
     <t>182,</t>
   </si>
   <si>
-    <t>"prop_dz_jz",0,0.05,0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_dz_jz",0,0.1,0.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_dz_jz",0,0.2,0.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_dz_jz",0,0.01,</t>
+    <t>"prop_sd_lh",0,0.05,0.1</t>
+  </si>
+  <si>
+    <t>"prop_sd_lh",0,0.1,0.2</t>
+  </si>
+  <si>
+    <t>"prop_sd_lh",0,0.2,0.3</t>
+  </si>
+  <si>
+    <t>"prop_sd_lh",1,0.01,</t>
+  </si>
+  <si>
+    <t>袜子boss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2270,7 +2266,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W209"/>
   <sheetViews>
-    <sheetView topLeftCell="A180" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
       <selection activeCell="I200" sqref="I200"/>
     </sheetView>
   </sheetViews>
@@ -7892,7 +7888,7 @@
         <v>1</v>
       </c>
       <c r="C202" s="37" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D202" s="37"/>
       <c r="E202" s="37"/>
@@ -7928,7 +7924,7 @@
         <v>1</v>
       </c>
       <c r="C203" s="37" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D203" s="37"/>
       <c r="E203" s="37"/>
@@ -7964,7 +7960,7 @@
         <v>1</v>
       </c>
       <c r="C204" s="37" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D204" s="37"/>
       <c r="E204" s="37"/>
@@ -8000,7 +7996,7 @@
         <v>1</v>
       </c>
       <c r="C205" s="37" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D205" s="37"/>
       <c r="E205" s="37"/>
@@ -8036,7 +8032,7 @@
         <v>1</v>
       </c>
       <c r="C206" s="37" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D206" s="37"/>
       <c r="E206" s="37"/>
@@ -8072,7 +8068,7 @@
         <v>1</v>
       </c>
       <c r="C207" s="37" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D207" s="37"/>
       <c r="E207" s="37"/>
@@ -8108,7 +8104,7 @@
         <v>1</v>
       </c>
       <c r="C208" s="37" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D208" s="37"/>
       <c r="E208" s="37"/>
@@ -8144,7 +8140,7 @@
         <v>1</v>
       </c>
       <c r="C209" s="37" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D209" s="37"/>
       <c r="E209" s="37"/>
@@ -8358,7 +8354,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A176" sqref="A176:N183"/>
+      <selection pane="bottomLeft" activeCell="H188" sqref="H188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16916,7 +16912,7 @@
       </c>
       <c r="H181" s="39" t="str">
         <f>INDEX(base_fish!E:E,MATCH(use_fish!B181,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C181,activity!A:A,0)),"")</f>
-        <v>饺子鱼+临时活动</v>
+        <v>袜子boss+临时活动</v>
       </c>
       <c r="I181" s="37">
         <f>LOOKUP(use_fish!B181,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C181,activity!A:A,0)),0)</f>
@@ -16964,7 +16960,7 @@
       </c>
       <c r="H182" s="39" t="str">
         <f>INDEX(base_fish!E:E,MATCH(use_fish!B182,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C182,activity!A:A,0)),"")</f>
-        <v>饺子鱼+临时活动</v>
+        <v>袜子boss+临时活动</v>
       </c>
       <c r="I182" s="37">
         <f>LOOKUP(use_fish!B182,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C182,activity!A:A,0)),0)</f>
@@ -17012,7 +17008,7 @@
       </c>
       <c r="H183" s="39" t="str">
         <f>INDEX(base_fish!E:E,MATCH(use_fish!B183,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C183,activity!A:A,0)),"")</f>
-        <v>饺子鱼+临时活动</v>
+        <v>袜子boss+临时活动</v>
       </c>
       <c r="I183" s="37">
         <f>LOOKUP(use_fish!B183,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C183,activity!A:A,0)),0)</f>
@@ -17048,8 +17044,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18246,7 +18242,7 @@
         <v>9</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D45" s="38">
         <v>0</v>
@@ -18269,7 +18265,7 @@
         <v>9</v>
       </c>
       <c r="C46" s="37" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D46" s="38">
         <v>0</v>
@@ -18292,7 +18288,7 @@
         <v>9</v>
       </c>
       <c r="C47" s="37" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D47" s="38">
         <v>0</v>
@@ -18315,7 +18311,7 @@
         <v>9</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D48" s="38">
         <v>1</v>
@@ -18426,7 +18422,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
+      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19316,7 +19312,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="36" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="F36" s="36">
         <v>0</v>

--- a/config_debug/fish_2d_fish_server.xlsx
+++ b/config_debug/fish_2d_fish_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="group" sheetId="1" r:id="rId1"/>
@@ -302,7 +302,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="406">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1715,20 +1715,24 @@
     <t>182,</t>
   </si>
   <si>
-    <t>"prop_sd_lh",0,0.05,0.1</t>
-  </si>
-  <si>
-    <t>"prop_sd_lh",0,0.1,0.2</t>
-  </si>
-  <si>
-    <t>"prop_sd_lh",0,0.2,0.3</t>
-  </si>
-  <si>
-    <t>"prop_sd_lh",1,0.01,</t>
-  </si>
-  <si>
     <t>袜子boss</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金牛boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_yd_jyb",0,0.1,0.2</t>
+  </si>
+  <si>
+    <t>"prop_yd_jyb",0,0.2,0.3</t>
+  </si>
+  <si>
+    <t>"prop_yd_jyb",0,0.3,0.4</t>
+  </si>
+  <si>
+    <t>"prop_yd_jyb",1,0.01,</t>
   </si>
 </sst>
 </file>
@@ -2266,7 +2270,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+    <sheetView topLeftCell="A180" workbookViewId="0">
       <selection activeCell="I200" sqref="I200"/>
     </sheetView>
   </sheetViews>
@@ -8076,11 +8080,11 @@
       <c r="G207" s="37"/>
       <c r="H207" s="37">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q207,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R207,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S207,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T207,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U207,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V207,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W207,use_fish!A:A,use_fish!E:E),0),)</f>
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="I207" s="37">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q207,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R207,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S207,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T207,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U207,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V207,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W207,use_fish!A:A,use_fish!I:I),0),)</f>
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="J207" s="36">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q207,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R207,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S207,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T207,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U207,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V207,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W207,use_fish!A:A,use_fish!K:K),0),)</f>
@@ -8112,11 +8116,11 @@
       <c r="G208" s="37"/>
       <c r="H208" s="37">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q208,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R208,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S208,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T208,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U208,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V208,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W208,use_fish!A:A,use_fish!E:E),0),)</f>
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="I208" s="37">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q208,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R208,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S208,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T208,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U208,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V208,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W208,use_fish!A:A,use_fish!I:I),0),)</f>
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="J208" s="36">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q208,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R208,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S208,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T208,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U208,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V208,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W208,use_fish!A:A,use_fish!K:K),0),)</f>
@@ -8148,11 +8152,11 @@
       <c r="G209" s="37"/>
       <c r="H209" s="37">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q209,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R209,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S209,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T209,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U209,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V209,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W209,use_fish!A:A,use_fish!E:E),0),)</f>
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="I209" s="37">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q209,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R209,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S209,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T209,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U209,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V209,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W209,use_fish!A:A,use_fish!I:I),0),)</f>
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="J209" s="36">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q209,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R209,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S209,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T209,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U209,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V209,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W209,use_fish!A:A,use_fish!K:K),0),)</f>
@@ -8352,9 +8356,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N183"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H188" sqref="H188"/>
+      <selection pane="bottomLeft" activeCell="N183" sqref="N183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16893,7 +16897,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="36">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C181" s="39">
         <v>44</v>
@@ -16901,22 +16905,22 @@
       <c r="D181" s="40"/>
       <c r="E181" s="37">
         <f>LOOKUP(use_fish!B181,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C181,activity!A:A,0)),0)</f>
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="F181" s="39">
         <f t="shared" si="8"/>
-        <v>1.3333333333333334E-2</v>
+        <v>6.6666666666666671E-3</v>
       </c>
       <c r="G181" s="36" t="s">
         <v>81</v>
       </c>
       <c r="H181" s="39" t="str">
         <f>INDEX(base_fish!E:E,MATCH(use_fish!B181,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C181,activity!A:A,0)),"")</f>
-        <v>袜子boss+临时活动</v>
+        <v>金牛boss+临时活动</v>
       </c>
       <c r="I181" s="37">
         <f>LOOKUP(use_fish!B181,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C181,activity!A:A,0)),0)</f>
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="J181" s="37">
         <v>1</v>
@@ -16927,13 +16931,13 @@
       </c>
       <c r="L181" s="37">
         <f t="shared" si="9"/>
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="M181" s="37">
         <v>1</v>
       </c>
       <c r="N181" s="37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.2">
@@ -16941,7 +16945,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="36">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C182" s="39">
         <v>45</v>
@@ -16949,22 +16953,22 @@
       <c r="D182" s="40"/>
       <c r="E182" s="37">
         <f>LOOKUP(use_fish!B182,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C182,activity!A:A,0)),0)</f>
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="F182" s="39">
         <f t="shared" si="8"/>
-        <v>6.6666666666666671E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="G182" s="36" t="s">
         <v>81</v>
       </c>
       <c r="H182" s="39" t="str">
         <f>INDEX(base_fish!E:E,MATCH(use_fish!B182,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C182,activity!A:A,0)),"")</f>
-        <v>袜子boss+临时活动</v>
+        <v>金牛boss+临时活动</v>
       </c>
       <c r="I182" s="37">
         <f>LOOKUP(use_fish!B182,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C182,activity!A:A,0)),0)</f>
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="J182" s="37">
         <v>1</v>
@@ -16975,13 +16979,13 @@
       </c>
       <c r="L182" s="37">
         <f t="shared" si="9"/>
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="M182" s="37">
         <v>1</v>
       </c>
       <c r="N182" s="37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.2">
@@ -16989,7 +16993,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="36">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C183" s="39">
         <v>46</v>
@@ -16997,22 +17001,22 @@
       <c r="D183" s="40"/>
       <c r="E183" s="37">
         <f>LOOKUP(use_fish!B183,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C183,activity!A:A,0)),0)</f>
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="F183" s="39">
         <f t="shared" si="8"/>
-        <v>4.0000000000000001E-3</v>
+        <v>2.8571428571428571E-3</v>
       </c>
       <c r="G183" s="36" t="s">
         <v>81</v>
       </c>
       <c r="H183" s="39" t="str">
         <f>INDEX(base_fish!E:E,MATCH(use_fish!B183,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C183,activity!A:A,0)),"")</f>
-        <v>袜子boss+临时活动</v>
+        <v>金牛boss+临时活动</v>
       </c>
       <c r="I183" s="37">
         <f>LOOKUP(use_fish!B183,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C183,activity!A:A,0)),0)</f>
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="J183" s="37">
         <v>1</v>
@@ -17023,13 +17027,13 @@
       </c>
       <c r="L183" s="37">
         <f t="shared" si="9"/>
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M183" s="37">
         <v>1</v>
       </c>
       <c r="N183" s="37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -17044,8 +17048,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18242,7 +18246,7 @@
         <v>9</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D45" s="38">
         <v>0</v>
@@ -18251,7 +18255,7 @@
         <v>1</v>
       </c>
       <c r="F45" s="37">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="G45" s="37" t="s">
         <v>132</v>
@@ -18265,7 +18269,7 @@
         <v>9</v>
       </c>
       <c r="C46" s="37" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D46" s="38">
         <v>0</v>
@@ -18274,7 +18278,7 @@
         <v>1</v>
       </c>
       <c r="F46" s="37">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G46" s="37" t="s">
         <v>132</v>
@@ -18288,7 +18292,7 @@
         <v>9</v>
       </c>
       <c r="C47" s="37" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D47" s="38">
         <v>0</v>
@@ -18297,7 +18301,7 @@
         <v>1</v>
       </c>
       <c r="F47" s="37">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="G47" s="37" t="s">
         <v>132</v>
@@ -18311,7 +18315,7 @@
         <v>9</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D48" s="38">
         <v>1</v>
@@ -18418,11 +18422,11 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
+      <selection pane="bottomLeft" activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19312,12 +19316,35 @@
         <v>0</v>
       </c>
       <c r="E36" s="36" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F36" s="36">
         <v>0</v>
       </c>
       <c r="G36" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="36">
+        <v>36</v>
+      </c>
+      <c r="B37" s="36">
+        <v>1</v>
+      </c>
+      <c r="C37" s="36">
+        <v>0</v>
+      </c>
+      <c r="D37" s="36">
+        <v>0</v>
+      </c>
+      <c r="E37" s="36" t="s">
+        <v>401</v>
+      </c>
+      <c r="F37" s="36">
+        <v>0</v>
+      </c>
+      <c r="G37" s="36">
         <v>0</v>
       </c>
     </row>

--- a/config_debug/fish_2d_fish_server.xlsx
+++ b/config_debug/fish_2d_fish_server.xlsx
@@ -1719,20 +1719,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金牛boss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_yd_jyb",0,0.1,0.2</t>
-  </si>
-  <si>
-    <t>"prop_yd_jyb",0,0.2,0.3</t>
-  </si>
-  <si>
-    <t>"prop_yd_jyb",0,0.3,0.4</t>
-  </si>
-  <si>
-    <t>"prop_yd_jyb",1,0.01,</t>
+    <t>星星boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_qdlb_xx",0,0.1,0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_qdlb_xx",0,0.2,0.3</t>
+  </si>
+  <si>
+    <t>"prop_qdlb_xx",0,0.3,0.4</t>
+  </si>
+  <si>
+    <t>"prop_qdlb_xx",1,0.01,</t>
   </si>
 </sst>
 </file>
@@ -8357,8 +8358,8 @@
   <dimension ref="A1:N183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N183" sqref="N183"/>
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H187" sqref="H187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16916,7 +16917,7 @@
       </c>
       <c r="H181" s="39" t="str">
         <f>INDEX(base_fish!E:E,MATCH(use_fish!B181,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C181,activity!A:A,0)),"")</f>
-        <v>金牛boss+临时活动</v>
+        <v>星星boss+临时活动</v>
       </c>
       <c r="I181" s="37">
         <f>LOOKUP(use_fish!B181,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C181,activity!A:A,0)),0)</f>
@@ -16964,7 +16965,7 @@
       </c>
       <c r="H182" s="39" t="str">
         <f>INDEX(base_fish!E:E,MATCH(use_fish!B182,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C182,activity!A:A,0)),"")</f>
-        <v>金牛boss+临时活动</v>
+        <v>星星boss+临时活动</v>
       </c>
       <c r="I182" s="37">
         <f>LOOKUP(use_fish!B182,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C182,activity!A:A,0)),0)</f>
@@ -17012,7 +17013,7 @@
       </c>
       <c r="H183" s="39" t="str">
         <f>INDEX(base_fish!E:E,MATCH(use_fish!B183,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C183,activity!A:A,0)),"")</f>
-        <v>金牛boss+临时活动</v>
+        <v>星星boss+临时活动</v>
       </c>
       <c r="I183" s="37">
         <f>LOOKUP(use_fish!B183,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C183,activity!A:A,0)),0)</f>
@@ -17049,7 +17050,7 @@
   <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18426,7 +18427,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G49" sqref="G49"/>
+      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_debug/fish_2d_fish_server.xlsx
+++ b/config_debug/fish_2d_fish_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="group" sheetId="1" r:id="rId1"/>
@@ -302,7 +302,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="410">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1719,20 +1719,36 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>星星boss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_hlqd_xx",0,0.1,0.2</t>
-  </si>
-  <si>
-    <t>"prop_hlqd_xx",0,0.2,0.3</t>
-  </si>
-  <si>
-    <t>"prop_hlqd_xx",0,0.3,0.4</t>
-  </si>
-  <si>
-    <t>"prop_hlqd_xx",1,0.01,</t>
+    <t>0,0,0.1,0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0.2,0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0.3,0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小丑boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0.01,</t>
+  </si>
+  <si>
+    <t>0,0,0.1,0.2</t>
+  </si>
+  <si>
+    <t>0,0,0.2,0.3</t>
+  </si>
+  <si>
+    <t>0,0,0.3,0.4</t>
   </si>
 </sst>
 </file>
@@ -1879,7 +1895,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1985,6 +2001,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2270,8 +2290,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W209"/>
   <sheetViews>
-    <sheetView topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="I200" sqref="I200"/>
+    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="H216" sqref="H216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -8176,39 +8196,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I1">
     <cfRule type="iconSet" priority="16">
-      <iconSet iconSet="5Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="6"/>
-        <cfvo type="num" val="31"/>
-        <cfvo type="num" val="71"/>
-        <cfvo type="num" val="121"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H145 H149 H151:H209">
-    <cfRule type="iconSet" priority="15">
-      <iconSet iconSet="5Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="6"/>
-        <cfvo type="num" val="31"/>
-        <cfvo type="num" val="71"/>
-        <cfvo type="num" val="121"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I145 I149 I151:I209">
-    <cfRule type="iconSet" priority="14">
-      <iconSet iconSet="5Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="6"/>
-        <cfvo type="num" val="31"/>
-        <cfvo type="num" val="71"/>
-        <cfvo type="num" val="121"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J145 J149 J151:J209">
-    <cfRule type="iconSet" priority="13">
       <iconSet iconSet="5Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="6"/>
@@ -8295,6 +8282,39 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H145 H149 H151:H209">
+    <cfRule type="iconSet" priority="17">
+      <iconSet iconSet="5Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="6"/>
+        <cfvo type="num" val="31"/>
+        <cfvo type="num" val="71"/>
+        <cfvo type="num" val="121"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I145 I149 I151:I209">
+    <cfRule type="iconSet" priority="20">
+      <iconSet iconSet="5Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="6"/>
+        <cfvo type="num" val="31"/>
+        <cfvo type="num" val="71"/>
+        <cfvo type="num" val="121"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J145 J149 J151:J209">
+    <cfRule type="iconSet" priority="23">
+      <iconSet iconSet="5Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="6"/>
+        <cfvo type="num" val="31"/>
+        <cfvo type="num" val="71"/>
+        <cfvo type="num" val="121"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L3">
       <formula1>#REF!</formula1>
@@ -8304,7 +8324,8 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8358,7 +8379,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H187" sqref="H187"/>
+      <selection pane="bottomLeft" activeCell="F186" sqref="F186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16916,7 +16937,7 @@
       </c>
       <c r="H181" s="39" t="str">
         <f>INDEX(base_fish!E:E,MATCH(use_fish!B181,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C181,activity!A:A,0)),"")</f>
-        <v>星星boss+临时活动</v>
+        <v>小丑boss+临时活动</v>
       </c>
       <c r="I181" s="37">
         <f>LOOKUP(use_fish!B181,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C181,activity!A:A,0)),0)</f>
@@ -16964,7 +16985,7 @@
       </c>
       <c r="H182" s="39" t="str">
         <f>INDEX(base_fish!E:E,MATCH(use_fish!B182,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C182,activity!A:A,0)),"")</f>
-        <v>星星boss+临时活动</v>
+        <v>小丑boss+临时活动</v>
       </c>
       <c r="I182" s="37">
         <f>LOOKUP(use_fish!B182,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C182,activity!A:A,0)),0)</f>
@@ -17012,7 +17033,7 @@
       </c>
       <c r="H183" s="39" t="str">
         <f>INDEX(base_fish!E:E,MATCH(use_fish!B183,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C183,activity!A:A,0)),"")</f>
-        <v>星星boss+临时活动</v>
+        <v>小丑boss+临时活动</v>
       </c>
       <c r="I183" s="37">
         <f>LOOKUP(use_fish!B183,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C183,activity!A:A,0)),0)</f>
@@ -17046,10 +17067,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17113,7 +17134,7 @@
         <v>63</v>
       </c>
       <c r="G2" t="str">
-        <f t="shared" ref="G2:G21" si="0">LOOKUP(B2,H:H,I:I)</f>
+        <f>LOOKUP(B2,H:H,I:I)</f>
         <v>免费子弹</v>
       </c>
       <c r="H2">
@@ -17146,7 +17167,7 @@
         <v>63</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" si="0"/>
+        <f>LOOKUP(B3,H:H,I:I)</f>
         <v>威力提升</v>
       </c>
       <c r="H3">
@@ -17179,7 +17200,7 @@
         <v>63</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" si="0"/>
+        <f>LOOKUP(B4,H:H,I:I)</f>
         <v>暴击时刻</v>
       </c>
       <c r="H4">
@@ -17209,7 +17230,7 @@
         <v>30</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" si="0"/>
+        <f>LOOKUP(B5,H:H,I:I)</f>
         <v>炸弹</v>
       </c>
       <c r="H5">
@@ -17239,7 +17260,7 @@
         <v>50</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" si="0"/>
+        <f>LOOKUP(B6,H:H,I:I)</f>
         <v>闪电</v>
       </c>
       <c r="H6">
@@ -17269,7 +17290,7 @@
         <v>20</v>
       </c>
       <c r="G7" t="str">
-        <f t="shared" si="0"/>
+        <f>LOOKUP(B7,H:H,I:I)</f>
         <v>炸弹</v>
       </c>
       <c r="H7">
@@ -17299,7 +17320,7 @@
         <v>50</v>
       </c>
       <c r="G8" t="str">
-        <f t="shared" si="0"/>
+        <f>LOOKUP(B8,H:H,I:I)</f>
         <v>免费子弹</v>
       </c>
       <c r="H8">
@@ -17329,7 +17350,7 @@
         <v>63</v>
       </c>
       <c r="G9" t="str">
-        <f t="shared" si="0"/>
+        <f>LOOKUP(B9,H:H,I:I)</f>
         <v>炸弹</v>
       </c>
       <c r="H9">
@@ -17359,7 +17380,7 @@
         <v>63</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="0"/>
+        <f>LOOKUP(B10,H:H,I:I)</f>
         <v>闪电</v>
       </c>
       <c r="H10">
@@ -17389,7 +17410,7 @@
         <v>50</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="0"/>
+        <f>LOOKUP(B11,H:H,I:I)</f>
         <v>闪电</v>
       </c>
       <c r="H11">
@@ -17419,7 +17440,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" si="0"/>
+        <f>LOOKUP(B12,H:H,I:I)</f>
         <v>锁定卡</v>
       </c>
       <c r="H12">
@@ -17449,7 +17470,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" si="0"/>
+        <f>LOOKUP(B13,H:H,I:I)</f>
         <v>锁定卡</v>
       </c>
       <c r="H13">
@@ -17479,7 +17500,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" si="0"/>
+        <f>LOOKUP(B14,H:H,I:I)</f>
         <v>冰冻卡</v>
       </c>
       <c r="H14">
@@ -17509,7 +17530,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="0"/>
+        <f>LOOKUP(B15,H:H,I:I)</f>
         <v>冰冻卡</v>
       </c>
       <c r="H15">
@@ -17539,7 +17560,7 @@
         <v>1</v>
       </c>
       <c r="G16" t="str">
-        <f t="shared" si="0"/>
+        <f>LOOKUP(B16,H:H,I:I)</f>
         <v>临时活动</v>
       </c>
       <c r="H16">
@@ -17572,7 +17593,7 @@
         <v>1</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="0"/>
+        <f>LOOKUP(B17,H:H,I:I)</f>
         <v>临时活动</v>
       </c>
       <c r="H17">
@@ -17605,7 +17626,7 @@
         <v>80</v>
       </c>
       <c r="G18" t="str">
-        <f t="shared" si="0"/>
+        <f>LOOKUP(B18,H:H,I:I)</f>
         <v>贝壳</v>
       </c>
       <c r="H18">
@@ -17638,7 +17659,7 @@
         <v>63</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="0"/>
+        <f>LOOKUP(B19,H:H,I:I)</f>
         <v>穿透钢弹</v>
       </c>
       <c r="H19">
@@ -17671,7 +17692,7 @@
         <v>150</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="0"/>
+        <f>LOOKUP(B20,H:H,I:I)</f>
         <v>钻头弹</v>
       </c>
       <c r="H20">
@@ -17704,7 +17725,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="0"/>
+        <f>LOOKUP(B21,H:H,I:I)</f>
         <v>神灯</v>
       </c>
       <c r="H21">
@@ -18246,7 +18267,7 @@
         <v>9</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="D45" s="38">
         <v>0</v>
@@ -18269,7 +18290,7 @@
         <v>9</v>
       </c>
       <c r="C46" s="37" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="D46" s="38">
         <v>0</v>
@@ -18292,7 +18313,7 @@
         <v>9</v>
       </c>
       <c r="C47" s="37" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="D47" s="38">
         <v>0</v>
@@ -18315,7 +18336,7 @@
         <v>9</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D48" s="38">
         <v>1</v>
@@ -18327,6 +18348,98 @@
         <v>10</v>
       </c>
       <c r="G48" s="37" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="42">
+        <v>48</v>
+      </c>
+      <c r="B49" s="42">
+        <v>9</v>
+      </c>
+      <c r="C49" s="42" t="s">
+        <v>401</v>
+      </c>
+      <c r="D49" s="4">
+        <v>1</v>
+      </c>
+      <c r="E49" s="4">
+        <v>1</v>
+      </c>
+      <c r="F49" s="42">
+        <v>150</v>
+      </c>
+      <c r="G49" s="42" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="42">
+        <v>49</v>
+      </c>
+      <c r="B50" s="42">
+        <v>9</v>
+      </c>
+      <c r="C50" s="42" t="s">
+        <v>402</v>
+      </c>
+      <c r="D50" s="4">
+        <v>1</v>
+      </c>
+      <c r="E50" s="4">
+        <v>1</v>
+      </c>
+      <c r="F50" s="42">
+        <v>250</v>
+      </c>
+      <c r="G50" s="42" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="42">
+        <v>50</v>
+      </c>
+      <c r="B51" s="42">
+        <v>9</v>
+      </c>
+      <c r="C51" s="42" t="s">
+        <v>403</v>
+      </c>
+      <c r="D51" s="4">
+        <v>1</v>
+      </c>
+      <c r="E51" s="4">
+        <v>1</v>
+      </c>
+      <c r="F51" s="42">
+        <v>350</v>
+      </c>
+      <c r="G51" s="42" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="42">
+        <v>51</v>
+      </c>
+      <c r="B52" s="42">
+        <v>9</v>
+      </c>
+      <c r="C52" s="42" t="s">
+        <v>404</v>
+      </c>
+      <c r="D52" s="4">
+        <v>1</v>
+      </c>
+      <c r="E52" s="43">
+        <v>1</v>
+      </c>
+      <c r="F52" s="42">
+        <v>10</v>
+      </c>
+      <c r="G52" s="42" t="s">
         <v>132</v>
       </c>
     </row>
@@ -18426,7 +18539,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
+      <selection pane="bottomLeft" activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19339,7 +19452,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="36" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="F37" s="36">
         <v>0</v>

--- a/config_debug/fish_2d_fish_server.xlsx
+++ b/config_debug/fish_2d_fish_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="group" sheetId="1" r:id="rId1"/>
@@ -1723,17 +1723,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"prop_qdlb_xx",0,0.1,0.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_qdlb_xx",0,0.2,0.3</t>
-  </si>
-  <si>
-    <t>"prop_qdlb_xx",0,0.3,0.4</t>
-  </si>
-  <si>
-    <t>"prop_qdlb_xx",1,0.01,</t>
+    <t>"prop_hlqd_xx",0,0.1,0.2</t>
+  </si>
+  <si>
+    <t>"prop_hlqd_xx",0,0.2,0.3</t>
+  </si>
+  <si>
+    <t>"prop_hlqd_xx",0,0.3,0.4</t>
+  </si>
+  <si>
+    <t>"prop_hlqd_xx",1,0.01,</t>
   </si>
 </sst>
 </file>
@@ -8357,7 +8356,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H187" sqref="H187"/>
     </sheetView>
@@ -17049,8 +17048,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_debug/fish_2d_fish_server.xlsx
+++ b/config_debug/fish_2d_fish_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="group" sheetId="1" r:id="rId1"/>
@@ -1802,7 +1802,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1813,36 +1813,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF8DB4E2"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -1891,7 +1861,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1914,10 +1884,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1927,45 +1893,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1973,29 +1902,20 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -2004,6 +1924,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2289,8 +2215,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W209"/>
   <sheetViews>
-    <sheetView topLeftCell="A185" workbookViewId="0">
-      <selection activeCell="H216" sqref="H216"/>
+    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
+      <selection activeCell="F197" sqref="F197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -2300,7 +2226,7 @@
     <col min="7" max="7" width="10.625" customWidth="1"/>
     <col min="11" max="11" width="29.5" customWidth="1"/>
     <col min="12" max="12" width="8.625"/>
-    <col min="17" max="17" width="8.625" style="13" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="8.625" style="11" customWidth="1" outlineLevel="1"/>
     <col min="18" max="20" width="8.625" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
@@ -2341,7 +2267,7 @@
       <c r="L1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="13" t="s">
         <v>345</v>
       </c>
       <c r="R1" s="1" t="s">
@@ -2395,7 +2321,7 @@
       <c r="L2" t="s">
         <v>49</v>
       </c>
-      <c r="Q2" s="13">
+      <c r="Q2" s="11">
         <v>1</v>
       </c>
     </row>
@@ -2430,7 +2356,7 @@
       <c r="L3" t="s">
         <v>132</v>
       </c>
-      <c r="Q3" s="13">
+      <c r="Q3" s="11">
         <v>1</v>
       </c>
     </row>
@@ -2465,7 +2391,7 @@
       <c r="L4">
         <v>107</v>
       </c>
-      <c r="Q4" s="13">
+      <c r="Q4" s="11">
         <v>2</v>
       </c>
     </row>
@@ -2500,7 +2426,7 @@
       <c r="L5">
         <v>115</v>
       </c>
-      <c r="Q5" s="13">
+      <c r="Q5" s="11">
         <v>2</v>
       </c>
     </row>
@@ -2529,10 +2455,10 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q6,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R6,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S6,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T6,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U6,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V6,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W6,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="12">
         <v>155</v>
       </c>
-      <c r="Q6" s="13">
+      <c r="Q6" s="11">
         <v>3</v>
       </c>
     </row>
@@ -2564,7 +2490,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q7,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R7,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S7,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T7,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U7,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V7,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W7,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="Q7" s="11">
         <v>3</v>
       </c>
     </row>
@@ -2599,7 +2525,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q8,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R8,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S8,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T8,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U8,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V8,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W8,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="13">
+      <c r="Q8" s="11">
         <v>1</v>
       </c>
     </row>
@@ -2634,7 +2560,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q9,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R9,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S9,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T9,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U9,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V9,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W9,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="13">
+      <c r="Q9" s="11">
         <v>1</v>
       </c>
     </row>
@@ -2669,7 +2595,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q10,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R10,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S10,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T10,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U10,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V10,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W10,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="Q10" s="11">
         <v>2</v>
       </c>
     </row>
@@ -2704,7 +2630,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q11,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R11,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S11,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T11,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U11,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V11,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W11,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="13">
+      <c r="Q11" s="11">
         <v>2</v>
       </c>
     </row>
@@ -2739,7 +2665,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q12,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R12,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S12,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T12,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U12,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V12,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W12,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="13">
+      <c r="Q12" s="11">
         <v>3</v>
       </c>
     </row>
@@ -2774,7 +2700,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q13,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R13,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S13,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T13,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U13,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V13,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W13,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="13">
+      <c r="Q13" s="11">
         <v>4</v>
       </c>
     </row>
@@ -2809,7 +2735,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q14,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R14,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S14,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T14,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U14,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V14,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W14,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="13">
+      <c r="Q14" s="11">
         <v>5</v>
       </c>
     </row>
@@ -2844,7 +2770,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q15,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R15,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S15,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T15,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U15,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V15,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W15,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="13">
+      <c r="Q15" s="11">
         <v>6</v>
       </c>
     </row>
@@ -2879,7 +2805,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q16,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R16,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S16,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T16,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U16,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V16,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W16,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="13">
+      <c r="Q16" s="11">
         <v>7</v>
       </c>
     </row>
@@ -2914,7 +2840,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q17,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R17,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S17,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T17,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U17,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V17,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W17,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q17" s="13">
+      <c r="Q17" s="11">
         <v>8</v>
       </c>
     </row>
@@ -2949,7 +2875,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q18,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R18,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S18,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T18,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U18,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V18,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W18,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="13">
+      <c r="Q18" s="11">
         <v>9</v>
       </c>
     </row>
@@ -2978,7 +2904,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q19,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R19,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S19,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T19,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U19,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V19,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W19,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q19" s="13">
+      <c r="Q19" s="11">
         <v>4</v>
       </c>
     </row>
@@ -3007,7 +2933,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q20,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R20,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S20,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T20,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U20,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V20,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W20,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="13">
+      <c r="Q20" s="11">
         <v>5</v>
       </c>
     </row>
@@ -3036,7 +2962,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q21,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R21,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S21,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T21,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U21,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V21,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W21,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q21" s="13">
+      <c r="Q21" s="11">
         <v>6</v>
       </c>
     </row>
@@ -3065,7 +2991,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q22,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R22,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S22,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T22,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U22,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V22,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W22,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q22" s="13">
+      <c r="Q22" s="11">
         <v>7</v>
       </c>
     </row>
@@ -3094,7 +3020,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q23,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R23,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S23,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T23,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U23,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V23,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W23,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q23" s="13">
+      <c r="Q23" s="11">
         <v>8</v>
       </c>
     </row>
@@ -3123,7 +3049,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q24,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R24,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S24,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T24,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U24,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V24,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W24,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q24" s="13">
+      <c r="Q24" s="11">
         <v>9</v>
       </c>
     </row>
@@ -3149,7 +3075,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q25,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R25,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S25,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T25,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U25,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V25,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W25,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q25" s="13">
+      <c r="Q25" s="11">
         <v>10</v>
       </c>
     </row>
@@ -3175,7 +3101,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q26,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R26,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S26,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T26,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U26,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V26,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W26,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q26" s="13">
+      <c r="Q26" s="11">
         <v>11</v>
       </c>
     </row>
@@ -3201,7 +3127,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q27,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R27,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S27,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T27,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U27,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V27,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W27,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q27" s="13">
+      <c r="Q27" s="11">
         <v>12</v>
       </c>
     </row>
@@ -3227,7 +3153,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q28,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R28,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S28,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T28,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U28,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V28,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W28,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q28" s="13">
+      <c r="Q28" s="11">
         <v>90</v>
       </c>
     </row>
@@ -3253,7 +3179,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q29,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R29,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S29,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T29,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U29,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V29,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W29,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q29" s="13">
+      <c r="Q29" s="11">
         <v>14</v>
       </c>
     </row>
@@ -3279,7 +3205,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q30,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R30,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S30,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T30,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U30,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V30,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W30,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q30" s="13">
+      <c r="Q30" s="11">
         <v>15</v>
       </c>
     </row>
@@ -3305,7 +3231,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q31,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R31,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S31,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T31,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U31,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V31,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W31,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q31" s="13">
+      <c r="Q31" s="11">
         <v>16</v>
       </c>
     </row>
@@ -3331,7 +3257,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q32,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R32,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S32,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T32,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U32,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V32,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W32,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q32" s="13">
+      <c r="Q32" s="11">
         <v>17</v>
       </c>
     </row>
@@ -3357,7 +3283,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q33,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R33,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S33,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T33,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U33,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V33,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W33,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q33" s="13">
+      <c r="Q33" s="11">
         <v>18</v>
       </c>
     </row>
@@ -3386,7 +3312,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q34,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R34,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S34,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T34,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U34,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V34,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W34,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q34" s="13">
+      <c r="Q34" s="11">
         <v>19</v>
       </c>
     </row>
@@ -3415,7 +3341,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q35,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R35,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S35,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T35,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U35,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V35,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W35,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q35" s="13">
+      <c r="Q35" s="11">
         <v>20</v>
       </c>
     </row>
@@ -3444,7 +3370,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q36,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R36,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S36,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T36,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U36,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V36,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W36,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q36" s="13">
+      <c r="Q36" s="11">
         <v>21</v>
       </c>
     </row>
@@ -3473,7 +3399,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q37,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R37,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S37,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T37,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U37,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V37,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W37,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q37" s="13">
+      <c r="Q37" s="11">
         <v>22</v>
       </c>
     </row>
@@ -3502,7 +3428,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q38,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R38,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S38,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T38,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U38,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V38,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W38,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q38" s="13">
+      <c r="Q38" s="11">
         <v>23</v>
       </c>
     </row>
@@ -3531,7 +3457,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q39,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R39,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S39,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T39,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U39,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V39,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W39,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q39" s="13">
+      <c r="Q39" s="11">
         <v>24</v>
       </c>
     </row>
@@ -3560,7 +3486,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q40,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R40,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S40,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T40,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U40,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V40,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W40,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q40" s="13">
+      <c r="Q40" s="11">
         <v>25</v>
       </c>
     </row>
@@ -3589,7 +3515,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q41,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R41,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S41,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T41,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U41,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V41,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W41,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q41" s="13">
+      <c r="Q41" s="11">
         <v>26</v>
       </c>
     </row>
@@ -3618,7 +3544,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q42,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R42,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S42,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T42,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U42,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V42,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W42,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q42" s="13">
+      <c r="Q42" s="11">
         <v>27</v>
       </c>
     </row>
@@ -3647,7 +3573,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q43,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R43,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S43,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T43,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U43,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V43,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W43,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q43" s="13">
+      <c r="Q43" s="11">
         <v>28</v>
       </c>
     </row>
@@ -3676,7 +3602,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q44,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R44,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S44,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T44,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U44,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V44,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W44,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q44" s="13">
+      <c r="Q44" s="11">
         <v>29</v>
       </c>
     </row>
@@ -3705,7 +3631,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q45,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R45,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S45,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T45,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U45,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V45,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W45,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q45" s="13">
+      <c r="Q45" s="11">
         <v>30</v>
       </c>
     </row>
@@ -3731,7 +3657,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q46,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R46,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S46,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T46,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U46,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V46,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W46,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q46" s="13">
+      <c r="Q46" s="11">
         <v>31</v>
       </c>
     </row>
@@ -3757,7 +3683,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q47,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R47,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S47,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T47,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U47,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V47,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W47,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q47" s="13">
+      <c r="Q47" s="11">
         <v>32</v>
       </c>
     </row>
@@ -3783,7 +3709,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q48,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R48,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S48,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T48,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U48,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V48,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W48,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q48" s="13">
+      <c r="Q48" s="11">
         <v>33</v>
       </c>
     </row>
@@ -3809,7 +3735,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q49,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R49,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S49,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T49,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U49,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V49,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W49,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q49" s="13">
+      <c r="Q49" s="11">
         <v>34</v>
       </c>
     </row>
@@ -3835,7 +3761,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q50,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R50,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S50,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T50,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U50,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V50,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W50,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q50" s="13">
+      <c r="Q50" s="11">
         <v>35</v>
       </c>
     </row>
@@ -3861,7 +3787,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q51,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R51,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S51,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T51,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U51,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V51,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W51,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q51" s="13">
+      <c r="Q51" s="11">
         <v>36</v>
       </c>
     </row>
@@ -3887,7 +3813,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q52,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R52,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S52,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T52,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U52,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V52,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W52,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q52" s="13">
+      <c r="Q52" s="11">
         <v>37</v>
       </c>
     </row>
@@ -3913,7 +3839,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q53,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R53,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S53,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T53,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U53,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V53,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W53,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q53" s="13">
+      <c r="Q53" s="11">
         <v>38</v>
       </c>
     </row>
@@ -3939,7 +3865,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q54,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R54,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S54,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T54,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U54,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V54,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W54,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q54" s="13">
+      <c r="Q54" s="11">
         <v>39</v>
       </c>
     </row>
@@ -3965,7 +3891,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q55,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R55,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S55,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T55,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U55,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V55,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W55,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q55" s="13">
+      <c r="Q55" s="11">
         <v>40</v>
       </c>
     </row>
@@ -3991,7 +3917,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q56,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R56,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S56,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T56,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U56,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V56,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W56,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q56" s="13">
+      <c r="Q56" s="11">
         <v>41</v>
       </c>
     </row>
@@ -4017,7 +3943,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q57,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R57,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S57,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T57,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U57,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V57,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W57,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q57" s="13">
+      <c r="Q57" s="11">
         <v>42</v>
       </c>
     </row>
@@ -4043,7 +3969,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q58,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R58,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S58,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T58,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U58,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V58,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W58,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q58" s="13">
+      <c r="Q58" s="11">
         <v>43</v>
       </c>
     </row>
@@ -4069,7 +3995,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q59,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R59,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S59,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T59,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U59,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V59,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W59,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q59" s="13">
+      <c r="Q59" s="11">
         <v>44</v>
       </c>
     </row>
@@ -4095,7 +4021,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q60,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R60,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S60,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T60,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U60,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V60,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W60,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q60" s="13">
+      <c r="Q60" s="11">
         <v>45</v>
       </c>
     </row>
@@ -4121,7 +4047,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q61,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R61,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S61,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T61,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U61,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V61,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W61,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q61" s="13">
+      <c r="Q61" s="11">
         <v>46</v>
       </c>
     </row>
@@ -4147,7 +4073,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q62,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R62,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S62,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T62,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U62,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V62,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W62,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q62" s="13">
+      <c r="Q62" s="11">
         <v>47</v>
       </c>
     </row>
@@ -4173,7 +4099,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q63,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R63,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S63,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T63,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U63,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V63,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W63,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q63" s="13">
+      <c r="Q63" s="11">
         <v>48</v>
       </c>
     </row>
@@ -4199,7 +4125,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q64,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R64,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S64,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T64,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U64,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V64,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W64,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q64" s="13">
+      <c r="Q64" s="11">
         <v>49</v>
       </c>
     </row>
@@ -4225,7 +4151,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q65,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R65,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S65,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T65,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U65,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V65,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W65,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q65" s="13">
+      <c r="Q65" s="11">
         <v>50</v>
       </c>
     </row>
@@ -4251,7 +4177,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q66,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R66,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S66,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T66,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U66,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V66,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W66,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q66" s="13">
+      <c r="Q66" s="11">
         <v>51</v>
       </c>
     </row>
@@ -4277,7 +4203,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q67,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R67,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S67,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T67,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U67,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V67,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W67,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q67" s="13">
+      <c r="Q67" s="11">
         <v>52</v>
       </c>
     </row>
@@ -4303,7 +4229,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q68,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R68,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S68,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T68,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U68,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V68,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W68,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q68" s="13">
+      <c r="Q68" s="11">
         <v>53</v>
       </c>
     </row>
@@ -4329,7 +4255,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q69,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R69,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S69,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T69,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U69,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V69,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W69,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q69" s="13">
+      <c r="Q69" s="11">
         <v>54</v>
       </c>
     </row>
@@ -4355,7 +4281,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q70,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R70,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S70,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T70,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U70,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V70,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W70,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q70" s="13">
+      <c r="Q70" s="11">
         <v>55</v>
       </c>
     </row>
@@ -4381,7 +4307,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q71,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R71,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S71,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T71,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U71,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V71,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W71,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q71" s="13">
+      <c r="Q71" s="11">
         <v>56</v>
       </c>
     </row>
@@ -4407,7 +4333,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q72,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R72,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S72,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T72,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U72,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V72,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W72,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q72" s="13">
+      <c r="Q72" s="11">
         <v>57</v>
       </c>
     </row>
@@ -4433,7 +4359,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q73,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R73,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S73,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T73,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U73,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V73,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W73,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q73" s="13">
+      <c r="Q73" s="11">
         <v>58</v>
       </c>
     </row>
@@ -4459,7 +4385,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q74,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R74,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S74,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T74,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U74,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V74,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W74,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q74" s="13">
+      <c r="Q74" s="11">
         <v>59</v>
       </c>
     </row>
@@ -4485,7 +4411,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q75,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R75,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S75,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T75,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U75,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V75,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W75,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q75" s="13">
+      <c r="Q75" s="11">
         <v>60</v>
       </c>
     </row>
@@ -4511,7 +4437,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q76,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R76,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S76,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T76,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U76,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V76,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W76,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q76" s="13">
+      <c r="Q76" s="11">
         <v>61</v>
       </c>
     </row>
@@ -4537,7 +4463,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q77,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R77,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S77,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T77,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U77,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V77,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W77,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q77" s="13">
+      <c r="Q77" s="11">
         <v>62</v>
       </c>
     </row>
@@ -4563,7 +4489,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q78,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R78,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S78,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T78,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U78,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V78,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W78,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q78" s="13">
+      <c r="Q78" s="11">
         <v>63</v>
       </c>
     </row>
@@ -4589,7 +4515,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q79,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R79,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S79,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T79,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U79,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V79,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W79,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q79" s="13">
+      <c r="Q79" s="11">
         <v>64</v>
       </c>
     </row>
@@ -4615,7 +4541,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q80,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R80,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S80,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T80,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U80,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V80,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W80,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q80" s="13">
+      <c r="Q80" s="11">
         <v>65</v>
       </c>
     </row>
@@ -4641,7 +4567,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q81,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R81,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S81,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T81,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U81,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V81,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W81,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q81" s="13">
+      <c r="Q81" s="11">
         <v>66</v>
       </c>
     </row>
@@ -4667,7 +4593,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q82,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R82,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S82,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T82,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U82,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V82,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W82,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q82" s="13">
+      <c r="Q82" s="11">
         <v>67</v>
       </c>
     </row>
@@ -4693,7 +4619,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q83,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R83,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S83,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T83,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U83,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V83,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W83,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q83" s="13">
+      <c r="Q83" s="11">
         <v>68</v>
       </c>
     </row>
@@ -4719,7 +4645,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q84,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R84,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S84,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T84,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U84,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V84,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W84,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q84" s="13">
+      <c r="Q84" s="11">
         <v>69</v>
       </c>
     </row>
@@ -4745,7 +4671,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q85,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R85,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S85,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T85,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U85,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V85,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W85,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q85" s="13">
+      <c r="Q85" s="11">
         <v>70</v>
       </c>
     </row>
@@ -4771,7 +4697,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q86,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R86,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S86,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T86,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U86,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V86,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W86,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q86" s="13">
+      <c r="Q86" s="11">
         <v>71</v>
       </c>
     </row>
@@ -4797,7 +4723,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q87,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R87,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S87,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T87,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U87,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V87,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W87,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q87" s="13">
+      <c r="Q87" s="11">
         <v>72</v>
       </c>
     </row>
@@ -4823,7 +4749,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q88,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R88,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S88,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T88,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U88,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V88,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W88,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q88" s="13">
+      <c r="Q88" s="11">
         <v>73</v>
       </c>
     </row>
@@ -4849,7 +4775,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q89,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R89,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S89,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T89,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U89,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V89,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W89,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q89" s="13">
+      <c r="Q89" s="11">
         <v>74</v>
       </c>
     </row>
@@ -4875,7 +4801,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q90,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R90,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S90,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T90,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U90,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V90,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W90,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q90" s="13">
+      <c r="Q90" s="11">
         <v>75</v>
       </c>
     </row>
@@ -4901,7 +4827,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q91,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R91,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S91,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T91,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U91,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V91,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W91,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q91" s="13">
+      <c r="Q91" s="11">
         <v>76</v>
       </c>
     </row>
@@ -4927,7 +4853,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q92,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R92,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S92,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T92,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U92,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V92,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W92,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q92" s="13">
+      <c r="Q92" s="11">
         <v>77</v>
       </c>
     </row>
@@ -4953,7 +4879,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q93,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R93,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S93,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T93,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U93,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V93,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W93,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q93" s="13">
+      <c r="Q93" s="11">
         <v>78</v>
       </c>
     </row>
@@ -4979,7 +4905,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q94,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R94,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S94,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T94,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U94,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V94,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W94,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q94" s="13">
+      <c r="Q94" s="11">
         <v>79</v>
       </c>
     </row>
@@ -5005,7 +4931,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q95,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R95,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S95,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T95,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U95,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V95,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W95,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q95" s="13">
+      <c r="Q95" s="11">
         <v>80</v>
       </c>
     </row>
@@ -5031,7 +4957,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q96,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R96,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S96,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T96,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U96,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V96,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W96,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q96" s="13">
+      <c r="Q96" s="11">
         <v>81</v>
       </c>
     </row>
@@ -5057,7 +4983,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q97,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R97,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S97,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T97,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U97,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V97,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W97,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q97" s="13">
+      <c r="Q97" s="11">
         <v>82</v>
       </c>
     </row>
@@ -5083,7 +5009,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q98,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R98,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S98,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T98,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U98,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V98,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W98,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q98" s="13">
+      <c r="Q98" s="11">
         <v>83</v>
       </c>
     </row>
@@ -5109,7 +5035,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q99,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R99,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S99,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T99,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U99,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V99,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W99,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q99" s="13">
+      <c r="Q99" s="11">
         <v>84</v>
       </c>
     </row>
@@ -5135,7 +5061,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q100,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R100,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S100,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T100,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U100,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V100,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W100,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q100" s="13">
+      <c r="Q100" s="11">
         <v>85</v>
       </c>
     </row>
@@ -5161,7 +5087,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q101,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R101,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S101,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T101,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U101,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V101,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W101,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q101" s="13">
+      <c r="Q101" s="11">
         <v>86</v>
       </c>
     </row>
@@ -5187,7 +5113,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q102,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R102,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S102,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T102,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U102,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V102,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W102,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q102" s="13">
+      <c r="Q102" s="11">
         <v>87</v>
       </c>
     </row>
@@ -5213,7 +5139,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q103,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R103,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S103,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T103,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U103,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V103,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W103,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q103" s="13">
+      <c r="Q103" s="11">
         <v>88</v>
       </c>
     </row>
@@ -5239,7 +5165,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q104,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R104,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S104,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T104,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U104,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V104,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W104,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q104" s="13">
+      <c r="Q104" s="11">
         <v>89</v>
       </c>
     </row>
@@ -5265,7 +5191,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q105,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R105,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S105,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T105,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U105,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V105,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W105,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q105" s="13">
+      <c r="Q105" s="11">
         <v>90</v>
       </c>
     </row>
@@ -5291,7 +5217,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q106,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R106,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S106,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T106,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U106,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V106,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W106,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q106" s="13">
+      <c r="Q106" s="11">
         <v>91</v>
       </c>
     </row>
@@ -5317,7 +5243,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q107,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R107,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S107,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T107,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U107,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V107,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W107,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q107" s="13">
+      <c r="Q107" s="11">
         <v>92</v>
       </c>
     </row>
@@ -5343,7 +5269,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q108,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R108,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S108,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T108,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U108,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V108,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W108,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q108" s="13">
+      <c r="Q108" s="11">
         <v>93</v>
       </c>
     </row>
@@ -5369,7 +5295,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q109,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R109,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S109,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T109,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U109,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V109,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W109,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q109" s="13">
+      <c r="Q109" s="11">
         <v>94</v>
       </c>
     </row>
@@ -5395,7 +5321,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q110,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R110,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S110,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T110,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U110,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V110,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W110,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q110" s="13">
+      <c r="Q110" s="11">
         <v>95</v>
       </c>
     </row>
@@ -5421,7 +5347,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q111,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R111,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S111,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T111,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U111,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V111,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W111,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q111" s="13">
+      <c r="Q111" s="11">
         <v>96</v>
       </c>
     </row>
@@ -5447,7 +5373,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q112,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R112,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S112,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T112,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U112,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V112,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W112,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q112" s="13">
+      <c r="Q112" s="11">
         <v>97</v>
       </c>
     </row>
@@ -5473,7 +5399,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q113,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R113,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S113,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T113,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U113,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V113,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W113,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q113" s="13">
+      <c r="Q113" s="11">
         <v>98</v>
       </c>
     </row>
@@ -5499,7 +5425,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q114,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R114,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S114,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T114,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U114,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V114,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W114,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q114" s="13">
+      <c r="Q114" s="11">
         <v>99</v>
       </c>
     </row>
@@ -5525,7 +5451,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q115,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R115,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S115,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T115,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U115,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V115,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W115,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q115" s="13">
+      <c r="Q115" s="11">
         <v>100</v>
       </c>
     </row>
@@ -5551,7 +5477,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q116,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R116,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S116,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T116,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U116,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V116,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W116,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q116" s="13">
+      <c r="Q116" s="11">
         <v>101</v>
       </c>
     </row>
@@ -5577,7 +5503,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q117,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R117,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S117,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T117,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U117,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V117,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W117,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q117" s="13">
+      <c r="Q117" s="11">
         <v>4</v>
       </c>
       <c r="R117">
@@ -5609,7 +5535,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q118,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R118,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S118,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T118,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U118,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V118,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W118,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q118" s="13">
+      <c r="Q118" s="11">
         <v>5</v>
       </c>
       <c r="R118">
@@ -5641,7 +5567,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q119,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R119,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S119,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T119,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U119,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V119,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W119,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q119" s="13">
+      <c r="Q119" s="11">
         <v>6</v>
       </c>
       <c r="R119">
@@ -5673,7 +5599,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q120,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R120,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S120,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T120,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U120,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V120,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W120,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q120" s="13">
+      <c r="Q120" s="11">
         <v>7</v>
       </c>
       <c r="R120">
@@ -5705,7 +5631,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q121,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R121,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S121,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T121,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U121,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V121,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W121,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q121" s="13">
+      <c r="Q121" s="11">
         <v>8</v>
       </c>
       <c r="R121">
@@ -5737,7 +5663,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q122,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R122,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S122,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T122,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U122,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V122,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W122,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q122" s="13">
+      <c r="Q122" s="11">
         <v>4</v>
       </c>
       <c r="R122">
@@ -5772,7 +5698,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q123,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R123,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S123,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T123,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U123,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V123,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W123,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q123" s="13">
+      <c r="Q123" s="11">
         <v>5</v>
       </c>
       <c r="R123">
@@ -5807,7 +5733,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q124,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R124,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S124,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T124,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U124,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V124,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W124,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q124" s="13">
+      <c r="Q124" s="11">
         <v>6</v>
       </c>
       <c r="R124">
@@ -5842,7 +5768,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q125,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R125,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S125,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T125,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U125,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V125,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W125,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q125" s="13">
+      <c r="Q125" s="11">
         <v>7</v>
       </c>
       <c r="R125">
@@ -5877,7 +5803,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q126,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R126,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S126,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T126,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U126,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V126,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W126,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q126" s="13">
+      <c r="Q126" s="11">
         <v>8</v>
       </c>
       <c r="R126">
@@ -5912,7 +5838,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q127,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R127,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S127,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T127,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U127,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V127,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W127,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q127" s="13">
+      <c r="Q127" s="11">
         <v>4</v>
       </c>
       <c r="R127">
@@ -5947,7 +5873,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q128,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R128,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S128,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T128,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U128,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V128,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W128,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q128" s="13">
+      <c r="Q128" s="11">
         <v>4</v>
       </c>
       <c r="R128">
@@ -5985,7 +5911,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q129,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R129,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S129,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T129,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U129,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V129,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W129,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q129" s="13">
+      <c r="Q129" s="11">
         <v>4</v>
       </c>
       <c r="R129">
@@ -6020,7 +5946,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q130,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R130,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S130,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T130,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U130,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V130,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W130,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q130" s="13">
+      <c r="Q130" s="11">
         <v>102</v>
       </c>
     </row>
@@ -6046,7 +5972,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q131,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R131,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S131,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T131,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U131,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V131,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W131,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q131" s="13">
+      <c r="Q131" s="11">
         <v>103</v>
       </c>
     </row>
@@ -6072,7 +5998,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q132,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R132,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S132,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T132,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U132,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V132,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W132,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q132" s="13">
+      <c r="Q132" s="11">
         <v>104</v>
       </c>
     </row>
@@ -6098,7 +6024,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q133,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R133,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S133,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T133,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U133,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V133,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W133,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q133" s="13">
+      <c r="Q133" s="11">
         <v>105</v>
       </c>
     </row>
@@ -6124,7 +6050,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q134,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R134,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S134,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T134,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U134,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V134,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W134,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q134" s="13">
+      <c r="Q134" s="11">
         <v>106</v>
       </c>
     </row>
@@ -6150,7 +6076,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q135,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R135,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S135,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T135,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U135,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V135,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W135,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q135" s="13">
+      <c r="Q135" s="11">
         <v>107</v>
       </c>
     </row>
@@ -6176,7 +6102,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q136,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R136,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S136,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T136,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U136,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V136,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W136,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q136" s="13">
+      <c r="Q136" s="11">
         <v>108</v>
       </c>
     </row>
@@ -6202,7 +6128,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q137,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R137,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S137,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T137,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U137,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V137,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W137,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q137" s="13">
+      <c r="Q137" s="11">
         <v>109</v>
       </c>
     </row>
@@ -6228,7 +6154,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q138,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R138,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S138,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T138,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U138,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V138,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W138,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q138" s="13">
+      <c r="Q138" s="11">
         <v>110</v>
       </c>
     </row>
@@ -6254,7 +6180,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q139,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R139,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S139,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T139,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U139,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V139,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W139,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q139" s="13">
+      <c r="Q139" s="11">
         <v>111</v>
       </c>
     </row>
@@ -6280,7 +6206,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q140,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R140,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S140,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T140,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U140,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V140,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W140,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q140" s="13">
+      <c r="Q140" s="11">
         <v>112</v>
       </c>
     </row>
@@ -6306,7 +6232,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q141,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R141,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S141,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T141,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U141,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V141,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W141,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q141" s="13">
+      <c r="Q141" s="11">
         <v>113</v>
       </c>
     </row>
@@ -6332,7 +6258,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q142,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R142,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S142,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T142,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U142,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V142,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W142,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q142" s="13">
+      <c r="Q142" s="11">
         <v>114</v>
       </c>
     </row>
@@ -6358,7 +6284,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q143,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R143,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S143,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T143,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U143,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V143,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W143,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q143" s="13">
+      <c r="Q143" s="11">
         <v>115</v>
       </c>
     </row>
@@ -6384,7 +6310,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q144,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R144,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S144,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T144,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U144,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V144,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W144,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q144" s="13">
+      <c r="Q144" s="11">
         <v>116</v>
       </c>
     </row>
@@ -6410,7 +6336,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q145,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R145,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S145,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T145,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U145,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V145,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W145,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q145" s="13">
+      <c r="Q145" s="11">
         <v>117</v>
       </c>
     </row>
@@ -6436,7 +6362,7 @@
       <c r="K146" t="s">
         <v>108</v>
       </c>
-      <c r="Q146" s="13">
+      <c r="Q146" s="11">
         <v>118</v>
       </c>
     </row>
@@ -6462,7 +6388,7 @@
       <c r="K147" t="s">
         <v>108</v>
       </c>
-      <c r="Q147" s="13">
+      <c r="Q147" s="11">
         <v>119</v>
       </c>
     </row>
@@ -6488,7 +6414,7 @@
       <c r="K148" t="s">
         <v>108</v>
       </c>
-      <c r="Q148" s="13">
+      <c r="Q148" s="11">
         <v>120</v>
       </c>
     </row>
@@ -6514,7 +6440,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q149,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R149,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S149,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T149,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U149,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V149,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W149,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q149" s="13">
+      <c r="Q149" s="11">
         <v>121</v>
       </c>
     </row>
@@ -6537,7 +6463,7 @@
       <c r="J150" s="3">
         <v>0</v>
       </c>
-      <c r="Q150" s="13">
+      <c r="Q150" s="11">
         <v>123</v>
       </c>
     </row>
@@ -6566,7 +6492,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q151,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R151,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S151,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T151,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U151,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V151,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W151,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q151" s="13">
+      <c r="Q151" s="11">
         <v>124</v>
       </c>
     </row>
@@ -6595,7 +6521,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q152,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R152,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S152,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T152,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U152,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V152,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W152,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q152" s="13">
+      <c r="Q152" s="11">
         <v>125</v>
       </c>
     </row>
@@ -6624,7 +6550,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q153,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R153,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S153,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T153,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U153,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V153,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W153,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q153" s="13">
+      <c r="Q153" s="11">
         <v>126</v>
       </c>
     </row>
@@ -6653,7 +6579,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q154,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R154,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S154,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T154,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U154,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V154,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W154,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q154" s="13">
+      <c r="Q154" s="11">
         <v>127</v>
       </c>
     </row>
@@ -6682,7 +6608,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q155,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R155,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S155,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T155,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U155,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V155,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W155,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q155" s="13">
+      <c r="Q155" s="11">
         <v>128</v>
       </c>
     </row>
@@ -6711,7 +6637,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q156,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R156,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S156,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T156,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U156,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V156,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W156,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q156" s="13">
+      <c r="Q156" s="11">
         <v>129</v>
       </c>
     </row>
@@ -6740,7 +6666,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q157,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R157,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S157,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T157,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U157,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V157,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W157,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q157" s="13">
+      <c r="Q157" s="11">
         <v>130</v>
       </c>
     </row>
@@ -6769,7 +6695,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q158,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R158,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S158,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T158,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U158,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V158,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W158,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q158" s="13">
+      <c r="Q158" s="11">
         <v>131</v>
       </c>
     </row>
@@ -6798,7 +6724,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q159,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R159,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S159,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T159,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U159,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V159,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W159,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q159" s="13">
+      <c r="Q159" s="11">
         <v>132</v>
       </c>
     </row>
@@ -6827,7 +6753,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q160,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R160,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S160,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T160,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U160,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V160,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W160,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q160" s="13">
+      <c r="Q160" s="11">
         <v>133</v>
       </c>
     </row>
@@ -6856,7 +6782,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q161,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R161,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S161,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T161,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U161,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V161,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W161,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q161" s="13">
+      <c r="Q161" s="11">
         <v>134</v>
       </c>
     </row>
@@ -6885,7 +6811,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q162,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R162,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S162,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T162,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U162,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V162,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W162,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q162" s="13">
+      <c r="Q162" s="11">
         <v>135</v>
       </c>
     </row>
@@ -6911,7 +6837,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q163,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R163,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S163,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T163,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U163,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V163,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W163,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q163" s="13">
+      <c r="Q163" s="11">
         <v>136</v>
       </c>
     </row>
@@ -6937,7 +6863,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q164,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R164,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S164,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T164,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U164,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V164,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W164,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q164" s="13">
+      <c r="Q164" s="11">
         <v>137</v>
       </c>
     </row>
@@ -6963,7 +6889,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q165,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R165,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S165,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T165,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U165,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V165,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W165,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q165" s="13">
+      <c r="Q165" s="11">
         <v>138</v>
       </c>
     </row>
@@ -6989,7 +6915,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q166,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R166,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S166,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T166,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U166,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V166,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W166,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q166" s="13">
+      <c r="Q166" s="11">
         <v>139</v>
       </c>
     </row>
@@ -7015,7 +6941,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q167,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R167,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S167,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T167,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U167,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V167,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W167,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q167" s="13">
+      <c r="Q167" s="11">
         <v>140</v>
       </c>
     </row>
@@ -7041,7 +6967,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q168,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R168,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S168,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T168,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U168,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V168,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W168,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q168" s="13">
+      <c r="Q168" s="11">
         <v>141</v>
       </c>
     </row>
@@ -7067,7 +6993,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q169,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R169,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S169,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T169,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U169,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V169,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W169,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q169" s="13">
+      <c r="Q169" s="11">
         <v>142</v>
       </c>
     </row>
@@ -7093,7 +7019,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q170,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R170,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S170,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T170,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U170,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V170,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W170,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q170" s="13">
+      <c r="Q170" s="11">
         <v>143</v>
       </c>
     </row>
@@ -7119,7 +7045,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q171,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R171,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S171,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T171,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U171,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V171,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W171,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q171" s="13">
+      <c r="Q171" s="11">
         <v>144</v>
       </c>
     </row>
@@ -7145,7 +7071,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q172,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R172,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S172,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T172,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U172,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V172,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W172,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q172" s="13">
+      <c r="Q172" s="11">
         <v>145</v>
       </c>
     </row>
@@ -7171,7 +7097,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q173,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R173,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S173,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T173,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U173,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V173,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W173,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q173" s="13">
+      <c r="Q173" s="11">
         <v>146</v>
       </c>
     </row>
@@ -7197,7 +7123,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q174,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R174,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S174,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T174,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U174,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V174,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W174,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q174" s="13">
+      <c r="Q174" s="11">
         <v>147</v>
       </c>
     </row>
@@ -7223,7 +7149,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q175,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R175,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S175,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T175,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U175,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V175,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W175,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q175" s="13">
+      <c r="Q175" s="11">
         <v>148</v>
       </c>
     </row>
@@ -7249,7 +7175,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q176,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R176,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S176,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T176,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U176,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V176,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W176,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q176" s="13">
+      <c r="Q176" s="11">
         <v>149</v>
       </c>
     </row>
@@ -7275,7 +7201,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q177,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R177,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S177,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T177,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U177,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V177,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W177,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q177" s="13">
+      <c r="Q177" s="11">
         <v>150</v>
       </c>
     </row>
@@ -7301,7 +7227,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q178,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R178,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S178,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T178,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U178,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V178,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W178,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q178" s="13">
+      <c r="Q178" s="11">
         <v>151</v>
       </c>
     </row>
@@ -7327,7 +7253,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q179,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R179,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S179,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T179,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U179,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V179,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W179,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q179" s="13">
+      <c r="Q179" s="11">
         <v>152</v>
       </c>
     </row>
@@ -7353,7 +7279,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q180,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R180,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S180,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T180,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U180,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V180,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W180,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q180" s="13">
+      <c r="Q180" s="11">
         <v>153</v>
       </c>
     </row>
@@ -7379,7 +7305,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q181,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R181,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S181,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T181,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U181,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V181,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W181,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q181" s="13">
+      <c r="Q181" s="11">
         <v>154</v>
       </c>
     </row>
@@ -7405,7 +7331,7 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q182,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R182,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S182,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T182,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U182,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V182,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W182,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q182" s="13">
+      <c r="Q182" s="11">
         <v>155</v>
       </c>
     </row>
@@ -7431,763 +7357,763 @@
         <f>SUM(_xlfn.IFNA(LOOKUP(Q183,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R183,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S183,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T183,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U183,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V183,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W183,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q183" s="13">
+      <c r="Q183" s="11">
         <v>156</v>
       </c>
     </row>
-    <row r="184" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="15">
+    <row r="184" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="22">
         <v>183</v>
       </c>
-      <c r="B184" s="15">
-        <v>1</v>
-      </c>
-      <c r="C184" s="15" t="s">
+      <c r="B184" s="22">
+        <v>1</v>
+      </c>
+      <c r="C184" s="22" t="s">
         <v>364</v>
       </c>
-      <c r="H184">
+      <c r="H184" s="22">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q184,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R184,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S184,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T184,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U184,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V184,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W184,use_fish!A:A,use_fish!E:E),0),)</f>
         <v>30</v>
       </c>
-      <c r="I184">
+      <c r="I184" s="22">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q184,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R184,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S184,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T184,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U184,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V184,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W184,use_fish!A:A,use_fish!I:I),0),)</f>
         <v>30</v>
       </c>
-      <c r="J184" s="3">
+      <c r="J184" s="24">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q184,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R184,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S184,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T184,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U184,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V184,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W184,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q184" s="20">
+      <c r="Q184" s="26">
         <v>157</v>
       </c>
     </row>
-    <row r="185" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="15">
+    <row r="185" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="22">
         <v>184</v>
       </c>
-      <c r="B185" s="15">
-        <v>1</v>
-      </c>
-      <c r="C185" s="15" t="s">
+      <c r="B185" s="22">
+        <v>1</v>
+      </c>
+      <c r="C185" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="H185">
+      <c r="H185" s="22">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q185,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R185,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S185,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T185,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U185,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V185,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W185,use_fish!A:A,use_fish!E:E),0),)</f>
         <v>40</v>
       </c>
-      <c r="I185">
+      <c r="I185" s="22">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q185,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R185,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S185,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T185,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U185,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V185,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W185,use_fish!A:A,use_fish!I:I),0),)</f>
         <v>40</v>
       </c>
-      <c r="J185" s="3">
+      <c r="J185" s="24">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q185,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R185,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S185,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T185,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U185,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V185,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W185,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q185" s="20">
+      <c r="Q185" s="26">
         <v>158</v>
       </c>
     </row>
-    <row r="186" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="15">
+    <row r="186" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="22">
         <v>185</v>
       </c>
-      <c r="B186" s="15">
-        <v>1</v>
-      </c>
-      <c r="C186" s="15" t="s">
+      <c r="B186" s="22">
+        <v>1</v>
+      </c>
+      <c r="C186" s="22" t="s">
         <v>366</v>
       </c>
-      <c r="H186">
+      <c r="H186" s="22">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q186,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R186,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S186,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T186,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U186,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V186,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W186,use_fish!A:A,use_fish!E:E),0),)</f>
         <v>50</v>
       </c>
-      <c r="I186">
+      <c r="I186" s="22">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q186,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R186,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S186,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T186,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U186,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V186,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W186,use_fish!A:A,use_fish!I:I),0),)</f>
         <v>50</v>
       </c>
-      <c r="J186" s="3">
+      <c r="J186" s="24">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q186,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R186,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S186,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T186,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U186,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V186,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W186,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q186" s="20">
+      <c r="Q186" s="26">
         <v>159</v>
       </c>
     </row>
-    <row r="187" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="15">
+    <row r="187" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="22">
         <v>186</v>
       </c>
-      <c r="B187" s="15">
-        <v>1</v>
-      </c>
-      <c r="C187" s="15" t="s">
+      <c r="B187" s="22">
+        <v>1</v>
+      </c>
+      <c r="C187" s="22" t="s">
         <v>367</v>
       </c>
-      <c r="H187">
+      <c r="H187" s="22">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q187,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R187,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S187,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T187,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U187,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V187,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W187,use_fish!A:A,use_fish!E:E),0),)</f>
         <v>60</v>
       </c>
-      <c r="I187">
+      <c r="I187" s="22">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q187,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R187,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S187,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T187,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U187,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V187,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W187,use_fish!A:A,use_fish!I:I),0),)</f>
         <v>60</v>
       </c>
-      <c r="J187" s="3">
+      <c r="J187" s="24">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q187,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R187,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S187,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T187,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U187,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V187,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W187,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q187" s="20">
+      <c r="Q187" s="26">
         <v>160</v>
       </c>
     </row>
-    <row r="188" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="15">
+    <row r="188" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="22">
         <v>187</v>
       </c>
-      <c r="B188" s="15">
-        <v>1</v>
-      </c>
-      <c r="C188" s="15" t="s">
+      <c r="B188" s="22">
+        <v>1</v>
+      </c>
+      <c r="C188" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="H188">
+      <c r="H188" s="22">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q188,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R188,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S188,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T188,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U188,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V188,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W188,use_fish!A:A,use_fish!E:E),0),)</f>
         <v>70</v>
       </c>
-      <c r="I188">
+      <c r="I188" s="22">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q188,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R188,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S188,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T188,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U188,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V188,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W188,use_fish!A:A,use_fish!I:I),0),)</f>
         <v>70</v>
       </c>
-      <c r="J188" s="3">
+      <c r="J188" s="24">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q188,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R188,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S188,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T188,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U188,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V188,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W188,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q188" s="20">
+      <c r="Q188" s="26">
         <v>161</v>
       </c>
     </row>
-    <row r="189" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="15">
+    <row r="189" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="22">
         <v>188</v>
       </c>
-      <c r="B189" s="15">
-        <v>1</v>
-      </c>
-      <c r="C189" s="15" t="s">
+      <c r="B189" s="22">
+        <v>1</v>
+      </c>
+      <c r="C189" s="22" t="s">
         <v>369</v>
       </c>
-      <c r="H189">
+      <c r="H189" s="22">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q189,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R189,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S189,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T189,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U189,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V189,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W189,use_fish!A:A,use_fish!E:E),0),)</f>
         <v>75</v>
       </c>
-      <c r="I189">
+      <c r="I189" s="22">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q189,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R189,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S189,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T189,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U189,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V189,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W189,use_fish!A:A,use_fish!I:I),0),)</f>
         <v>75</v>
       </c>
-      <c r="J189" s="3">
+      <c r="J189" s="24">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q189,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R189,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S189,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T189,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U189,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V189,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W189,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q189" s="20">
+      <c r="Q189" s="26">
         <v>162</v>
       </c>
     </row>
-    <row r="190" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="15">
+    <row r="190" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="22">
         <v>189</v>
       </c>
-      <c r="B190" s="15">
-        <v>1</v>
-      </c>
-      <c r="C190" s="15" t="s">
+      <c r="B190" s="22">
+        <v>1</v>
+      </c>
+      <c r="C190" s="22" t="s">
         <v>370</v>
       </c>
-      <c r="H190">
+      <c r="H190" s="22">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q190,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R190,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S190,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T190,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U190,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V190,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W190,use_fish!A:A,use_fish!E:E),0),)</f>
         <v>150</v>
       </c>
-      <c r="I190">
+      <c r="I190" s="22">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q190,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R190,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S190,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T190,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U190,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V190,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W190,use_fish!A:A,use_fish!I:I),0),)</f>
         <v>150</v>
       </c>
-      <c r="J190" s="3">
+      <c r="J190" s="24">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q190,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R190,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S190,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T190,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U190,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V190,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W190,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q190" s="20">
+      <c r="Q190" s="26">
         <v>163</v>
       </c>
     </row>
-    <row r="191" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="15">
+    <row r="191" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="22">
         <v>190</v>
       </c>
-      <c r="B191" s="15">
-        <v>1</v>
-      </c>
-      <c r="C191" s="15" t="s">
+      <c r="B191" s="22">
+        <v>1</v>
+      </c>
+      <c r="C191" s="22" t="s">
         <v>371</v>
       </c>
-      <c r="H191">
+      <c r="H191" s="22">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q191,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R191,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S191,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T191,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U191,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V191,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W191,use_fish!A:A,use_fish!E:E),0),)</f>
         <v>250</v>
       </c>
-      <c r="I191">
+      <c r="I191" s="22">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q191,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R191,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S191,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T191,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U191,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V191,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W191,use_fish!A:A,use_fish!I:I),0),)</f>
         <v>250</v>
       </c>
-      <c r="J191" s="3">
+      <c r="J191" s="24">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q191,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R191,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S191,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T191,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U191,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V191,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W191,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q191" s="20">
+      <c r="Q191" s="26">
         <v>164</v>
       </c>
     </row>
-    <row r="192" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="15">
+    <row r="192" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="22">
         <v>191</v>
       </c>
-      <c r="B192" s="21">
-        <v>1</v>
-      </c>
-      <c r="C192" s="15" t="s">
+      <c r="B192" s="22">
+        <v>1</v>
+      </c>
+      <c r="C192" s="22" t="s">
         <v>372</v>
       </c>
-      <c r="H192">
+      <c r="H192" s="22">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q192,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R192,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S192,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T192,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U192,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V192,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W192,use_fish!A:A,use_fish!E:E),0),)</f>
         <v>75</v>
       </c>
-      <c r="I192">
+      <c r="I192" s="22">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q192,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R192,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S192,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T192,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U192,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V192,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W192,use_fish!A:A,use_fish!I:I),0),)</f>
         <v>75</v>
       </c>
-      <c r="J192" s="3">
+      <c r="J192" s="24">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q192,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R192,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S192,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T192,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U192,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V192,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W192,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q192" s="20">
+      <c r="Q192" s="26">
         <v>165</v>
       </c>
     </row>
-    <row r="193" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="15">
+    <row r="193" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="22">
         <v>192</v>
       </c>
-      <c r="B193" s="21">
-        <v>1</v>
-      </c>
-      <c r="C193" s="15" t="s">
+      <c r="B193" s="22">
+        <v>1</v>
+      </c>
+      <c r="C193" s="22" t="s">
         <v>373</v>
       </c>
-      <c r="H193">
+      <c r="H193" s="22">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q193,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R193,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S193,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T193,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U193,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V193,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W193,use_fish!A:A,use_fish!E:E),0),)</f>
         <v>0</v>
       </c>
-      <c r="I193">
+      <c r="I193" s="22">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q193,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R193,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S193,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T193,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U193,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V193,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W193,use_fish!A:A,use_fish!I:I),0),)</f>
         <v>0</v>
       </c>
-      <c r="J193" s="3">
+      <c r="J193" s="24">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q193,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R193,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S193,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T193,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U193,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V193,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W193,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q193" s="20">
+      <c r="Q193" s="26">
         <v>166</v>
       </c>
     </row>
-    <row r="194" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="28">
+    <row r="194" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="22">
         <v>193</v>
       </c>
-      <c r="B194" s="28">
-        <v>1</v>
-      </c>
-      <c r="C194" s="28" t="s">
+      <c r="B194" s="22">
+        <v>1</v>
+      </c>
+      <c r="C194" s="22" t="s">
         <v>382</v>
       </c>
-      <c r="H194" s="28">
+      <c r="H194" s="22">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q194,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R194,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S194,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T194,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U194,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V194,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W194,use_fish!A:A,use_fish!E:E),0),)</f>
         <v>30</v>
       </c>
-      <c r="I194" s="28">
+      <c r="I194" s="22">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q194,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R194,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S194,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T194,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U194,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V194,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W194,use_fish!A:A,use_fish!I:I),0),)</f>
         <v>30</v>
       </c>
-      <c r="J194" s="27">
+      <c r="J194" s="24">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q194,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R194,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S194,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T194,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U194,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V194,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W194,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q194" s="29">
+      <c r="Q194" s="26">
         <v>167</v>
       </c>
     </row>
-    <row r="195" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="28">
+    <row r="195" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="22">
         <v>194</v>
       </c>
-      <c r="B195" s="28">
-        <v>1</v>
-      </c>
-      <c r="C195" s="28" t="s">
+      <c r="B195" s="22">
+        <v>1</v>
+      </c>
+      <c r="C195" s="22" t="s">
         <v>383</v>
       </c>
-      <c r="H195" s="28">
+      <c r="H195" s="22">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q195,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R195,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S195,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T195,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U195,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V195,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W195,use_fish!A:A,use_fish!E:E),0),)</f>
         <v>40</v>
       </c>
-      <c r="I195" s="28">
+      <c r="I195" s="22">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q195,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R195,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S195,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T195,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U195,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V195,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W195,use_fish!A:A,use_fish!I:I),0),)</f>
         <v>40</v>
       </c>
-      <c r="J195" s="27">
+      <c r="J195" s="24">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q195,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R195,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S195,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T195,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U195,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V195,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W195,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q195" s="29">
+      <c r="Q195" s="26">
         <v>168</v>
       </c>
     </row>
-    <row r="196" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="28">
+    <row r="196" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="22">
         <v>195</v>
       </c>
-      <c r="B196" s="28">
-        <v>1</v>
-      </c>
-      <c r="C196" s="28" t="s">
+      <c r="B196" s="22">
+        <v>1</v>
+      </c>
+      <c r="C196" s="22" t="s">
         <v>384</v>
       </c>
-      <c r="H196" s="28">
+      <c r="H196" s="22">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q196,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R196,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S196,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T196,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U196,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V196,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W196,use_fish!A:A,use_fish!E:E),0),)</f>
         <v>50</v>
       </c>
-      <c r="I196" s="28">
+      <c r="I196" s="22">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q196,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R196,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S196,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T196,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U196,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V196,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W196,use_fish!A:A,use_fish!I:I),0),)</f>
         <v>50</v>
       </c>
-      <c r="J196" s="27">
+      <c r="J196" s="24">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q196,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R196,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S196,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T196,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U196,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V196,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W196,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q196" s="29">
+      <c r="Q196" s="26">
         <v>169</v>
       </c>
     </row>
-    <row r="197" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="28">
+    <row r="197" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="22">
         <v>196</v>
       </c>
-      <c r="B197" s="28">
-        <v>1</v>
-      </c>
-      <c r="C197" s="28" t="s">
+      <c r="B197" s="22">
+        <v>1</v>
+      </c>
+      <c r="C197" s="22" t="s">
         <v>385</v>
       </c>
-      <c r="H197" s="28">
+      <c r="H197" s="22">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q197,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R197,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S197,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T197,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U197,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V197,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W197,use_fish!A:A,use_fish!E:E),0),)</f>
         <v>60</v>
       </c>
-      <c r="I197" s="28">
+      <c r="I197" s="22">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q197,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R197,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S197,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T197,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U197,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V197,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W197,use_fish!A:A,use_fish!I:I),0),)</f>
         <v>60</v>
       </c>
-      <c r="J197" s="27">
+      <c r="J197" s="24">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q197,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R197,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S197,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T197,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U197,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V197,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W197,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q197" s="29">
+      <c r="Q197" s="26">
         <v>170</v>
       </c>
     </row>
-    <row r="198" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="28">
+    <row r="198" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="22">
         <v>197</v>
       </c>
-      <c r="B198" s="28">
-        <v>1</v>
-      </c>
-      <c r="C198" s="28" t="s">
+      <c r="B198" s="22">
+        <v>1</v>
+      </c>
+      <c r="C198" s="22" t="s">
         <v>386</v>
       </c>
-      <c r="H198" s="28">
+      <c r="H198" s="22">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q198,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R198,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S198,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T198,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U198,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V198,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W198,use_fish!A:A,use_fish!E:E),0),)</f>
         <v>70</v>
       </c>
-      <c r="I198" s="28">
+      <c r="I198" s="22">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q198,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R198,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S198,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T198,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U198,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V198,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W198,use_fish!A:A,use_fish!I:I),0),)</f>
         <v>70</v>
       </c>
-      <c r="J198" s="27">
+      <c r="J198" s="24">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q198,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R198,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S198,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T198,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U198,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V198,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W198,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q198" s="29">
+      <c r="Q198" s="26">
         <v>171</v>
       </c>
     </row>
-    <row r="199" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="28">
+    <row r="199" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="22">
         <v>198</v>
       </c>
-      <c r="B199" s="28">
-        <v>1</v>
-      </c>
-      <c r="C199" s="28" t="s">
+      <c r="B199" s="22">
+        <v>1</v>
+      </c>
+      <c r="C199" s="22" t="s">
         <v>387</v>
       </c>
-      <c r="H199" s="28">
+      <c r="H199" s="22">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q199,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R199,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S199,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T199,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U199,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V199,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W199,use_fish!A:A,use_fish!E:E),0),)</f>
         <v>75</v>
       </c>
-      <c r="I199" s="28">
+      <c r="I199" s="22">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q199,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R199,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S199,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T199,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U199,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V199,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W199,use_fish!A:A,use_fish!I:I),0),)</f>
         <v>75</v>
       </c>
-      <c r="J199" s="27">
+      <c r="J199" s="24">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q199,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R199,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S199,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T199,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U199,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V199,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W199,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q199" s="29">
+      <c r="Q199" s="26">
         <v>172</v>
       </c>
     </row>
-    <row r="200" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="28">
+    <row r="200" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="22">
         <v>199</v>
       </c>
-      <c r="B200" s="28">
-        <v>1</v>
-      </c>
-      <c r="C200" s="28" t="s">
+      <c r="B200" s="22">
+        <v>1</v>
+      </c>
+      <c r="C200" s="22" t="s">
         <v>388</v>
       </c>
-      <c r="H200" s="28">
+      <c r="H200" s="22">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q200,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R200,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S200,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T200,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U200,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V200,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W200,use_fish!A:A,use_fish!E:E),0),)</f>
         <v>150</v>
       </c>
-      <c r="I200" s="28">
+      <c r="I200" s="22">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q200,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R200,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S200,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T200,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U200,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V200,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W200,use_fish!A:A,use_fish!I:I),0),)</f>
         <v>150</v>
       </c>
-      <c r="J200" s="27">
+      <c r="J200" s="24">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q200,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R200,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S200,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T200,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U200,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V200,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W200,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q200" s="29">
+      <c r="Q200" s="26">
         <v>173</v>
       </c>
     </row>
-    <row r="201" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="28">
+    <row r="201" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="22">
         <v>200</v>
       </c>
-      <c r="B201" s="28">
-        <v>1</v>
-      </c>
-      <c r="C201" s="28" t="s">
+      <c r="B201" s="22">
+        <v>1</v>
+      </c>
+      <c r="C201" s="22" t="s">
         <v>389</v>
       </c>
-      <c r="H201" s="28">
+      <c r="H201" s="22">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q201,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R201,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S201,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T201,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U201,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V201,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W201,use_fish!A:A,use_fish!E:E),0),)</f>
         <v>250</v>
       </c>
-      <c r="I201" s="28">
+      <c r="I201" s="22">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q201,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R201,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S201,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T201,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U201,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V201,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W201,use_fish!A:A,use_fish!I:I),0),)</f>
         <v>250</v>
       </c>
-      <c r="J201" s="27">
+      <c r="J201" s="24">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q201,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R201,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S201,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T201,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U201,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V201,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W201,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="Q201" s="29">
+      <c r="Q201" s="26">
         <v>174</v>
       </c>
     </row>
     <row r="202" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A202" s="37">
+      <c r="A202" s="17">
         <v>201</v>
       </c>
-      <c r="B202" s="37">
-        <v>1</v>
-      </c>
-      <c r="C202" s="37" t="s">
+      <c r="B202" s="17">
+        <v>1</v>
+      </c>
+      <c r="C202" s="17" t="s">
         <v>392</v>
       </c>
-      <c r="D202" s="37"/>
-      <c r="E202" s="37"/>
-      <c r="F202" s="37"/>
-      <c r="G202" s="37"/>
-      <c r="H202" s="37">
+      <c r="D202" s="17"/>
+      <c r="E202" s="17"/>
+      <c r="F202" s="17"/>
+      <c r="G202" s="17"/>
+      <c r="H202" s="17">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q202,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R202,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S202,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T202,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U202,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V202,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W202,use_fish!A:A,use_fish!E:E),0),)</f>
         <v>30</v>
       </c>
-      <c r="I202" s="37">
+      <c r="I202" s="17">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q202,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R202,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S202,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T202,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U202,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V202,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W202,use_fish!A:A,use_fish!I:I),0),)</f>
         <v>30</v>
       </c>
-      <c r="J202" s="36">
+      <c r="J202" s="16">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q202,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R202,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S202,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T202,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U202,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V202,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W202,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="K202" s="37"/>
-      <c r="L202" s="37"/>
-      <c r="M202" s="37"/>
-      <c r="N202" s="37"/>
-      <c r="O202" s="37"/>
-      <c r="P202" s="37"/>
-      <c r="Q202" s="41">
+      <c r="K202" s="17"/>
+      <c r="L202" s="17"/>
+      <c r="M202" s="17"/>
+      <c r="N202" s="17"/>
+      <c r="O202" s="17"/>
+      <c r="P202" s="17"/>
+      <c r="Q202" s="21">
         <v>175</v>
       </c>
     </row>
     <row r="203" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A203" s="37">
+      <c r="A203" s="17">
         <v>202</v>
       </c>
-      <c r="B203" s="37">
-        <v>1</v>
-      </c>
-      <c r="C203" s="37" t="s">
+      <c r="B203" s="17">
+        <v>1</v>
+      </c>
+      <c r="C203" s="17" t="s">
         <v>393</v>
       </c>
-      <c r="D203" s="37"/>
-      <c r="E203" s="37"/>
-      <c r="F203" s="37"/>
-      <c r="G203" s="37"/>
-      <c r="H203" s="37">
+      <c r="D203" s="17"/>
+      <c r="E203" s="17"/>
+      <c r="F203" s="17"/>
+      <c r="G203" s="17"/>
+      <c r="H203" s="17">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q203,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R203,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S203,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T203,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U203,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V203,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W203,use_fish!A:A,use_fish!E:E),0),)</f>
         <v>40</v>
       </c>
-      <c r="I203" s="37">
+      <c r="I203" s="17">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q203,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R203,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S203,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T203,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U203,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V203,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W203,use_fish!A:A,use_fish!I:I),0),)</f>
         <v>40</v>
       </c>
-      <c r="J203" s="36">
+      <c r="J203" s="16">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q203,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R203,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S203,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T203,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U203,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V203,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W203,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="K203" s="37"/>
-      <c r="L203" s="37"/>
-      <c r="M203" s="37"/>
-      <c r="N203" s="37"/>
-      <c r="O203" s="37"/>
-      <c r="P203" s="37"/>
-      <c r="Q203" s="41">
+      <c r="K203" s="17"/>
+      <c r="L203" s="17"/>
+      <c r="M203" s="17"/>
+      <c r="N203" s="17"/>
+      <c r="O203" s="17"/>
+      <c r="P203" s="17"/>
+      <c r="Q203" s="21">
         <v>176</v>
       </c>
     </row>
     <row r="204" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A204" s="37">
+      <c r="A204" s="17">
         <v>203</v>
       </c>
-      <c r="B204" s="37">
-        <v>1</v>
-      </c>
-      <c r="C204" s="37" t="s">
+      <c r="B204" s="17">
+        <v>1</v>
+      </c>
+      <c r="C204" s="17" t="s">
         <v>394</v>
       </c>
-      <c r="D204" s="37"/>
-      <c r="E204" s="37"/>
-      <c r="F204" s="37"/>
-      <c r="G204" s="37"/>
-      <c r="H204" s="37">
+      <c r="D204" s="17"/>
+      <c r="E204" s="17"/>
+      <c r="F204" s="17"/>
+      <c r="G204" s="17"/>
+      <c r="H204" s="17">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q204,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R204,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S204,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T204,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U204,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V204,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W204,use_fish!A:A,use_fish!E:E),0),)</f>
         <v>50</v>
       </c>
-      <c r="I204" s="37">
+      <c r="I204" s="17">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q204,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R204,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S204,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T204,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U204,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V204,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W204,use_fish!A:A,use_fish!I:I),0),)</f>
         <v>50</v>
       </c>
-      <c r="J204" s="36">
+      <c r="J204" s="16">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q204,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R204,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S204,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T204,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U204,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V204,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W204,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="K204" s="37"/>
-      <c r="L204" s="37"/>
-      <c r="M204" s="37"/>
-      <c r="N204" s="37"/>
-      <c r="O204" s="37"/>
-      <c r="P204" s="37"/>
-      <c r="Q204" s="41">
+      <c r="K204" s="17"/>
+      <c r="L204" s="17"/>
+      <c r="M204" s="17"/>
+      <c r="N204" s="17"/>
+      <c r="O204" s="17"/>
+      <c r="P204" s="17"/>
+      <c r="Q204" s="21">
         <v>177</v>
       </c>
     </row>
     <row r="205" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A205" s="37">
+      <c r="A205" s="17">
         <v>204</v>
       </c>
-      <c r="B205" s="37">
-        <v>1</v>
-      </c>
-      <c r="C205" s="37" t="s">
+      <c r="B205" s="17">
+        <v>1</v>
+      </c>
+      <c r="C205" s="17" t="s">
         <v>395</v>
       </c>
-      <c r="D205" s="37"/>
-      <c r="E205" s="37"/>
-      <c r="F205" s="37"/>
-      <c r="G205" s="37"/>
-      <c r="H205" s="37">
+      <c r="D205" s="17"/>
+      <c r="E205" s="17"/>
+      <c r="F205" s="17"/>
+      <c r="G205" s="17"/>
+      <c r="H205" s="17">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q205,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R205,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S205,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T205,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U205,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V205,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W205,use_fish!A:A,use_fish!E:E),0),)</f>
         <v>60</v>
       </c>
-      <c r="I205" s="37">
+      <c r="I205" s="17">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q205,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R205,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S205,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T205,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U205,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V205,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W205,use_fish!A:A,use_fish!I:I),0),)</f>
         <v>60</v>
       </c>
-      <c r="J205" s="36">
+      <c r="J205" s="16">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q205,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R205,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S205,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T205,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U205,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V205,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W205,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="K205" s="37"/>
-      <c r="L205" s="37"/>
-      <c r="M205" s="37"/>
-      <c r="N205" s="37"/>
-      <c r="O205" s="37"/>
-      <c r="P205" s="37"/>
-      <c r="Q205" s="41">
+      <c r="K205" s="17"/>
+      <c r="L205" s="17"/>
+      <c r="M205" s="17"/>
+      <c r="N205" s="17"/>
+      <c r="O205" s="17"/>
+      <c r="P205" s="17"/>
+      <c r="Q205" s="21">
         <v>178</v>
       </c>
     </row>
     <row r="206" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A206" s="37">
+      <c r="A206" s="17">
         <v>205</v>
       </c>
-      <c r="B206" s="37">
-        <v>1</v>
-      </c>
-      <c r="C206" s="37" t="s">
+      <c r="B206" s="17">
+        <v>1</v>
+      </c>
+      <c r="C206" s="17" t="s">
         <v>396</v>
       </c>
-      <c r="D206" s="37"/>
-      <c r="E206" s="37"/>
-      <c r="F206" s="37"/>
-      <c r="G206" s="37"/>
-      <c r="H206" s="37">
+      <c r="D206" s="17"/>
+      <c r="E206" s="17"/>
+      <c r="F206" s="17"/>
+      <c r="G206" s="17"/>
+      <c r="H206" s="17">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q206,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R206,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S206,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T206,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U206,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V206,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W206,use_fish!A:A,use_fish!E:E),0),)</f>
         <v>70</v>
       </c>
-      <c r="I206" s="37">
+      <c r="I206" s="17">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q206,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R206,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S206,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T206,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U206,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V206,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W206,use_fish!A:A,use_fish!I:I),0),)</f>
         <v>70</v>
       </c>
-      <c r="J206" s="36">
+      <c r="J206" s="16">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q206,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R206,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S206,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T206,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U206,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V206,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W206,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="K206" s="37"/>
-      <c r="L206" s="37"/>
-      <c r="M206" s="37"/>
-      <c r="N206" s="37"/>
-      <c r="O206" s="37"/>
-      <c r="P206" s="37"/>
-      <c r="Q206" s="41">
+      <c r="K206" s="17"/>
+      <c r="L206" s="17"/>
+      <c r="M206" s="17"/>
+      <c r="N206" s="17"/>
+      <c r="O206" s="17"/>
+      <c r="P206" s="17"/>
+      <c r="Q206" s="21">
         <v>179</v>
       </c>
     </row>
     <row r="207" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A207" s="37">
+      <c r="A207" s="17">
         <v>206</v>
       </c>
-      <c r="B207" s="37">
-        <v>1</v>
-      </c>
-      <c r="C207" s="37" t="s">
+      <c r="B207" s="17">
+        <v>1</v>
+      </c>
+      <c r="C207" s="17" t="s">
         <v>397</v>
       </c>
-      <c r="D207" s="37"/>
-      <c r="E207" s="37"/>
-      <c r="F207" s="37"/>
-      <c r="G207" s="37"/>
-      <c r="H207" s="37">
+      <c r="D207" s="17"/>
+      <c r="E207" s="17"/>
+      <c r="F207" s="17"/>
+      <c r="G207" s="17"/>
+      <c r="H207" s="17">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q207,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R207,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S207,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T207,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U207,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V207,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W207,use_fish!A:A,use_fish!E:E),0),)</f>
         <v>150</v>
       </c>
-      <c r="I207" s="37">
+      <c r="I207" s="17">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q207,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R207,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S207,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T207,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U207,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V207,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W207,use_fish!A:A,use_fish!I:I),0),)</f>
         <v>150</v>
       </c>
-      <c r="J207" s="36">
+      <c r="J207" s="16">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q207,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R207,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S207,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T207,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U207,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V207,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W207,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="K207" s="37"/>
-      <c r="L207" s="37"/>
-      <c r="M207" s="37"/>
-      <c r="N207" s="37"/>
-      <c r="O207" s="37"/>
-      <c r="P207" s="37"/>
-      <c r="Q207" s="41">
+      <c r="K207" s="17"/>
+      <c r="L207" s="17"/>
+      <c r="M207" s="17"/>
+      <c r="N207" s="17"/>
+      <c r="O207" s="17"/>
+      <c r="P207" s="17"/>
+      <c r="Q207" s="21">
         <v>180</v>
       </c>
     </row>
     <row r="208" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A208" s="37">
+      <c r="A208" s="17">
         <v>207</v>
       </c>
-      <c r="B208" s="37">
-        <v>1</v>
-      </c>
-      <c r="C208" s="37" t="s">
+      <c r="B208" s="17">
+        <v>1</v>
+      </c>
+      <c r="C208" s="17" t="s">
         <v>398</v>
       </c>
-      <c r="D208" s="37"/>
-      <c r="E208" s="37"/>
-      <c r="F208" s="37"/>
-      <c r="G208" s="37"/>
-      <c r="H208" s="37">
+      <c r="D208" s="17"/>
+      <c r="E208" s="17"/>
+      <c r="F208" s="17"/>
+      <c r="G208" s="17"/>
+      <c r="H208" s="17">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q208,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R208,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S208,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T208,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U208,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V208,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W208,use_fish!A:A,use_fish!E:E),0),)</f>
         <v>250</v>
       </c>
-      <c r="I208" s="37">
+      <c r="I208" s="17">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q208,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R208,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S208,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T208,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U208,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V208,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W208,use_fish!A:A,use_fish!I:I),0),)</f>
         <v>250</v>
       </c>
-      <c r="J208" s="36">
+      <c r="J208" s="16">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q208,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R208,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S208,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T208,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U208,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V208,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W208,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="K208" s="37"/>
-      <c r="L208" s="37"/>
-      <c r="M208" s="37"/>
-      <c r="N208" s="37"/>
-      <c r="O208" s="37"/>
-      <c r="P208" s="37"/>
-      <c r="Q208" s="41">
+      <c r="K208" s="17"/>
+      <c r="L208" s="17"/>
+      <c r="M208" s="17"/>
+      <c r="N208" s="17"/>
+      <c r="O208" s="17"/>
+      <c r="P208" s="17"/>
+      <c r="Q208" s="21">
         <v>181</v>
       </c>
     </row>
     <row r="209" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A209" s="37">
+      <c r="A209" s="17">
         <v>208</v>
       </c>
-      <c r="B209" s="37">
-        <v>1</v>
-      </c>
-      <c r="C209" s="37" t="s">
+      <c r="B209" s="17">
+        <v>1</v>
+      </c>
+      <c r="C209" s="17" t="s">
         <v>399</v>
       </c>
-      <c r="D209" s="37"/>
-      <c r="E209" s="37"/>
-      <c r="F209" s="37"/>
-      <c r="G209" s="37"/>
-      <c r="H209" s="37">
+      <c r="D209" s="17"/>
+      <c r="E209" s="17"/>
+      <c r="F209" s="17"/>
+      <c r="G209" s="17"/>
+      <c r="H209" s="17">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q209,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R209,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S209,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T209,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U209,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V209,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W209,use_fish!A:A,use_fish!E:E),0),)</f>
         <v>350</v>
       </c>
-      <c r="I209" s="37">
+      <c r="I209" s="17">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q209,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R209,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S209,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T209,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U209,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V209,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W209,use_fish!A:A,use_fish!I:I),0),)</f>
         <v>350</v>
       </c>
-      <c r="J209" s="36">
+      <c r="J209" s="16">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q209,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R209,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S209,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T209,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U209,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V209,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W209,use_fish!A:A,use_fish!K:K),0),)</f>
         <v>0</v>
       </c>
-      <c r="K209" s="37"/>
-      <c r="L209" s="37"/>
-      <c r="M209" s="37"/>
-      <c r="N209" s="37"/>
-      <c r="O209" s="37"/>
-      <c r="P209" s="37"/>
-      <c r="Q209" s="41">
+      <c r="K209" s="17"/>
+      <c r="L209" s="17"/>
+      <c r="M209" s="17"/>
+      <c r="N209" s="17"/>
+      <c r="O209" s="17"/>
+      <c r="P209" s="17"/>
+      <c r="Q209" s="21">
         <v>182</v>
       </c>
     </row>
@@ -8376,9 +8302,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B183" sqref="B183"/>
+      <selection pane="bottomLeft" activeCell="H184" sqref="H184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8386,7 +8312,7 @@
     <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="2" max="2" width="11.375" customWidth="1"/>
     <col min="3" max="3" width="11.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="32" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="15" customWidth="1"/>
     <col min="5" max="5" width="16.5" customWidth="1"/>
     <col min="6" max="6" width="25.25" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
@@ -8406,7 +8332,7 @@
       <c r="C1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="14" t="s">
         <v>390</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -8421,22 +8347,22 @@
       <c r="H1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="10" t="s">
         <v>150</v>
       </c>
     </row>
@@ -15811,1248 +15737,1248 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="17">
+    <row r="158" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="23">
         <v>157</v>
       </c>
-      <c r="B158" s="18">
+      <c r="B158" s="24">
         <v>6</v>
       </c>
-      <c r="C158" s="17">
+      <c r="C158" s="23">
         <v>38</v>
       </c>
-      <c r="D158" s="33"/>
-      <c r="E158">
+      <c r="D158" s="25"/>
+      <c r="E158" s="22">
         <f>LOOKUP(use_fish!B158,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C158,activity!A:A,0)),0)</f>
         <v>30</v>
       </c>
-      <c r="F158" s="2">
+      <c r="F158" s="23">
         <f t="shared" si="6"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="G158" s="3" t="s">
+      <c r="G158" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="H158" s="2" t="str">
+      <c r="H158" s="23" t="str">
         <f>INDEX(base_fish!E:E,MATCH(use_fish!B158,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C158,activity!A:A,0)),"")</f>
         <v>蓝灯鱼+临时活动</v>
       </c>
-      <c r="I158">
+      <c r="I158" s="22">
         <f>LOOKUP(use_fish!B158,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C158,activity!A:A,0)),0)</f>
         <v>30</v>
       </c>
-      <c r="J158">
-        <v>1</v>
-      </c>
-      <c r="K158">
+      <c r="J158" s="22">
+        <v>1</v>
+      </c>
+      <c r="K158" s="22">
         <f>LOOKUP(use_fish!B158,base_fish!A:A,base_fish!G:G)</f>
         <v>0</v>
       </c>
-      <c r="L158">
+      <c r="L158" s="22">
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="M158">
-        <v>1</v>
-      </c>
-      <c r="N158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="17">
+      <c r="M158" s="22">
+        <v>1</v>
+      </c>
+      <c r="N158" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="23">
         <v>158</v>
       </c>
-      <c r="B159" s="18">
+      <c r="B159" s="24">
         <v>7</v>
       </c>
-      <c r="C159" s="17">
+      <c r="C159" s="23">
         <v>38</v>
       </c>
-      <c r="D159" s="33"/>
-      <c r="E159">
+      <c r="D159" s="25"/>
+      <c r="E159" s="22">
         <f>LOOKUP(use_fish!B159,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C159,activity!A:A,0)),0)</f>
         <v>40</v>
       </c>
-      <c r="F159" s="2">
+      <c r="F159" s="23">
         <f t="shared" si="6"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G159" s="3" t="s">
+      <c r="G159" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="H159" s="2" t="str">
+      <c r="H159" s="23" t="str">
         <f>INDEX(base_fish!E:E,MATCH(use_fish!B159,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C159,activity!A:A,0)),"")</f>
         <v>红杉鱼+临时活动</v>
       </c>
-      <c r="I159">
+      <c r="I159" s="22">
         <f>LOOKUP(use_fish!B159,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C159,activity!A:A,0)),0)</f>
         <v>40</v>
       </c>
-      <c r="J159">
-        <v>1</v>
-      </c>
-      <c r="K159">
+      <c r="J159" s="22">
+        <v>1</v>
+      </c>
+      <c r="K159" s="22">
         <f>LOOKUP(use_fish!B159,base_fish!A:A,base_fish!G:G)</f>
         <v>0</v>
       </c>
-      <c r="L159">
+      <c r="L159" s="22">
         <f t="shared" si="7"/>
         <v>40</v>
       </c>
-      <c r="M159">
-        <v>1</v>
-      </c>
-      <c r="N159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="17">
+      <c r="M159" s="22">
+        <v>1</v>
+      </c>
+      <c r="N159" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="23">
         <v>159</v>
       </c>
-      <c r="B160" s="18">
+      <c r="B160" s="24">
         <v>8</v>
       </c>
-      <c r="C160" s="17">
+      <c r="C160" s="23">
         <v>38</v>
       </c>
-      <c r="D160" s="33"/>
-      <c r="E160">
+      <c r="D160" s="25"/>
+      <c r="E160" s="22">
         <f>LOOKUP(use_fish!B160,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C160,activity!A:A,0)),0)</f>
         <v>50</v>
       </c>
-      <c r="F160" s="2">
+      <c r="F160" s="23">
         <f t="shared" si="6"/>
         <v>0.02</v>
       </c>
-      <c r="G160" s="3" t="s">
+      <c r="G160" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="H160" s="2" t="str">
+      <c r="H160" s="23" t="str">
         <f>INDEX(base_fish!E:E,MATCH(use_fish!B160,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C160,activity!A:A,0)),"")</f>
         <v>海龟+临时活动</v>
       </c>
-      <c r="I160">
+      <c r="I160" s="22">
         <f>LOOKUP(use_fish!B160,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C160,activity!A:A,0)),0)</f>
         <v>50</v>
       </c>
-      <c r="J160">
-        <v>1</v>
-      </c>
-      <c r="K160">
+      <c r="J160" s="22">
+        <v>1</v>
+      </c>
+      <c r="K160" s="22">
         <f>LOOKUP(use_fish!B160,base_fish!A:A,base_fish!G:G)</f>
         <v>0</v>
       </c>
-      <c r="L160">
+      <c r="L160" s="22">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="M160">
-        <v>1</v>
-      </c>
-      <c r="N160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="17">
+      <c r="M160" s="22">
+        <v>1</v>
+      </c>
+      <c r="N160" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="23">
         <v>160</v>
       </c>
-      <c r="B161" s="18">
+      <c r="B161" s="24">
         <v>9</v>
       </c>
-      <c r="C161" s="17">
+      <c r="C161" s="23">
         <v>38</v>
       </c>
-      <c r="D161" s="33"/>
-      <c r="E161">
+      <c r="D161" s="25"/>
+      <c r="E161" s="22">
         <f>LOOKUP(use_fish!B161,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C161,activity!A:A,0)),0)</f>
         <v>60</v>
       </c>
-      <c r="F161" s="2">
+      <c r="F161" s="23">
         <f t="shared" si="6"/>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="G161" s="3" t="s">
+      <c r="G161" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="H161" s="2" t="str">
+      <c r="H161" s="23" t="str">
         <f>INDEX(base_fish!E:E,MATCH(use_fish!B161,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C161,activity!A:A,0)),"")</f>
         <v>灯笼鱼+临时活动</v>
       </c>
-      <c r="I161">
+      <c r="I161" s="22">
         <f>LOOKUP(use_fish!B161,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C161,activity!A:A,0)),0)</f>
         <v>60</v>
       </c>
-      <c r="J161">
-        <v>1</v>
-      </c>
-      <c r="K161">
+      <c r="J161" s="22">
+        <v>1</v>
+      </c>
+      <c r="K161" s="22">
         <f>LOOKUP(use_fish!B161,base_fish!A:A,base_fish!G:G)</f>
         <v>0</v>
       </c>
-      <c r="L161">
+      <c r="L161" s="22">
         <f t="shared" si="7"/>
         <v>60</v>
       </c>
-      <c r="M161">
-        <v>1</v>
-      </c>
-      <c r="N161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="17">
+      <c r="M161" s="22">
+        <v>1</v>
+      </c>
+      <c r="N161" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="23">
         <v>161</v>
       </c>
-      <c r="B162" s="18">
+      <c r="B162" s="24">
         <v>10</v>
       </c>
-      <c r="C162" s="17">
+      <c r="C162" s="23">
         <v>38</v>
       </c>
-      <c r="D162" s="33"/>
-      <c r="E162">
+      <c r="D162" s="25"/>
+      <c r="E162" s="22">
         <f>LOOKUP(use_fish!B162,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C162,activity!A:A,0)),0)</f>
         <v>70</v>
       </c>
-      <c r="F162" s="2">
+      <c r="F162" s="23">
         <f t="shared" si="6"/>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="G162" s="3" t="s">
+      <c r="G162" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="H162" s="2" t="str">
+      <c r="H162" s="23" t="str">
         <f>INDEX(base_fish!E:E,MATCH(use_fish!B162,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C162,activity!A:A,0)),"")</f>
         <v>魔鬼鱼+临时活动</v>
       </c>
-      <c r="I162">
+      <c r="I162" s="22">
         <f>LOOKUP(use_fish!B162,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C162,activity!A:A,0)),0)</f>
         <v>70</v>
       </c>
-      <c r="J162">
-        <v>1</v>
-      </c>
-      <c r="K162">
+      <c r="J162" s="22">
+        <v>1</v>
+      </c>
+      <c r="K162" s="22">
         <f>LOOKUP(use_fish!B162,base_fish!A:A,base_fish!G:G)</f>
         <v>0</v>
       </c>
-      <c r="L162">
+      <c r="L162" s="22">
         <f t="shared" si="7"/>
         <v>70</v>
       </c>
-      <c r="M162">
-        <v>1</v>
-      </c>
-      <c r="N162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="17">
+      <c r="M162" s="22">
+        <v>1</v>
+      </c>
+      <c r="N162" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="23">
         <v>162</v>
       </c>
-      <c r="B163" s="18">
+      <c r="B163" s="24">
         <v>32</v>
       </c>
-      <c r="C163" s="17">
+      <c r="C163" s="23">
         <v>35</v>
       </c>
-      <c r="D163" s="33"/>
-      <c r="E163">
+      <c r="D163" s="25"/>
+      <c r="E163" s="22">
         <f>LOOKUP(use_fish!B163,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C163,activity!A:A,0)),0)</f>
         <v>75</v>
       </c>
-      <c r="F163" s="2">
+      <c r="F163" s="23">
         <f>1/E163</f>
         <v>1.3333333333333334E-2</v>
       </c>
-      <c r="G163" s="3" t="s">
+      <c r="G163" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="H163" s="2" t="str">
+      <c r="H163" s="23" t="str">
         <f>INDEX(base_fish!E:E,MATCH(use_fish!B163,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C163,activity!A:A,0)),"")</f>
         <v>火鸡鱼+临时活动</v>
       </c>
-      <c r="I163">
+      <c r="I163" s="22">
         <f>LOOKUP(use_fish!B163,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C163,activity!A:A,0)),0)</f>
         <v>75</v>
       </c>
-      <c r="J163">
-        <v>1</v>
-      </c>
-      <c r="K163">
+      <c r="J163" s="22">
+        <v>1</v>
+      </c>
+      <c r="K163" s="22">
         <f>LOOKUP(use_fish!B163,base_fish!A:A,base_fish!G:G)</f>
         <v>0</v>
       </c>
-      <c r="L163">
+      <c r="L163" s="22">
         <f>I163</f>
         <v>75</v>
       </c>
-      <c r="M163">
-        <v>1</v>
-      </c>
-      <c r="N163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="17">
+      <c r="M163" s="22">
+        <v>1</v>
+      </c>
+      <c r="N163" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="23">
         <v>163</v>
       </c>
-      <c r="B164" s="18">
+      <c r="B164" s="24">
         <v>32</v>
       </c>
-      <c r="C164" s="17">
+      <c r="C164" s="23">
         <v>36</v>
       </c>
-      <c r="D164" s="33"/>
-      <c r="E164">
+      <c r="D164" s="25"/>
+      <c r="E164" s="22">
         <f>LOOKUP(use_fish!B164,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C164,activity!A:A,0)),0)</f>
         <v>150</v>
       </c>
-      <c r="F164" s="2">
+      <c r="F164" s="23">
         <f>1/E164</f>
         <v>6.6666666666666671E-3</v>
       </c>
-      <c r="G164" s="3" t="s">
+      <c r="G164" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="H164" s="2" t="str">
+      <c r="H164" s="23" t="str">
         <f>INDEX(base_fish!E:E,MATCH(use_fish!B164,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C164,activity!A:A,0)),"")</f>
         <v>火鸡鱼+临时活动</v>
       </c>
-      <c r="I164">
+      <c r="I164" s="22">
         <f>LOOKUP(use_fish!B164,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C164,activity!A:A,0)),0)</f>
         <v>150</v>
       </c>
-      <c r="J164">
-        <v>1</v>
-      </c>
-      <c r="K164">
+      <c r="J164" s="22">
+        <v>1</v>
+      </c>
+      <c r="K164" s="22">
         <f>LOOKUP(use_fish!B164,base_fish!A:A,base_fish!G:G)</f>
         <v>0</v>
       </c>
-      <c r="L164">
+      <c r="L164" s="22">
         <f>I164</f>
         <v>150</v>
       </c>
-      <c r="M164">
-        <v>1</v>
-      </c>
-      <c r="N164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="17">
+      <c r="M164" s="22">
+        <v>1</v>
+      </c>
+      <c r="N164" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="23">
         <v>164</v>
       </c>
-      <c r="B165" s="18">
+      <c r="B165" s="24">
         <v>32</v>
       </c>
-      <c r="C165" s="17">
+      <c r="C165" s="23">
         <v>37</v>
       </c>
-      <c r="D165" s="33"/>
-      <c r="E165">
+      <c r="D165" s="25"/>
+      <c r="E165" s="22">
         <f>LOOKUP(use_fish!B165,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C165,activity!A:A,0)),0)</f>
         <v>250</v>
       </c>
-      <c r="F165" s="2">
+      <c r="F165" s="23">
         <f>1/E165</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="G165" s="3" t="s">
+      <c r="G165" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="H165" s="2" t="str">
+      <c r="H165" s="23" t="str">
         <f>INDEX(base_fish!E:E,MATCH(use_fish!B165,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C165,activity!A:A,0)),"")</f>
         <v>火鸡鱼+临时活动</v>
       </c>
-      <c r="I165">
+      <c r="I165" s="22">
         <f>LOOKUP(use_fish!B165,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C165,activity!A:A,0)),0)</f>
         <v>250</v>
       </c>
-      <c r="J165">
-        <v>1</v>
-      </c>
-      <c r="K165">
+      <c r="J165" s="22">
+        <v>1</v>
+      </c>
+      <c r="K165" s="22">
         <f>LOOKUP(use_fish!B165,base_fish!A:A,base_fish!G:G)</f>
         <v>0</v>
       </c>
-      <c r="L165">
+      <c r="L165" s="22">
         <f>I165</f>
         <v>250</v>
       </c>
-      <c r="M165">
-        <v>1</v>
-      </c>
-      <c r="N165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="17">
+      <c r="M165" s="22">
+        <v>1</v>
+      </c>
+      <c r="N165" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="23">
         <v>165</v>
       </c>
-      <c r="B166" s="23">
+      <c r="B166" s="24">
         <v>33</v>
       </c>
-      <c r="C166" s="22">
+      <c r="C166" s="23">
         <v>39</v>
       </c>
-      <c r="D166" s="34"/>
-      <c r="E166" s="21">
+      <c r="D166" s="25"/>
+      <c r="E166" s="22">
         <f>LOOKUP(use_fish!B166,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C166,activity!A:A,0)),0)</f>
         <v>75</v>
       </c>
-      <c r="F166" s="22">
+      <c r="F166" s="23">
         <f>1/E166</f>
         <v>1.3333333333333334E-2</v>
       </c>
-      <c r="G166" s="23" t="s">
+      <c r="G166" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="H166" s="22" t="str">
+      <c r="H166" s="23" t="str">
         <f>INDEX(base_fish!E:E,MATCH(use_fish!B166,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C166,activity!A:A,0)),"")</f>
         <v>话费鱼+话费鱼</v>
       </c>
-      <c r="I166" s="21">
+      <c r="I166" s="22">
         <f>LOOKUP(use_fish!B166,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C166,activity!A:A,0)),0)</f>
         <v>75</v>
       </c>
-      <c r="J166" s="21">
-        <v>1</v>
-      </c>
-      <c r="K166" s="21">
+      <c r="J166" s="22">
+        <v>1</v>
+      </c>
+      <c r="K166" s="22">
         <f>LOOKUP(use_fish!B166,base_fish!A:A,base_fish!G:G)</f>
         <v>0</v>
       </c>
-      <c r="L166" s="21">
+      <c r="L166" s="22">
         <f>I166</f>
         <v>75</v>
       </c>
-      <c r="M166" s="21">
-        <v>1</v>
-      </c>
-      <c r="N166" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="17">
+      <c r="M166" s="22">
+        <v>1</v>
+      </c>
+      <c r="N166" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="23">
         <v>166</v>
       </c>
-      <c r="B167" s="23">
+      <c r="B167" s="24">
         <v>33</v>
       </c>
-      <c r="C167" s="22"/>
-      <c r="D167" s="34" t="s">
+      <c r="C167" s="23"/>
+      <c r="D167" s="25" t="s">
         <v>391</v>
       </c>
-      <c r="E167" s="21">
+      <c r="E167" s="22">
         <f>LOOKUP(use_fish!B167,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C167,activity!A:A,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="F167" s="22"/>
-      <c r="G167" s="23" t="s">
+      <c r="F167" s="23"/>
+      <c r="G167" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="H167" s="22" t="str">
+      <c r="H167" s="23" t="str">
         <f>INDEX(base_fish!E:E,MATCH(use_fish!B167,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C167,activity!A:A,0)),"")</f>
         <v>话费鱼</v>
       </c>
-      <c r="I167" s="21">
+      <c r="I167" s="22">
         <f>LOOKUP(use_fish!B167,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C167,activity!A:A,0)),0)</f>
         <v>0</v>
       </c>
-      <c r="J167" s="21">
-        <v>1</v>
-      </c>
-      <c r="K167" s="21">
+      <c r="J167" s="22">
+        <v>1</v>
+      </c>
+      <c r="K167" s="22">
         <f>LOOKUP(use_fish!B167,base_fish!A:A,base_fish!G:G)</f>
         <v>0</v>
       </c>
-      <c r="L167" s="21">
+      <c r="L167" s="22">
         <f>I167</f>
         <v>0</v>
       </c>
-      <c r="M167" s="21">
-        <v>1</v>
-      </c>
-      <c r="N167" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="26">
+      <c r="M167" s="22">
+        <v>1</v>
+      </c>
+      <c r="N167" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="23">
         <v>167</v>
       </c>
-      <c r="B168" s="27">
+      <c r="B168" s="24">
         <v>6</v>
       </c>
-      <c r="C168" s="26">
+      <c r="C168" s="23">
         <v>43</v>
       </c>
-      <c r="D168" s="35"/>
-      <c r="E168" s="28">
+      <c r="D168" s="25"/>
+      <c r="E168" s="22">
         <f>LOOKUP(use_fish!B168,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C168,activity!A:A,0)),0)</f>
         <v>30</v>
       </c>
-      <c r="F168" s="26">
+      <c r="F168" s="23">
         <f t="shared" ref="F168:F183" si="8">1/E168</f>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="G168" s="27" t="s">
+      <c r="G168" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="H168" s="26" t="str">
+      <c r="H168" s="23" t="str">
         <f>INDEX(base_fish!E:E,MATCH(use_fish!B168,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C168,activity!A:A,0)),"")</f>
         <v>蓝灯鱼+临时活动</v>
       </c>
-      <c r="I168" s="28">
+      <c r="I168" s="22">
         <f>LOOKUP(use_fish!B168,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C168,activity!A:A,0)),0)</f>
         <v>30</v>
       </c>
-      <c r="J168" s="28">
-        <v>1</v>
-      </c>
-      <c r="K168" s="28">
+      <c r="J168" s="22">
+        <v>1</v>
+      </c>
+      <c r="K168" s="22">
         <f>LOOKUP(use_fish!B168,base_fish!A:A,base_fish!G:G)</f>
         <v>0</v>
       </c>
-      <c r="L168" s="28">
+      <c r="L168" s="22">
         <f t="shared" ref="L168:L183" si="9">I168</f>
         <v>30</v>
       </c>
-      <c r="M168" s="28">
-        <v>1</v>
-      </c>
-      <c r="N168" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="26">
+      <c r="M168" s="22">
+        <v>1</v>
+      </c>
+      <c r="N168" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="23">
         <v>168</v>
       </c>
-      <c r="B169" s="27">
+      <c r="B169" s="24">
         <v>7</v>
       </c>
-      <c r="C169" s="26">
+      <c r="C169" s="23">
         <v>43</v>
       </c>
-      <c r="D169" s="35"/>
-      <c r="E169" s="28">
+      <c r="D169" s="25"/>
+      <c r="E169" s="22">
         <f>LOOKUP(use_fish!B169,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C169,activity!A:A,0)),0)</f>
         <v>40</v>
       </c>
-      <c r="F169" s="26">
+      <c r="F169" s="23">
         <f t="shared" si="8"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G169" s="27" t="s">
+      <c r="G169" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="H169" s="26" t="str">
+      <c r="H169" s="23" t="str">
         <f>INDEX(base_fish!E:E,MATCH(use_fish!B169,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C169,activity!A:A,0)),"")</f>
         <v>红杉鱼+临时活动</v>
       </c>
-      <c r="I169" s="28">
+      <c r="I169" s="22">
         <f>LOOKUP(use_fish!B169,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C169,activity!A:A,0)),0)</f>
         <v>40</v>
       </c>
-      <c r="J169" s="28">
-        <v>1</v>
-      </c>
-      <c r="K169" s="28">
+      <c r="J169" s="22">
+        <v>1</v>
+      </c>
+      <c r="K169" s="22">
         <f>LOOKUP(use_fish!B169,base_fish!A:A,base_fish!G:G)</f>
         <v>0</v>
       </c>
-      <c r="L169" s="28">
+      <c r="L169" s="22">
         <f t="shared" si="9"/>
         <v>40</v>
       </c>
-      <c r="M169" s="28">
-        <v>1</v>
-      </c>
-      <c r="N169" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="26">
+      <c r="M169" s="22">
+        <v>1</v>
+      </c>
+      <c r="N169" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="23">
         <v>169</v>
       </c>
-      <c r="B170" s="27">
+      <c r="B170" s="24">
         <v>8</v>
       </c>
-      <c r="C170" s="26">
+      <c r="C170" s="23">
         <v>43</v>
       </c>
-      <c r="D170" s="35"/>
-      <c r="E170" s="28">
+      <c r="D170" s="25"/>
+      <c r="E170" s="22">
         <f>LOOKUP(use_fish!B170,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C170,activity!A:A,0)),0)</f>
         <v>50</v>
       </c>
-      <c r="F170" s="26">
+      <c r="F170" s="23">
         <f t="shared" si="8"/>
         <v>0.02</v>
       </c>
-      <c r="G170" s="27" t="s">
+      <c r="G170" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="H170" s="26" t="str">
+      <c r="H170" s="23" t="str">
         <f>INDEX(base_fish!E:E,MATCH(use_fish!B170,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C170,activity!A:A,0)),"")</f>
         <v>海龟+临时活动</v>
       </c>
-      <c r="I170" s="28">
+      <c r="I170" s="22">
         <f>LOOKUP(use_fish!B170,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C170,activity!A:A,0)),0)</f>
         <v>50</v>
       </c>
-      <c r="J170" s="28">
-        <v>1</v>
-      </c>
-      <c r="K170" s="28">
+      <c r="J170" s="22">
+        <v>1</v>
+      </c>
+      <c r="K170" s="22">
         <f>LOOKUP(use_fish!B170,base_fish!A:A,base_fish!G:G)</f>
         <v>0</v>
       </c>
-      <c r="L170" s="28">
+      <c r="L170" s="22">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="M170" s="28">
-        <v>1</v>
-      </c>
-      <c r="N170" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="26">
+      <c r="M170" s="22">
+        <v>1</v>
+      </c>
+      <c r="N170" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="23">
         <v>170</v>
       </c>
-      <c r="B171" s="27">
+      <c r="B171" s="24">
         <v>9</v>
       </c>
-      <c r="C171" s="26">
+      <c r="C171" s="23">
         <v>43</v>
       </c>
-      <c r="D171" s="35"/>
-      <c r="E171" s="28">
+      <c r="D171" s="25"/>
+      <c r="E171" s="22">
         <f>LOOKUP(use_fish!B171,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C171,activity!A:A,0)),0)</f>
         <v>60</v>
       </c>
-      <c r="F171" s="26">
+      <c r="F171" s="23">
         <f t="shared" si="8"/>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="G171" s="27" t="s">
+      <c r="G171" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="H171" s="26" t="str">
+      <c r="H171" s="23" t="str">
         <f>INDEX(base_fish!E:E,MATCH(use_fish!B171,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C171,activity!A:A,0)),"")</f>
         <v>灯笼鱼+临时活动</v>
       </c>
-      <c r="I171" s="28">
+      <c r="I171" s="22">
         <f>LOOKUP(use_fish!B171,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C171,activity!A:A,0)),0)</f>
         <v>60</v>
       </c>
-      <c r="J171" s="28">
-        <v>1</v>
-      </c>
-      <c r="K171" s="28">
+      <c r="J171" s="22">
+        <v>1</v>
+      </c>
+      <c r="K171" s="22">
         <f>LOOKUP(use_fish!B171,base_fish!A:A,base_fish!G:G)</f>
         <v>0</v>
       </c>
-      <c r="L171" s="28">
+      <c r="L171" s="22">
         <f t="shared" si="9"/>
         <v>60</v>
       </c>
-      <c r="M171" s="28">
-        <v>1</v>
-      </c>
-      <c r="N171" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="26">
+      <c r="M171" s="22">
+        <v>1</v>
+      </c>
+      <c r="N171" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="23">
         <v>171</v>
       </c>
-      <c r="B172" s="27">
+      <c r="B172" s="24">
         <v>10</v>
       </c>
-      <c r="C172" s="26">
+      <c r="C172" s="23">
         <v>43</v>
       </c>
-      <c r="D172" s="35"/>
-      <c r="E172" s="28">
+      <c r="D172" s="25"/>
+      <c r="E172" s="22">
         <f>LOOKUP(use_fish!B172,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C172,activity!A:A,0)),0)</f>
         <v>70</v>
       </c>
-      <c r="F172" s="26">
+      <c r="F172" s="23">
         <f t="shared" si="8"/>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="G172" s="27" t="s">
+      <c r="G172" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="H172" s="26" t="str">
+      <c r="H172" s="23" t="str">
         <f>INDEX(base_fish!E:E,MATCH(use_fish!B172,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C172,activity!A:A,0)),"")</f>
         <v>魔鬼鱼+临时活动</v>
       </c>
-      <c r="I172" s="28">
+      <c r="I172" s="22">
         <f>LOOKUP(use_fish!B172,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C172,activity!A:A,0)),0)</f>
         <v>70</v>
       </c>
-      <c r="J172" s="28">
-        <v>1</v>
-      </c>
-      <c r="K172" s="28">
+      <c r="J172" s="22">
+        <v>1</v>
+      </c>
+      <c r="K172" s="22">
         <f>LOOKUP(use_fish!B172,base_fish!A:A,base_fish!G:G)</f>
         <v>0</v>
       </c>
-      <c r="L172" s="28">
+      <c r="L172" s="22">
         <f t="shared" si="9"/>
         <v>70</v>
       </c>
-      <c r="M172" s="28">
-        <v>1</v>
-      </c>
-      <c r="N172" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="26">
+      <c r="M172" s="22">
+        <v>1</v>
+      </c>
+      <c r="N172" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="23">
         <v>172</v>
       </c>
-      <c r="B173" s="27">
+      <c r="B173" s="24">
         <v>34</v>
       </c>
-      <c r="C173" s="26">
+      <c r="C173" s="23">
         <v>40</v>
       </c>
-      <c r="D173" s="35"/>
-      <c r="E173" s="28">
+      <c r="D173" s="25"/>
+      <c r="E173" s="22">
         <f>LOOKUP(use_fish!B173,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C173,activity!A:A,0)),0)</f>
         <v>75</v>
       </c>
-      <c r="F173" s="26">
+      <c r="F173" s="23">
         <f t="shared" si="8"/>
         <v>1.3333333333333334E-2</v>
       </c>
-      <c r="G173" s="27" t="s">
+      <c r="G173" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="H173" s="26" t="str">
+      <c r="H173" s="23" t="str">
         <f>INDEX(base_fish!E:E,MATCH(use_fish!B173,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C173,activity!A:A,0)),"")</f>
         <v>礼盒鱼+临时活动</v>
       </c>
-      <c r="I173" s="28">
+      <c r="I173" s="22">
         <f>LOOKUP(use_fish!B173,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C173,activity!A:A,0)),0)</f>
         <v>75</v>
       </c>
-      <c r="J173" s="28">
-        <v>1</v>
-      </c>
-      <c r="K173" s="28">
+      <c r="J173" s="22">
+        <v>1</v>
+      </c>
+      <c r="K173" s="22">
         <f>LOOKUP(use_fish!B173,base_fish!A:A,base_fish!G:G)</f>
         <v>0</v>
       </c>
-      <c r="L173" s="28">
+      <c r="L173" s="22">
         <f t="shared" si="9"/>
         <v>75</v>
       </c>
-      <c r="M173" s="28">
-        <v>1</v>
-      </c>
-      <c r="N173" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="26">
+      <c r="M173" s="22">
+        <v>1</v>
+      </c>
+      <c r="N173" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="23">
         <v>173</v>
       </c>
-      <c r="B174" s="27">
+      <c r="B174" s="24">
         <v>34</v>
       </c>
-      <c r="C174" s="26">
+      <c r="C174" s="23">
         <v>41</v>
       </c>
-      <c r="D174" s="35"/>
-      <c r="E174" s="28">
+      <c r="D174" s="25"/>
+      <c r="E174" s="22">
         <f>LOOKUP(use_fish!B174,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C174,activity!A:A,0)),0)</f>
         <v>150</v>
       </c>
-      <c r="F174" s="26">
+      <c r="F174" s="23">
         <f t="shared" si="8"/>
         <v>6.6666666666666671E-3</v>
       </c>
-      <c r="G174" s="27" t="s">
+      <c r="G174" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="H174" s="26" t="str">
+      <c r="H174" s="23" t="str">
         <f>INDEX(base_fish!E:E,MATCH(use_fish!B174,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C174,activity!A:A,0)),"")</f>
         <v>礼盒鱼+临时活动</v>
       </c>
-      <c r="I174" s="28">
+      <c r="I174" s="22">
         <f>LOOKUP(use_fish!B174,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C174,activity!A:A,0)),0)</f>
         <v>150</v>
       </c>
-      <c r="J174" s="28">
-        <v>1</v>
-      </c>
-      <c r="K174" s="28">
+      <c r="J174" s="22">
+        <v>1</v>
+      </c>
+      <c r="K174" s="22">
         <f>LOOKUP(use_fish!B174,base_fish!A:A,base_fish!G:G)</f>
         <v>0</v>
       </c>
-      <c r="L174" s="28">
+      <c r="L174" s="22">
         <f t="shared" si="9"/>
         <v>150</v>
       </c>
-      <c r="M174" s="28">
-        <v>1</v>
-      </c>
-      <c r="N174" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="26">
+      <c r="M174" s="22">
+        <v>1</v>
+      </c>
+      <c r="N174" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="23">
         <v>174</v>
       </c>
-      <c r="B175" s="27">
+      <c r="B175" s="24">
         <v>34</v>
       </c>
-      <c r="C175" s="26">
+      <c r="C175" s="23">
         <v>42</v>
       </c>
-      <c r="D175" s="35"/>
-      <c r="E175" s="28">
+      <c r="D175" s="25"/>
+      <c r="E175" s="22">
         <f>LOOKUP(use_fish!B175,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C175,activity!A:A,0)),0)</f>
         <v>250</v>
       </c>
-      <c r="F175" s="26">
+      <c r="F175" s="23">
         <f t="shared" si="8"/>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="G175" s="27" t="s">
+      <c r="G175" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="H175" s="26" t="str">
+      <c r="H175" s="23" t="str">
         <f>INDEX(base_fish!E:E,MATCH(use_fish!B175,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C175,activity!A:A,0)),"")</f>
         <v>礼盒鱼+临时活动</v>
       </c>
-      <c r="I175" s="28">
+      <c r="I175" s="22">
         <f>LOOKUP(use_fish!B175,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C175,activity!A:A,0)),0)</f>
         <v>250</v>
       </c>
-      <c r="J175" s="28">
-        <v>1</v>
-      </c>
-      <c r="K175" s="28">
+      <c r="J175" s="22">
+        <v>1</v>
+      </c>
+      <c r="K175" s="22">
         <f>LOOKUP(use_fish!B175,base_fish!A:A,base_fish!G:G)</f>
         <v>0</v>
       </c>
-      <c r="L175" s="28">
+      <c r="L175" s="22">
         <f t="shared" si="9"/>
         <v>250</v>
       </c>
-      <c r="M175" s="28">
-        <v>1</v>
-      </c>
-      <c r="N175" s="28">
+      <c r="M175" s="22">
+        <v>1</v>
+      </c>
+      <c r="N175" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A176" s="39">
+      <c r="A176" s="19">
         <v>175</v>
       </c>
-      <c r="B176" s="36">
+      <c r="B176" s="16">
         <v>6</v>
       </c>
-      <c r="C176" s="39">
+      <c r="C176" s="19">
         <v>47</v>
       </c>
-      <c r="D176" s="40"/>
-      <c r="E176" s="37">
+      <c r="D176" s="20"/>
+      <c r="E176" s="17">
         <f>LOOKUP(use_fish!B176,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C176,activity!A:A,0)),0)</f>
         <v>30</v>
       </c>
-      <c r="F176" s="39">
+      <c r="F176" s="19">
         <f t="shared" si="8"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="G176" s="36" t="s">
+      <c r="G176" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="H176" s="39" t="str">
+      <c r="H176" s="19" t="str">
         <f>INDEX(base_fish!E:E,MATCH(use_fish!B176,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C176,activity!A:A,0)),"")</f>
         <v>蓝灯鱼+临时活动</v>
       </c>
-      <c r="I176" s="37">
+      <c r="I176" s="17">
         <f>LOOKUP(use_fish!B176,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C176,activity!A:A,0)),0)</f>
         <v>30</v>
       </c>
-      <c r="J176" s="37">
-        <v>1</v>
-      </c>
-      <c r="K176" s="37">
+      <c r="J176" s="17">
+        <v>1</v>
+      </c>
+      <c r="K176" s="17">
         <f>LOOKUP(use_fish!B176,base_fish!A:A,base_fish!G:G)</f>
         <v>0</v>
       </c>
-      <c r="L176" s="37">
+      <c r="L176" s="17">
         <f t="shared" si="9"/>
         <v>30</v>
       </c>
-      <c r="M176" s="37">
-        <v>1</v>
-      </c>
-      <c r="N176" s="37">
+      <c r="M176" s="17">
+        <v>1</v>
+      </c>
+      <c r="N176" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A177" s="39">
+      <c r="A177" s="19">
         <v>176</v>
       </c>
-      <c r="B177" s="36">
+      <c r="B177" s="16">
         <v>7</v>
       </c>
-      <c r="C177" s="39">
+      <c r="C177" s="19">
         <v>47</v>
       </c>
-      <c r="D177" s="40"/>
-      <c r="E177" s="37">
+      <c r="D177" s="20"/>
+      <c r="E177" s="17">
         <f>LOOKUP(use_fish!B177,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C177,activity!A:A,0)),0)</f>
         <v>40</v>
       </c>
-      <c r="F177" s="39">
+      <c r="F177" s="19">
         <f t="shared" si="8"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G177" s="36" t="s">
+      <c r="G177" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="H177" s="39" t="str">
+      <c r="H177" s="19" t="str">
         <f>INDEX(base_fish!E:E,MATCH(use_fish!B177,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C177,activity!A:A,0)),"")</f>
         <v>红杉鱼+临时活动</v>
       </c>
-      <c r="I177" s="37">
+      <c r="I177" s="17">
         <f>LOOKUP(use_fish!B177,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C177,activity!A:A,0)),0)</f>
         <v>40</v>
       </c>
-      <c r="J177" s="37">
-        <v>1</v>
-      </c>
-      <c r="K177" s="37">
+      <c r="J177" s="17">
+        <v>1</v>
+      </c>
+      <c r="K177" s="17">
         <f>LOOKUP(use_fish!B177,base_fish!A:A,base_fish!G:G)</f>
         <v>0</v>
       </c>
-      <c r="L177" s="37">
+      <c r="L177" s="17">
         <f t="shared" si="9"/>
         <v>40</v>
       </c>
-      <c r="M177" s="37">
-        <v>1</v>
-      </c>
-      <c r="N177" s="37">
+      <c r="M177" s="17">
+        <v>1</v>
+      </c>
+      <c r="N177" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A178" s="39">
+      <c r="A178" s="19">
         <v>177</v>
       </c>
-      <c r="B178" s="36">
+      <c r="B178" s="16">
         <v>8</v>
       </c>
-      <c r="C178" s="39">
+      <c r="C178" s="19">
         <v>47</v>
       </c>
-      <c r="D178" s="40"/>
-      <c r="E178" s="37">
+      <c r="D178" s="20"/>
+      <c r="E178" s="17">
         <f>LOOKUP(use_fish!B178,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C178,activity!A:A,0)),0)</f>
         <v>50</v>
       </c>
-      <c r="F178" s="39">
+      <c r="F178" s="19">
         <f t="shared" si="8"/>
         <v>0.02</v>
       </c>
-      <c r="G178" s="36" t="s">
+      <c r="G178" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="H178" s="39" t="str">
+      <c r="H178" s="19" t="str">
         <f>INDEX(base_fish!E:E,MATCH(use_fish!B178,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C178,activity!A:A,0)),"")</f>
         <v>海龟+临时活动</v>
       </c>
-      <c r="I178" s="37">
+      <c r="I178" s="17">
         <f>LOOKUP(use_fish!B178,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C178,activity!A:A,0)),0)</f>
         <v>50</v>
       </c>
-      <c r="J178" s="37">
-        <v>1</v>
-      </c>
-      <c r="K178" s="37">
+      <c r="J178" s="17">
+        <v>1</v>
+      </c>
+      <c r="K178" s="17">
         <f>LOOKUP(use_fish!B178,base_fish!A:A,base_fish!G:G)</f>
         <v>0</v>
       </c>
-      <c r="L178" s="37">
+      <c r="L178" s="17">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="M178" s="37">
-        <v>1</v>
-      </c>
-      <c r="N178" s="37">
+      <c r="M178" s="17">
+        <v>1</v>
+      </c>
+      <c r="N178" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A179" s="39">
+      <c r="A179" s="19">
         <v>178</v>
       </c>
-      <c r="B179" s="36">
+      <c r="B179" s="16">
         <v>9</v>
       </c>
-      <c r="C179" s="39">
+      <c r="C179" s="19">
         <v>47</v>
       </c>
-      <c r="D179" s="40"/>
-      <c r="E179" s="37">
+      <c r="D179" s="20"/>
+      <c r="E179" s="17">
         <f>LOOKUP(use_fish!B179,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C179,activity!A:A,0)),0)</f>
         <v>60</v>
       </c>
-      <c r="F179" s="39">
+      <c r="F179" s="19">
         <f t="shared" si="8"/>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="G179" s="36" t="s">
+      <c r="G179" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="H179" s="39" t="str">
+      <c r="H179" s="19" t="str">
         <f>INDEX(base_fish!E:E,MATCH(use_fish!B179,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C179,activity!A:A,0)),"")</f>
         <v>灯笼鱼+临时活动</v>
       </c>
-      <c r="I179" s="37">
+      <c r="I179" s="17">
         <f>LOOKUP(use_fish!B179,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C179,activity!A:A,0)),0)</f>
         <v>60</v>
       </c>
-      <c r="J179" s="37">
-        <v>1</v>
-      </c>
-      <c r="K179" s="37">
+      <c r="J179" s="17">
+        <v>1</v>
+      </c>
+      <c r="K179" s="17">
         <f>LOOKUP(use_fish!B179,base_fish!A:A,base_fish!G:G)</f>
         <v>0</v>
       </c>
-      <c r="L179" s="37">
+      <c r="L179" s="17">
         <f t="shared" si="9"/>
         <v>60</v>
       </c>
-      <c r="M179" s="37">
-        <v>1</v>
-      </c>
-      <c r="N179" s="37">
+      <c r="M179" s="17">
+        <v>1</v>
+      </c>
+      <c r="N179" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A180" s="39">
+      <c r="A180" s="19">
         <v>179</v>
       </c>
-      <c r="B180" s="36">
+      <c r="B180" s="16">
         <v>10</v>
       </c>
-      <c r="C180" s="39">
+      <c r="C180" s="19">
         <v>47</v>
       </c>
-      <c r="D180" s="40"/>
-      <c r="E180" s="37">
+      <c r="D180" s="20"/>
+      <c r="E180" s="17">
         <f>LOOKUP(use_fish!B180,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C180,activity!A:A,0)),0)</f>
         <v>70</v>
       </c>
-      <c r="F180" s="39">
+      <c r="F180" s="19">
         <f t="shared" si="8"/>
         <v>1.4285714285714285E-2</v>
       </c>
-      <c r="G180" s="36" t="s">
+      <c r="G180" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="H180" s="39" t="str">
+      <c r="H180" s="19" t="str">
         <f>INDEX(base_fish!E:E,MATCH(use_fish!B180,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C180,activity!A:A,0)),"")</f>
         <v>魔鬼鱼+临时活动</v>
       </c>
-      <c r="I180" s="37">
+      <c r="I180" s="17">
         <f>LOOKUP(use_fish!B180,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C180,activity!A:A,0)),0)</f>
         <v>70</v>
       </c>
-      <c r="J180" s="37">
-        <v>1</v>
-      </c>
-      <c r="K180" s="37">
+      <c r="J180" s="17">
+        <v>1</v>
+      </c>
+      <c r="K180" s="17">
         <f>LOOKUP(use_fish!B180,base_fish!A:A,base_fish!G:G)</f>
         <v>0</v>
       </c>
-      <c r="L180" s="37">
+      <c r="L180" s="17">
         <f t="shared" si="9"/>
         <v>70</v>
       </c>
-      <c r="M180" s="37">
-        <v>1</v>
-      </c>
-      <c r="N180" s="37">
+      <c r="M180" s="17">
+        <v>1</v>
+      </c>
+      <c r="N180" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A181" s="39">
+      <c r="A181" s="19">
         <v>180</v>
       </c>
-      <c r="B181" s="36">
+      <c r="B181" s="16">
         <v>35</v>
       </c>
-      <c r="C181" s="39">
+      <c r="C181" s="19">
         <v>44</v>
       </c>
-      <c r="D181" s="40"/>
-      <c r="E181" s="37">
+      <c r="D181" s="20"/>
+      <c r="E181" s="17">
         <f>LOOKUP(use_fish!B181,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C181,activity!A:A,0)),0)</f>
         <v>150</v>
       </c>
-      <c r="F181" s="39">
+      <c r="F181" s="19">
         <f t="shared" si="8"/>
         <v>6.6666666666666671E-3</v>
       </c>
-      <c r="G181" s="36" t="s">
+      <c r="G181" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="H181" s="39" t="str">
+      <c r="H181" s="19" t="str">
         <f>INDEX(base_fish!E:E,MATCH(use_fish!B181,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C181,activity!A:A,0)),"")</f>
         <v>小丑boss+临时活动</v>
       </c>
-      <c r="I181" s="37">
+      <c r="I181" s="17">
         <f>LOOKUP(use_fish!B181,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C181,activity!A:A,0)),0)</f>
         <v>150</v>
       </c>
-      <c r="J181" s="37">
-        <v>1</v>
-      </c>
-      <c r="K181" s="37">
+      <c r="J181" s="17">
+        <v>1</v>
+      </c>
+      <c r="K181" s="17">
         <f>LOOKUP(use_fish!B181,base_fish!A:A,base_fish!G:G)</f>
         <v>0</v>
       </c>
-      <c r="L181" s="37">
+      <c r="L181" s="17">
         <f t="shared" si="9"/>
         <v>150</v>
       </c>
-      <c r="M181" s="37">
-        <v>1</v>
-      </c>
-      <c r="N181" s="37">
+      <c r="M181" s="17">
+        <v>1</v>
+      </c>
+      <c r="N181" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A182" s="39">
+      <c r="A182" s="19">
         <v>181</v>
       </c>
-      <c r="B182" s="36">
+      <c r="B182" s="16">
         <v>35</v>
       </c>
-      <c r="C182" s="39">
+      <c r="C182" s="19">
         <v>45</v>
       </c>
-      <c r="D182" s="40"/>
-      <c r="E182" s="37">
+      <c r="D182" s="20"/>
+      <c r="E182" s="17">
         <f>LOOKUP(use_fish!B182,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C182,activity!A:A,0)),0)</f>
         <v>250</v>
       </c>
-      <c r="F182" s="39">
+      <c r="F182" s="19">
         <f t="shared" si="8"/>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="G182" s="36" t="s">
+      <c r="G182" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="H182" s="39" t="str">
+      <c r="H182" s="19" t="str">
         <f>INDEX(base_fish!E:E,MATCH(use_fish!B182,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C182,activity!A:A,0)),"")</f>
         <v>小丑boss+临时活动</v>
       </c>
-      <c r="I182" s="37">
+      <c r="I182" s="17">
         <f>LOOKUP(use_fish!B182,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C182,activity!A:A,0)),0)</f>
         <v>250</v>
       </c>
-      <c r="J182" s="37">
-        <v>1</v>
-      </c>
-      <c r="K182" s="37">
+      <c r="J182" s="17">
+        <v>1</v>
+      </c>
+      <c r="K182" s="17">
         <f>LOOKUP(use_fish!B182,base_fish!A:A,base_fish!G:G)</f>
         <v>0</v>
       </c>
-      <c r="L182" s="37">
+      <c r="L182" s="17">
         <f t="shared" si="9"/>
         <v>250</v>
       </c>
-      <c r="M182" s="37">
-        <v>1</v>
-      </c>
-      <c r="N182" s="37">
+      <c r="M182" s="17">
+        <v>1</v>
+      </c>
+      <c r="N182" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A183" s="39">
+      <c r="A183" s="19">
         <v>182</v>
       </c>
-      <c r="B183" s="36">
+      <c r="B183" s="16">
         <v>35</v>
       </c>
-      <c r="C183" s="39">
+      <c r="C183" s="19">
         <v>46</v>
       </c>
-      <c r="D183" s="40"/>
-      <c r="E183" s="37">
+      <c r="D183" s="20"/>
+      <c r="E183" s="17">
         <f>LOOKUP(use_fish!B183,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C183,activity!A:A,0)),0)</f>
         <v>350</v>
       </c>
-      <c r="F183" s="39">
+      <c r="F183" s="19">
         <f t="shared" si="8"/>
         <v>2.8571428571428571E-3</v>
       </c>
-      <c r="G183" s="36" t="s">
+      <c r="G183" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="H183" s="39" t="str">
+      <c r="H183" s="19" t="str">
         <f>INDEX(base_fish!E:E,MATCH(use_fish!B183,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C183,activity!A:A,0)),"")</f>
         <v>小丑boss+临时活动</v>
       </c>
-      <c r="I183" s="37">
+      <c r="I183" s="17">
         <f>LOOKUP(use_fish!B183,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C183,activity!A:A,0)),0)</f>
         <v>350</v>
       </c>
-      <c r="J183" s="37">
-        <v>1</v>
-      </c>
-      <c r="K183" s="37">
+      <c r="J183" s="17">
+        <v>1</v>
+      </c>
+      <c r="K183" s="17">
         <f>LOOKUP(use_fish!B183,base_fish!A:A,base_fish!G:G)</f>
         <v>0</v>
       </c>
-      <c r="L183" s="37">
+      <c r="L183" s="17">
         <f t="shared" si="9"/>
         <v>350</v>
       </c>
-      <c r="M183" s="37">
-        <v>1</v>
-      </c>
-      <c r="N183" s="37">
+      <c r="M183" s="17">
+        <v>1</v>
+      </c>
+      <c r="N183" s="17">
         <v>1</v>
       </c>
     </row>
@@ -17069,7 +16995,7 @@
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17829,535 +17755,531 @@
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="15">
+    <row r="26" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="22">
         <v>25</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="22">
         <v>26</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="D26" s="16">
-        <v>1</v>
-      </c>
-      <c r="E26" s="16">
-        <v>1</v>
-      </c>
-      <c r="F26" s="15">
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1</v>
+      </c>
+      <c r="F26" s="22">
         <v>200</v>
       </c>
-      <c r="G26" s="15" t="s">
+      <c r="G26" s="22" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="15">
+    <row r="27" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="22">
         <v>26</v>
       </c>
-      <c r="B27" s="15">
+      <c r="B27" s="22">
         <v>27</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="D27" s="16">
-        <v>1</v>
-      </c>
-      <c r="E27" s="16">
-        <v>1</v>
-      </c>
-      <c r="F27" s="15">
+      <c r="D27" s="4">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1</v>
+      </c>
+      <c r="F27" s="22">
         <v>500</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="G27" s="22" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28">
+    <row r="28" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="22">
         <v>27</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="22">
         <v>9</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="D28" s="11">
-        <v>0</v>
-      </c>
-      <c r="E28" s="11">
-        <v>1</v>
-      </c>
-      <c r="F28" s="10">
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1</v>
+      </c>
+      <c r="F28" s="22">
         <v>75</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G28" s="22" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29">
+    <row r="29" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="22">
         <v>28</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="22">
         <v>9</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="D29" s="11">
-        <v>0</v>
-      </c>
-      <c r="E29" s="11">
-        <v>1</v>
-      </c>
-      <c r="F29" s="10">
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4">
+        <v>1</v>
+      </c>
+      <c r="F29" s="22">
         <v>150</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="G29" s="22" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30">
+    <row r="30" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="22">
         <v>29</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="22">
         <v>9</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="D30" s="11">
-        <v>0</v>
-      </c>
-      <c r="E30" s="11">
-        <v>1</v>
-      </c>
-      <c r="F30" s="10">
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4">
+        <v>1</v>
+      </c>
+      <c r="F30" s="22">
         <v>250</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G30" s="22" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31">
+    <row r="31" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="22">
         <v>30</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="22">
         <v>9</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="D31" s="11">
-        <v>1</v>
-      </c>
-      <c r="E31" s="11">
-        <v>1</v>
-      </c>
-      <c r="F31" s="10">
+      <c r="D31" s="4">
+        <v>1</v>
+      </c>
+      <c r="E31" s="4">
+        <v>1</v>
+      </c>
+      <c r="F31" s="22">
         <v>5</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G31" s="22" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="15">
+    <row r="32" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="22">
         <v>31</v>
       </c>
-      <c r="B32" s="15">
+      <c r="B32" s="22">
         <v>48</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="22" t="s">
         <v>356</v>
       </c>
-      <c r="D32" s="17">
-        <v>1</v>
-      </c>
-      <c r="E32" s="17">
-        <v>1</v>
-      </c>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15" t="s">
+      <c r="D32" s="23">
+        <v>1</v>
+      </c>
+      <c r="E32" s="23">
+        <v>1</v>
+      </c>
+      <c r="G32" s="22" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="15">
+    <row r="33" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="22">
         <v>32</v>
       </c>
-      <c r="B33" s="15">
+      <c r="B33" s="22">
         <v>49</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="22" t="s">
         <v>357</v>
       </c>
-      <c r="D33" s="17">
-        <v>1</v>
-      </c>
-      <c r="E33" s="17">
-        <v>1</v>
-      </c>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15" t="s">
+      <c r="D33" s="23">
+        <v>1</v>
+      </c>
+      <c r="E33" s="23">
+        <v>1</v>
+      </c>
+      <c r="G33" s="22" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="15">
+    <row r="34" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="22">
         <v>33</v>
       </c>
-      <c r="B34" s="15">
+      <c r="B34" s="22">
         <v>50</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="22" t="s">
         <v>356</v>
       </c>
-      <c r="D34" s="17">
-        <v>1</v>
-      </c>
-      <c r="E34" s="17">
-        <v>1</v>
-      </c>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15" t="s">
+      <c r="D34" s="23">
+        <v>1</v>
+      </c>
+      <c r="E34" s="23">
+        <v>1</v>
+      </c>
+      <c r="G34" s="22" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="15">
+    <row r="35" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="22">
         <v>34</v>
       </c>
-      <c r="B35" s="15">
+      <c r="B35" s="22">
         <v>51</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="22" t="s">
         <v>358</v>
       </c>
-      <c r="D35" s="17">
-        <v>1</v>
-      </c>
-      <c r="E35" s="17">
-        <v>1</v>
-      </c>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15" t="s">
+      <c r="D35" s="23">
+        <v>1</v>
+      </c>
+      <c r="E35" s="23">
+        <v>1</v>
+      </c>
+      <c r="G35" s="22" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="15">
+    <row r="36" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="22">
         <v>35</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36" s="22">
         <v>9</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="22" t="s">
         <v>360</v>
       </c>
-      <c r="D36" s="11">
-        <v>0</v>
-      </c>
-      <c r="E36" s="11">
-        <v>1</v>
-      </c>
-      <c r="F36" s="10">
+      <c r="D36" s="4">
+        <v>0</v>
+      </c>
+      <c r="E36" s="4">
+        <v>1</v>
+      </c>
+      <c r="F36" s="22">
         <v>75</v>
       </c>
-      <c r="G36" s="10" t="s">
+      <c r="G36" s="22" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="15">
+    <row r="37" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="22">
         <v>36</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B37" s="22">
         <v>9</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="D37" s="11">
-        <v>0</v>
-      </c>
-      <c r="E37" s="11">
-        <v>1</v>
-      </c>
-      <c r="F37" s="10">
+      <c r="D37" s="4">
+        <v>0</v>
+      </c>
+      <c r="E37" s="4">
+        <v>1</v>
+      </c>
+      <c r="F37" s="22">
         <v>150</v>
       </c>
-      <c r="G37" s="10" t="s">
+      <c r="G37" s="22" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="15">
+    <row r="38" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="22">
         <v>37</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B38" s="22">
         <v>9</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="22" t="s">
         <v>362</v>
       </c>
-      <c r="D38" s="11">
-        <v>0</v>
-      </c>
-      <c r="E38" s="11">
-        <v>1</v>
-      </c>
-      <c r="F38" s="10">
+      <c r="D38" s="4">
+        <v>0</v>
+      </c>
+      <c r="E38" s="4">
+        <v>1</v>
+      </c>
+      <c r="F38" s="22">
         <v>250</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="G38" s="22" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="15">
+    <row r="39" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="22">
         <v>38</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B39" s="22">
         <v>9</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="22" t="s">
         <v>363</v>
       </c>
-      <c r="D39" s="11">
-        <v>1</v>
-      </c>
-      <c r="E39" s="11">
-        <v>1</v>
-      </c>
-      <c r="F39" s="10">
+      <c r="D39" s="4">
+        <v>1</v>
+      </c>
+      <c r="E39" s="4">
+        <v>1</v>
+      </c>
+      <c r="F39" s="22">
         <v>10</v>
       </c>
-      <c r="G39" s="10" t="s">
+      <c r="G39" s="22" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="24">
+    <row r="40" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="22">
         <v>39</v>
       </c>
-      <c r="B40" s="24">
+      <c r="B40" s="22">
         <v>9</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="22" t="s">
         <v>376</v>
       </c>
-      <c r="D40" s="25">
-        <v>1</v>
-      </c>
-      <c r="E40" s="25">
-        <v>1</v>
-      </c>
-      <c r="F40" s="24">
+      <c r="D40" s="23">
+        <v>1</v>
+      </c>
+      <c r="E40" s="23">
+        <v>1</v>
+      </c>
+      <c r="F40" s="22">
         <v>75</v>
       </c>
-      <c r="G40" s="24" t="s">
+      <c r="G40" s="22" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="28">
+    <row r="41" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="22">
         <v>40</v>
       </c>
-      <c r="B41" s="28">
+      <c r="B41" s="22">
         <v>9</v>
       </c>
-      <c r="C41" s="28" t="s">
+      <c r="C41" s="22" t="s">
         <v>378</v>
       </c>
-      <c r="D41" s="30">
-        <v>0</v>
-      </c>
-      <c r="E41" s="30">
-        <v>1</v>
-      </c>
-      <c r="F41" s="28">
+      <c r="D41" s="4">
+        <v>0</v>
+      </c>
+      <c r="E41" s="4">
+        <v>1</v>
+      </c>
+      <c r="F41" s="22">
         <v>75</v>
       </c>
-      <c r="G41" s="28" t="s">
+      <c r="G41" s="22" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="28">
+    <row r="42" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="22">
         <v>41</v>
       </c>
-      <c r="B42" s="28">
+      <c r="B42" s="22">
         <v>9</v>
       </c>
-      <c r="C42" s="28" t="s">
+      <c r="C42" s="22" t="s">
         <v>379</v>
       </c>
-      <c r="D42" s="30">
-        <v>0</v>
-      </c>
-      <c r="E42" s="30">
-        <v>1</v>
-      </c>
-      <c r="F42" s="28">
+      <c r="D42" s="4">
+        <v>0</v>
+      </c>
+      <c r="E42" s="4">
+        <v>1</v>
+      </c>
+      <c r="F42" s="22">
         <v>150</v>
       </c>
-      <c r="G42" s="28" t="s">
+      <c r="G42" s="22" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="28">
+    <row r="43" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="22">
         <v>42</v>
       </c>
-      <c r="B43" s="28">
+      <c r="B43" s="22">
         <v>9</v>
       </c>
-      <c r="C43" s="28" t="s">
+      <c r="C43" s="22" t="s">
         <v>380</v>
       </c>
-      <c r="D43" s="30">
-        <v>0</v>
-      </c>
-      <c r="E43" s="30">
-        <v>1</v>
-      </c>
-      <c r="F43" s="28">
+      <c r="D43" s="4">
+        <v>0</v>
+      </c>
+      <c r="E43" s="4">
+        <v>1</v>
+      </c>
+      <c r="F43" s="22">
         <v>250</v>
       </c>
-      <c r="G43" s="28" t="s">
+      <c r="G43" s="22" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="28">
+    <row r="44" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="22">
         <v>43</v>
       </c>
-      <c r="B44" s="28">
+      <c r="B44" s="22">
         <v>9</v>
       </c>
-      <c r="C44" s="28" t="s">
+      <c r="C44" s="22" t="s">
         <v>381</v>
       </c>
-      <c r="D44" s="30">
-        <v>1</v>
-      </c>
-      <c r="E44" s="30">
-        <v>1</v>
-      </c>
-      <c r="F44" s="28">
+      <c r="D44" s="4">
+        <v>1</v>
+      </c>
+      <c r="E44" s="4">
+        <v>1</v>
+      </c>
+      <c r="F44" s="22">
         <v>10</v>
       </c>
-      <c r="G44" s="28" t="s">
+      <c r="G44" s="22" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="37">
+      <c r="A45" s="17">
         <v>44</v>
       </c>
-      <c r="B45" s="37">
+      <c r="B45" s="17">
         <v>9</v>
       </c>
-      <c r="C45" s="37" t="s">
+      <c r="C45" s="17" t="s">
         <v>406</v>
       </c>
-      <c r="D45" s="38">
-        <v>0</v>
-      </c>
-      <c r="E45" s="38">
-        <v>1</v>
-      </c>
-      <c r="F45" s="37">
+      <c r="D45" s="18">
+        <v>0</v>
+      </c>
+      <c r="E45" s="18">
+        <v>1</v>
+      </c>
+      <c r="F45" s="17">
         <v>150</v>
       </c>
-      <c r="G45" s="37" t="s">
+      <c r="G45" s="17" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="37">
+      <c r="A46" s="17">
         <v>45</v>
       </c>
-      <c r="B46" s="37">
+      <c r="B46" s="17">
         <v>9</v>
       </c>
-      <c r="C46" s="37" t="s">
+      <c r="C46" s="17" t="s">
         <v>407</v>
       </c>
-      <c r="D46" s="38">
-        <v>0</v>
-      </c>
-      <c r="E46" s="38">
-        <v>1</v>
-      </c>
-      <c r="F46" s="37">
+      <c r="D46" s="18">
+        <v>0</v>
+      </c>
+      <c r="E46" s="18">
+        <v>1</v>
+      </c>
+      <c r="F46" s="17">
         <v>250</v>
       </c>
-      <c r="G46" s="37" t="s">
+      <c r="G46" s="17" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="37">
+      <c r="A47" s="17">
         <v>46</v>
       </c>
-      <c r="B47" s="37">
+      <c r="B47" s="17">
         <v>9</v>
       </c>
-      <c r="C47" s="37" t="s">
+      <c r="C47" s="17" t="s">
         <v>408</v>
       </c>
-      <c r="D47" s="38">
-        <v>0</v>
-      </c>
-      <c r="E47" s="38">
-        <v>1</v>
-      </c>
-      <c r="F47" s="37">
+      <c r="D47" s="18">
+        <v>0</v>
+      </c>
+      <c r="E47" s="18">
+        <v>1</v>
+      </c>
+      <c r="F47" s="17">
         <v>350</v>
       </c>
-      <c r="G47" s="37" t="s">
+      <c r="G47" s="17" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="37">
+      <c r="A48" s="17">
         <v>47</v>
       </c>
-      <c r="B48" s="37">
+      <c r="B48" s="17">
         <v>9</v>
       </c>
-      <c r="C48" s="37" t="s">
+      <c r="C48" s="17" t="s">
         <v>405</v>
       </c>
-      <c r="D48" s="38">
-        <v>1</v>
-      </c>
-      <c r="E48" s="38">
-        <v>1</v>
-      </c>
-      <c r="F48" s="37">
+      <c r="D48" s="18">
+        <v>1</v>
+      </c>
+      <c r="E48" s="18">
+        <v>1</v>
+      </c>
+      <c r="F48" s="17">
         <v>10</v>
       </c>
-      <c r="G48" s="37" t="s">
+      <c r="G48" s="17" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="42">
+      <c r="A49" s="22">
         <v>48</v>
       </c>
-      <c r="B49" s="42">
+      <c r="B49" s="22">
         <v>9</v>
       </c>
-      <c r="C49" s="42" t="s">
+      <c r="C49" s="22" t="s">
         <v>400</v>
       </c>
       <c r="D49" s="4">
@@ -18366,21 +18288,21 @@
       <c r="E49" s="4">
         <v>1</v>
       </c>
-      <c r="F49" s="42">
+      <c r="F49" s="22">
         <v>150</v>
       </c>
-      <c r="G49" s="42" t="s">
+      <c r="G49" s="22" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="42">
+      <c r="A50" s="22">
         <v>49</v>
       </c>
-      <c r="B50" s="42">
+      <c r="B50" s="22">
         <v>9</v>
       </c>
-      <c r="C50" s="42" t="s">
+      <c r="C50" s="22" t="s">
         <v>401</v>
       </c>
       <c r="D50" s="4">
@@ -18389,21 +18311,21 @@
       <c r="E50" s="4">
         <v>1</v>
       </c>
-      <c r="F50" s="42">
+      <c r="F50" s="22">
         <v>250</v>
       </c>
-      <c r="G50" s="42" t="s">
+      <c r="G50" s="22" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="42">
+      <c r="A51" s="22">
         <v>50</v>
       </c>
-      <c r="B51" s="42">
+      <c r="B51" s="22">
         <v>9</v>
       </c>
-      <c r="C51" s="42" t="s">
+      <c r="C51" s="22" t="s">
         <v>402</v>
       </c>
       <c r="D51" s="4">
@@ -18412,33 +18334,33 @@
       <c r="E51" s="4">
         <v>1</v>
       </c>
-      <c r="F51" s="42">
+      <c r="F51" s="22">
         <v>350</v>
       </c>
-      <c r="G51" s="42" t="s">
+      <c r="G51" s="22" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="42">
+      <c r="A52" s="22">
         <v>51</v>
       </c>
-      <c r="B52" s="42">
+      <c r="B52" s="22">
         <v>9</v>
       </c>
-      <c r="C52" s="42" t="s">
+      <c r="C52" s="22" t="s">
         <v>403</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
       </c>
-      <c r="E52" s="43">
-        <v>1</v>
-      </c>
-      <c r="F52" s="42">
+      <c r="E52" s="23">
+        <v>1</v>
+      </c>
+      <c r="F52" s="22">
         <v>10</v>
       </c>
-      <c r="G52" s="42" t="s">
+      <c r="G52" s="22" t="s">
         <v>132</v>
       </c>
     </row>
@@ -18538,7 +18460,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
+      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19345,99 +19267,99 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="18">
+    <row r="33" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="24">
         <v>32</v>
       </c>
-      <c r="B33" s="18">
-        <v>1</v>
-      </c>
-      <c r="C33" s="18">
-        <v>0</v>
-      </c>
-      <c r="D33" s="18">
-        <v>0</v>
-      </c>
-      <c r="E33" s="18" t="s">
+      <c r="B33" s="24">
+        <v>1</v>
+      </c>
+      <c r="C33" s="24">
+        <v>0</v>
+      </c>
+      <c r="D33" s="24">
+        <v>0</v>
+      </c>
+      <c r="E33" s="24" t="s">
         <v>359</v>
       </c>
-      <c r="F33" s="18">
-        <v>0</v>
-      </c>
-      <c r="G33" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
+      <c r="F33" s="24">
+        <v>0</v>
+      </c>
+      <c r="G33" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="24">
         <v>33</v>
       </c>
-      <c r="B34" s="3">
-        <v>1</v>
-      </c>
-      <c r="C34" s="3">
-        <v>0</v>
-      </c>
-      <c r="D34" s="3">
-        <v>0</v>
-      </c>
-      <c r="E34" s="3" t="s">
+      <c r="B34" s="24">
+        <v>1</v>
+      </c>
+      <c r="C34" s="24">
+        <v>0</v>
+      </c>
+      <c r="D34" s="24">
+        <v>0</v>
+      </c>
+      <c r="E34" s="24" t="s">
         <v>374</v>
       </c>
-      <c r="F34" s="3">
-        <v>0</v>
-      </c>
-      <c r="G34" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="27">
+      <c r="F34" s="24">
+        <v>0</v>
+      </c>
+      <c r="G34" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="24">
         <v>34</v>
       </c>
-      <c r="B35" s="27">
-        <v>1</v>
-      </c>
-      <c r="C35" s="27">
-        <v>0</v>
-      </c>
-      <c r="D35" s="27">
-        <v>0</v>
-      </c>
-      <c r="E35" s="27" t="s">
+      <c r="B35" s="24">
+        <v>1</v>
+      </c>
+      <c r="C35" s="24">
+        <v>0</v>
+      </c>
+      <c r="D35" s="24">
+        <v>0</v>
+      </c>
+      <c r="E35" s="24" t="s">
         <v>377</v>
       </c>
-      <c r="F35" s="27">
-        <v>0</v>
-      </c>
-      <c r="G35" s="27">
+      <c r="F35" s="24">
+        <v>0</v>
+      </c>
+      <c r="G35" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="36">
+      <c r="A36" s="16">
         <v>35</v>
       </c>
-      <c r="B36" s="36">
-        <v>1</v>
-      </c>
-      <c r="C36" s="36">
-        <v>0</v>
-      </c>
-      <c r="D36" s="36">
-        <v>0</v>
-      </c>
-      <c r="E36" s="36" t="s">
+      <c r="B36" s="16">
+        <v>1</v>
+      </c>
+      <c r="C36" s="16">
+        <v>0</v>
+      </c>
+      <c r="D36" s="16">
+        <v>0</v>
+      </c>
+      <c r="E36" s="16" t="s">
         <v>404</v>
       </c>
-      <c r="F36" s="36">
-        <v>0</v>
-      </c>
-      <c r="G36" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="F36" s="16">
+        <v>0</v>
+      </c>
+      <c r="G36" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_debug/fish_2d_fish_server.xlsx
+++ b/config_debug/fish_2d_fish_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="group" sheetId="1" r:id="rId1"/>
@@ -302,7 +302,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="409">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1713,10 +1713,6 @@
   </si>
   <si>
     <t>182,</t>
-  </si>
-  <si>
-    <t>袜子boss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0,0,0.1,0.2</t>
@@ -1895,7 +1891,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2005,6 +2001,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2290,7 +2289,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
+    <sheetView topLeftCell="A185" workbookViewId="0">
       <selection activeCell="H216" sqref="H216"/>
     </sheetView>
   </sheetViews>
@@ -8377,9 +8376,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N183"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F186" sqref="F186"/>
+      <selection pane="bottomLeft" activeCell="B183" sqref="B183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16918,7 +16917,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="36">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C181" s="39">
         <v>44</v>
@@ -16966,7 +16965,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="36">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C182" s="39">
         <v>45</v>
@@ -17014,7 +17013,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="36">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C183" s="39">
         <v>46</v>
@@ -17134,7 +17133,7 @@
         <v>63</v>
       </c>
       <c r="G2" t="str">
-        <f>LOOKUP(B2,H:H,I:I)</f>
+        <f t="shared" ref="G2:G21" si="0">LOOKUP(B2,H:H,I:I)</f>
         <v>免费子弹</v>
       </c>
       <c r="H2">
@@ -17167,7 +17166,7 @@
         <v>63</v>
       </c>
       <c r="G3" t="str">
-        <f>LOOKUP(B3,H:H,I:I)</f>
+        <f t="shared" si="0"/>
         <v>威力提升</v>
       </c>
       <c r="H3">
@@ -17200,7 +17199,7 @@
         <v>63</v>
       </c>
       <c r="G4" t="str">
-        <f>LOOKUP(B4,H:H,I:I)</f>
+        <f t="shared" si="0"/>
         <v>暴击时刻</v>
       </c>
       <c r="H4">
@@ -17230,7 +17229,7 @@
         <v>30</v>
       </c>
       <c r="G5" t="str">
-        <f>LOOKUP(B5,H:H,I:I)</f>
+        <f t="shared" si="0"/>
         <v>炸弹</v>
       </c>
       <c r="H5">
@@ -17260,7 +17259,7 @@
         <v>50</v>
       </c>
       <c r="G6" t="str">
-        <f>LOOKUP(B6,H:H,I:I)</f>
+        <f t="shared" si="0"/>
         <v>闪电</v>
       </c>
       <c r="H6">
@@ -17290,7 +17289,7 @@
         <v>20</v>
       </c>
       <c r="G7" t="str">
-        <f>LOOKUP(B7,H:H,I:I)</f>
+        <f t="shared" si="0"/>
         <v>炸弹</v>
       </c>
       <c r="H7">
@@ -17320,7 +17319,7 @@
         <v>50</v>
       </c>
       <c r="G8" t="str">
-        <f>LOOKUP(B8,H:H,I:I)</f>
+        <f t="shared" si="0"/>
         <v>免费子弹</v>
       </c>
       <c r="H8">
@@ -17350,7 +17349,7 @@
         <v>63</v>
       </c>
       <c r="G9" t="str">
-        <f>LOOKUP(B9,H:H,I:I)</f>
+        <f t="shared" si="0"/>
         <v>炸弹</v>
       </c>
       <c r="H9">
@@ -17380,7 +17379,7 @@
         <v>63</v>
       </c>
       <c r="G10" t="str">
-        <f>LOOKUP(B10,H:H,I:I)</f>
+        <f t="shared" si="0"/>
         <v>闪电</v>
       </c>
       <c r="H10">
@@ -17410,7 +17409,7 @@
         <v>50</v>
       </c>
       <c r="G11" t="str">
-        <f>LOOKUP(B11,H:H,I:I)</f>
+        <f t="shared" si="0"/>
         <v>闪电</v>
       </c>
       <c r="H11">
@@ -17440,7 +17439,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="str">
-        <f>LOOKUP(B12,H:H,I:I)</f>
+        <f t="shared" si="0"/>
         <v>锁定卡</v>
       </c>
       <c r="H12">
@@ -17470,7 +17469,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="str">
-        <f>LOOKUP(B13,H:H,I:I)</f>
+        <f t="shared" si="0"/>
         <v>锁定卡</v>
       </c>
       <c r="H13">
@@ -17500,7 +17499,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="str">
-        <f>LOOKUP(B14,H:H,I:I)</f>
+        <f t="shared" si="0"/>
         <v>冰冻卡</v>
       </c>
       <c r="H14">
@@ -17530,7 +17529,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="str">
-        <f>LOOKUP(B15,H:H,I:I)</f>
+        <f t="shared" si="0"/>
         <v>冰冻卡</v>
       </c>
       <c r="H15">
@@ -17560,7 +17559,7 @@
         <v>1</v>
       </c>
       <c r="G16" t="str">
-        <f>LOOKUP(B16,H:H,I:I)</f>
+        <f t="shared" si="0"/>
         <v>临时活动</v>
       </c>
       <c r="H16">
@@ -17593,7 +17592,7 @@
         <v>1</v>
       </c>
       <c r="G17" t="str">
-        <f>LOOKUP(B17,H:H,I:I)</f>
+        <f t="shared" si="0"/>
         <v>临时活动</v>
       </c>
       <c r="H17">
@@ -17626,7 +17625,7 @@
         <v>80</v>
       </c>
       <c r="G18" t="str">
-        <f>LOOKUP(B18,H:H,I:I)</f>
+        <f t="shared" si="0"/>
         <v>贝壳</v>
       </c>
       <c r="H18">
@@ -17659,7 +17658,7 @@
         <v>63</v>
       </c>
       <c r="G19" t="str">
-        <f>LOOKUP(B19,H:H,I:I)</f>
+        <f t="shared" si="0"/>
         <v>穿透钢弹</v>
       </c>
       <c r="H19">
@@ -17692,7 +17691,7 @@
         <v>150</v>
       </c>
       <c r="G20" t="str">
-        <f>LOOKUP(B20,H:H,I:I)</f>
+        <f t="shared" si="0"/>
         <v>钻头弹</v>
       </c>
       <c r="H20">
@@ -17725,7 +17724,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="str">
-        <f>LOOKUP(B21,H:H,I:I)</f>
+        <f t="shared" si="0"/>
         <v>神灯</v>
       </c>
       <c r="H21">
@@ -18267,7 +18266,7 @@
         <v>9</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D45" s="38">
         <v>0</v>
@@ -18290,7 +18289,7 @@
         <v>9</v>
       </c>
       <c r="C46" s="37" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D46" s="38">
         <v>0</v>
@@ -18313,7 +18312,7 @@
         <v>9</v>
       </c>
       <c r="C47" s="37" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D47" s="38">
         <v>0</v>
@@ -18336,7 +18335,7 @@
         <v>9</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D48" s="38">
         <v>1</v>
@@ -18359,7 +18358,7 @@
         <v>9</v>
       </c>
       <c r="C49" s="42" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
@@ -18382,7 +18381,7 @@
         <v>9</v>
       </c>
       <c r="C50" s="42" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D50" s="4">
         <v>1</v>
@@ -18405,7 +18404,7 @@
         <v>9</v>
       </c>
       <c r="C51" s="42" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D51" s="4">
         <v>1</v>
@@ -18428,7 +18427,7 @@
         <v>9</v>
       </c>
       <c r="C52" s="42" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -18539,7 +18538,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E44" sqref="E44"/>
+      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19429,7 +19428,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="36" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="F36" s="36">
         <v>0</v>
@@ -19438,29 +19437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="36">
-        <v>36</v>
-      </c>
-      <c r="B37" s="36">
-        <v>1</v>
-      </c>
-      <c r="C37" s="36">
-        <v>0</v>
-      </c>
-      <c r="D37" s="36">
-        <v>0</v>
-      </c>
-      <c r="E37" s="36" t="s">
-        <v>405</v>
-      </c>
-      <c r="F37" s="36">
-        <v>0</v>
-      </c>
-      <c r="G37" s="36">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="37" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_debug/fish_2d_fish_server.xlsx
+++ b/config_debug/fish_2d_fish_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="group" sheetId="1" r:id="rId1"/>
@@ -1731,10 +1731,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小丑boss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0,0,0.01,</t>
   </si>
   <si>
@@ -1745,6 +1741,10 @@
   </si>
   <si>
     <t>0,0,0.3,0.4</t>
+  </si>
+  <si>
+    <t>活动boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2215,7 +2215,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
+    <sheetView topLeftCell="A182" workbookViewId="0">
       <selection activeCell="F197" sqref="F197"/>
     </sheetView>
   </sheetViews>
@@ -8302,7 +8302,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N183"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H184" sqref="H184"/>
     </sheetView>
@@ -16862,7 +16862,7 @@
       </c>
       <c r="H181" s="19" t="str">
         <f>INDEX(base_fish!E:E,MATCH(use_fish!B181,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C181,activity!A:A,0)),"")</f>
-        <v>小丑boss+临时活动</v>
+        <v>活动boss+临时活动</v>
       </c>
       <c r="I181" s="17">
         <f>LOOKUP(use_fish!B181,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C181,activity!A:A,0)),0)</f>
@@ -16910,7 +16910,7 @@
       </c>
       <c r="H182" s="19" t="str">
         <f>INDEX(base_fish!E:E,MATCH(use_fish!B182,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C182,activity!A:A,0)),"")</f>
-        <v>小丑boss+临时活动</v>
+        <v>活动boss+临时活动</v>
       </c>
       <c r="I182" s="17">
         <f>LOOKUP(use_fish!B182,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C182,activity!A:A,0)),0)</f>
@@ -16958,7 +16958,7 @@
       </c>
       <c r="H183" s="19" t="str">
         <f>INDEX(base_fish!E:E,MATCH(use_fish!B183,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C183,activity!A:A,0)),"")</f>
-        <v>小丑boss+临时活动</v>
+        <v>活动boss+临时活动</v>
       </c>
       <c r="I183" s="17">
         <f>LOOKUP(use_fish!B183,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C183,activity!A:A,0)),0)</f>
@@ -18188,7 +18188,7 @@
         <v>9</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D45" s="18">
         <v>0</v>
@@ -18211,7 +18211,7 @@
         <v>9</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D46" s="18">
         <v>0</v>
@@ -18234,7 +18234,7 @@
         <v>9</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D47" s="18">
         <v>0</v>
@@ -18257,7 +18257,7 @@
         <v>9</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D48" s="18">
         <v>1</v>
@@ -18460,7 +18460,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
+      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19350,7 +19350,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="F36" s="16">
         <v>0</v>

--- a/config_debug/fish_2d_fish_server.xlsx
+++ b/config_debug/fish_2d_fish_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="group" sheetId="1" r:id="rId1"/>
@@ -1715,35 +1715,35 @@
     <t>182,</t>
   </si>
   <si>
+    <t>0,0,0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0.01,</t>
+  </si>
+  <si>
     <t>0,0,0.1,0.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0,0,0.2,0.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0,0,0.3,0.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0.01,</t>
-  </si>
-  <si>
-    <t>0,0,0.1,0.2</t>
+  </si>
+  <si>
+    <t>活动boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0,0,0.2,0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0,0,0.3,0.4</t>
-  </si>
-  <si>
-    <t>活动boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0.4,0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2215,7 +2215,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W209"/>
   <sheetViews>
-    <sheetView topLeftCell="A182" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
       <selection activeCell="F197" sqref="F197"/>
     </sheetView>
   </sheetViews>
@@ -8302,9 +8302,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H184" sqref="H184"/>
+      <selection pane="bottomLeft" activeCell="H182" sqref="H182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16995,7 +16995,7 @@
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18188,7 +18188,7 @@
         <v>9</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D45" s="18">
         <v>0</v>
@@ -18211,7 +18211,7 @@
         <v>9</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D46" s="18">
         <v>0</v>
@@ -18234,7 +18234,7 @@
         <v>9</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D47" s="18">
         <v>0</v>
@@ -18257,7 +18257,7 @@
         <v>9</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D48" s="18">
         <v>1</v>
@@ -18280,7 +18280,7 @@
         <v>9</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
@@ -18303,7 +18303,7 @@
         <v>9</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D50" s="4">
         <v>1</v>
@@ -18326,7 +18326,7 @@
         <v>9</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="D51" s="4">
         <v>1</v>
@@ -18349,7 +18349,7 @@
         <v>9</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -19350,7 +19350,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F36" s="16">
         <v>0</v>

--- a/config_debug/fish_2d_fish_server.xlsx
+++ b/config_debug/fish_2d_fish_server.xlsx
@@ -302,7 +302,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="429">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1715,36 +1715,103 @@
     <t>182,</t>
   </si>
   <si>
-    <t>0,0,0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0,0,0.01,</t>
   </si>
   <si>
-    <t>0,0,0.1,0.2</t>
+    <t>活动boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0,0,0.2,0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0,0,0.3,0.4</t>
-  </si>
-  <si>
-    <t>活动boss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0.2,0.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0.3,0.4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0,0,0.4,0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,0.2,0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,0.3,0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,0.4,0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,0.01,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>183,</t>
+  </si>
+  <si>
+    <t>184,</t>
+  </si>
+  <si>
+    <t>185,</t>
+  </si>
+  <si>
+    <t>186,</t>
+  </si>
+  <si>
+    <t>187,</t>
+  </si>
+  <si>
+    <t>188,</t>
+  </si>
+  <si>
+    <t>189,</t>
+  </si>
+  <si>
+    <t>190,</t>
+  </si>
+  <si>
+    <t>2,2,0.2,0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2,0.3,0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2,0.4,0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2,0.01,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>191,</t>
+  </si>
+  <si>
+    <t>192,</t>
+  </si>
+  <si>
+    <t>193,</t>
+  </si>
+  <si>
+    <t>194,</t>
+  </si>
+  <si>
+    <t>195,</t>
+  </si>
+  <si>
+    <t>196,</t>
+  </si>
+  <si>
+    <t>197,</t>
+  </si>
+  <si>
+    <t>198,</t>
   </si>
 </sst>
 </file>
@@ -1802,7 +1869,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1818,6 +1885,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1861,7 +1940,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1929,6 +2008,38 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -2213,16 +2324,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:W209"/>
+  <dimension ref="A1:W233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="F197" sqref="F197"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="E218" sqref="E218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="6" width="8.625"/>
+    <col min="3" max="3" width="8.625" style="11"/>
+    <col min="4" max="6" width="8.625"/>
     <col min="7" max="7" width="10.625" customWidth="1"/>
     <col min="11" max="11" width="29.5" customWidth="1"/>
     <col min="12" max="12" width="8.625"/>
@@ -2237,7 +2349,7 @@
       <c r="B1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="13" t="s">
         <v>159</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -2296,7 +2408,7 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="11" t="s">
         <v>160</v>
       </c>
       <c r="D2" t="s">
@@ -2332,7 +2444,7 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="11" t="s">
         <v>108</v>
       </c>
       <c r="D3" t="s">
@@ -2367,7 +2479,7 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="11" t="s">
         <v>162</v>
       </c>
       <c r="D4" t="s">
@@ -2402,7 +2514,7 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="11" t="s">
         <v>161</v>
       </c>
       <c r="D5" t="s">
@@ -2437,7 +2549,7 @@
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="11" t="s">
         <v>164</v>
       </c>
       <c r="E6" t="s">
@@ -2469,7 +2581,7 @@
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="11" t="s">
         <v>163</v>
       </c>
       <c r="D7" t="s">
@@ -2501,7 +2613,7 @@
       <c r="B8">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="11" t="s">
         <v>160</v>
       </c>
       <c r="D8" t="s">
@@ -2536,7 +2648,7 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="11" t="s">
         <v>160</v>
       </c>
       <c r="D9" t="s">
@@ -2571,7 +2683,7 @@
       <c r="B10">
         <v>2</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="11" t="s">
         <v>161</v>
       </c>
       <c r="D10" t="s">
@@ -2606,7 +2718,7 @@
       <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="11" t="s">
         <v>161</v>
       </c>
       <c r="D11" t="s">
@@ -2641,7 +2753,7 @@
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="11" t="s">
         <v>164</v>
       </c>
       <c r="D12" t="s">
@@ -2676,7 +2788,7 @@
       <c r="B13">
         <v>2</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="11" t="s">
         <v>165</v>
       </c>
       <c r="D13" t="s">
@@ -2711,7 +2823,7 @@
       <c r="B14">
         <v>2</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="11" t="s">
         <v>166</v>
       </c>
       <c r="D14" t="s">
@@ -2746,7 +2858,7 @@
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="11" t="s">
         <v>167</v>
       </c>
       <c r="D15" t="s">
@@ -2781,7 +2893,7 @@
       <c r="B16">
         <v>2</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="11" t="s">
         <v>168</v>
       </c>
       <c r="D16" t="s">
@@ -2816,7 +2928,7 @@
       <c r="B17">
         <v>2</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="11" t="s">
         <v>169</v>
       </c>
       <c r="D17" t="s">
@@ -2851,7 +2963,7 @@
       <c r="B18">
         <v>2</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="11" t="s">
         <v>170</v>
       </c>
       <c r="D18" t="s">
@@ -2886,7 +2998,7 @@
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="11" t="s">
         <v>171</v>
       </c>
       <c r="E19" t="s">
@@ -2915,7 +3027,7 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="11" t="s">
         <v>166</v>
       </c>
       <c r="E20" t="s">
@@ -2944,7 +3056,7 @@
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="11" t="s">
         <v>167</v>
       </c>
       <c r="E21" t="s">
@@ -2973,7 +3085,7 @@
       <c r="B22">
         <v>1</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="11" t="s">
         <v>168</v>
       </c>
       <c r="E22" t="s">
@@ -3002,7 +3114,7 @@
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="11" t="s">
         <v>169</v>
       </c>
       <c r="E23" t="s">
@@ -3031,7 +3143,7 @@
       <c r="B24">
         <v>1</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="11" t="s">
         <v>170</v>
       </c>
       <c r="E24" t="s">
@@ -3060,7 +3172,7 @@
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="11" t="s">
         <v>172</v>
       </c>
       <c r="H25">
@@ -3086,7 +3198,7 @@
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="11" t="s">
         <v>173</v>
       </c>
       <c r="H26">
@@ -3112,7 +3224,7 @@
       <c r="B27">
         <v>1</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="11" t="s">
         <v>174</v>
       </c>
       <c r="H27">
@@ -3138,7 +3250,7 @@
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="11" t="s">
         <v>175</v>
       </c>
       <c r="H28">
@@ -3164,7 +3276,7 @@
       <c r="B29">
         <v>1</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="11" t="s">
         <v>176</v>
       </c>
       <c r="H29">
@@ -3190,7 +3302,7 @@
       <c r="B30">
         <v>1</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="11" t="s">
         <v>177</v>
       </c>
       <c r="H30">
@@ -3216,7 +3328,7 @@
       <c r="B31">
         <v>1</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="11" t="s">
         <v>178</v>
       </c>
       <c r="H31">
@@ -3242,7 +3354,7 @@
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="11" t="s">
         <v>179</v>
       </c>
       <c r="H32">
@@ -3268,7 +3380,7 @@
       <c r="B33">
         <v>1</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="11" t="s">
         <v>180</v>
       </c>
       <c r="H33">
@@ -3294,7 +3406,7 @@
       <c r="B34">
         <v>1</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="11" t="s">
         <v>181</v>
       </c>
       <c r="E34" t="s">
@@ -3323,7 +3435,7 @@
       <c r="B35">
         <v>1</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="11" t="s">
         <v>182</v>
       </c>
       <c r="E35" t="s">
@@ -3352,7 +3464,7 @@
       <c r="B36">
         <v>1</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="11" t="s">
         <v>183</v>
       </c>
       <c r="E36" t="s">
@@ -3381,7 +3493,7 @@
       <c r="B37">
         <v>1</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="11" t="s">
         <v>184</v>
       </c>
       <c r="E37" t="s">
@@ -3410,7 +3522,7 @@
       <c r="B38">
         <v>1</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="11" t="s">
         <v>185</v>
       </c>
       <c r="E38" t="s">
@@ -3439,7 +3551,7 @@
       <c r="B39">
         <v>1</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="11" t="s">
         <v>186</v>
       </c>
       <c r="E39" t="s">
@@ -3468,7 +3580,7 @@
       <c r="B40">
         <v>1</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="11" t="s">
         <v>187</v>
       </c>
       <c r="E40" t="s">
@@ -3497,7 +3609,7 @@
       <c r="B41">
         <v>1</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="11" t="s">
         <v>188</v>
       </c>
       <c r="E41" t="s">
@@ -3526,7 +3638,7 @@
       <c r="B42">
         <v>1</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="11" t="s">
         <v>189</v>
       </c>
       <c r="E42" t="s">
@@ -3555,7 +3667,7 @@
       <c r="B43">
         <v>1</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="11" t="s">
         <v>190</v>
       </c>
       <c r="E43" t="s">
@@ -3584,7 +3696,7 @@
       <c r="B44">
         <v>1</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="11" t="s">
         <v>191</v>
       </c>
       <c r="E44" t="s">
@@ -3613,7 +3725,7 @@
       <c r="B45">
         <v>1</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="11" t="s">
         <v>192</v>
       </c>
       <c r="E45" t="s">
@@ -3642,7 +3754,7 @@
       <c r="B46">
         <v>1</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="11" t="s">
         <v>193</v>
       </c>
       <c r="H46">
@@ -3668,7 +3780,7 @@
       <c r="B47">
         <v>1</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="11" t="s">
         <v>194</v>
       </c>
       <c r="H47">
@@ -3694,7 +3806,7 @@
       <c r="B48">
         <v>1</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="11" t="s">
         <v>195</v>
       </c>
       <c r="H48">
@@ -3720,7 +3832,7 @@
       <c r="B49">
         <v>1</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="11" t="s">
         <v>196</v>
       </c>
       <c r="H49">
@@ -3746,7 +3858,7 @@
       <c r="B50">
         <v>1</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="11" t="s">
         <v>197</v>
       </c>
       <c r="H50">
@@ -3772,7 +3884,7 @@
       <c r="B51">
         <v>1</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="11" t="s">
         <v>198</v>
       </c>
       <c r="H51">
@@ -3798,7 +3910,7 @@
       <c r="B52">
         <v>1</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="11" t="s">
         <v>199</v>
       </c>
       <c r="H52">
@@ -3824,7 +3936,7 @@
       <c r="B53">
         <v>1</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="11" t="s">
         <v>200</v>
       </c>
       <c r="H53">
@@ -3850,7 +3962,7 @@
       <c r="B54">
         <v>1</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="11" t="s">
         <v>201</v>
       </c>
       <c r="H54">
@@ -3876,7 +3988,7 @@
       <c r="B55">
         <v>1</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="11" t="s">
         <v>202</v>
       </c>
       <c r="H55">
@@ -3902,7 +4014,7 @@
       <c r="B56">
         <v>1</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="11" t="s">
         <v>203</v>
       </c>
       <c r="H56">
@@ -3928,7 +4040,7 @@
       <c r="B57">
         <v>1</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="11" t="s">
         <v>204</v>
       </c>
       <c r="H57">
@@ -3954,7 +4066,7 @@
       <c r="B58">
         <v>1</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="11" t="s">
         <v>205</v>
       </c>
       <c r="H58">
@@ -3980,7 +4092,7 @@
       <c r="B59">
         <v>1</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="11" t="s">
         <v>206</v>
       </c>
       <c r="H59">
@@ -4006,7 +4118,7 @@
       <c r="B60">
         <v>1</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="11" t="s">
         <v>207</v>
       </c>
       <c r="H60">
@@ -4032,7 +4144,7 @@
       <c r="B61">
         <v>1</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="11" t="s">
         <v>208</v>
       </c>
       <c r="H61">
@@ -4058,7 +4170,7 @@
       <c r="B62">
         <v>1</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="11" t="s">
         <v>209</v>
       </c>
       <c r="H62">
@@ -4084,7 +4196,7 @@
       <c r="B63">
         <v>1</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="11" t="s">
         <v>210</v>
       </c>
       <c r="H63">
@@ -4110,7 +4222,7 @@
       <c r="B64">
         <v>1</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="11" t="s">
         <v>211</v>
       </c>
       <c r="H64">
@@ -4136,7 +4248,7 @@
       <c r="B65">
         <v>1</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="11" t="s">
         <v>212</v>
       </c>
       <c r="H65">
@@ -4162,7 +4274,7 @@
       <c r="B66">
         <v>1</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="11" t="s">
         <v>213</v>
       </c>
       <c r="H66">
@@ -4188,7 +4300,7 @@
       <c r="B67">
         <v>1</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="11" t="s">
         <v>214</v>
       </c>
       <c r="H67">
@@ -4214,7 +4326,7 @@
       <c r="B68">
         <v>1</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="11" t="s">
         <v>215</v>
       </c>
       <c r="H68">
@@ -4240,7 +4352,7 @@
       <c r="B69">
         <v>1</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="11" t="s">
         <v>216</v>
       </c>
       <c r="H69">
@@ -4266,7 +4378,7 @@
       <c r="B70">
         <v>1</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="11" t="s">
         <v>217</v>
       </c>
       <c r="H70">
@@ -4292,7 +4404,7 @@
       <c r="B71">
         <v>1</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="11" t="s">
         <v>218</v>
       </c>
       <c r="H71">
@@ -4318,7 +4430,7 @@
       <c r="B72">
         <v>1</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="11" t="s">
         <v>219</v>
       </c>
       <c r="H72">
@@ -4344,7 +4456,7 @@
       <c r="B73">
         <v>1</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="11" t="s">
         <v>220</v>
       </c>
       <c r="H73">
@@ -4370,7 +4482,7 @@
       <c r="B74">
         <v>1</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="11" t="s">
         <v>221</v>
       </c>
       <c r="H74">
@@ -4396,7 +4508,7 @@
       <c r="B75">
         <v>1</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="11" t="s">
         <v>222</v>
       </c>
       <c r="H75">
@@ -4422,7 +4534,7 @@
       <c r="B76">
         <v>1</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="11" t="s">
         <v>223</v>
       </c>
       <c r="H76">
@@ -4448,7 +4560,7 @@
       <c r="B77">
         <v>1</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="11" t="s">
         <v>224</v>
       </c>
       <c r="H77">
@@ -4474,7 +4586,7 @@
       <c r="B78">
         <v>1</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="11" t="s">
         <v>225</v>
       </c>
       <c r="H78">
@@ -4500,7 +4612,7 @@
       <c r="B79">
         <v>1</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="11" t="s">
         <v>226</v>
       </c>
       <c r="H79">
@@ -4526,7 +4638,7 @@
       <c r="B80">
         <v>1</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="11" t="s">
         <v>227</v>
       </c>
       <c r="H80">
@@ -4552,7 +4664,7 @@
       <c r="B81">
         <v>1</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="11" t="s">
         <v>228</v>
       </c>
       <c r="H81">
@@ -4578,7 +4690,7 @@
       <c r="B82">
         <v>1</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="11" t="s">
         <v>229</v>
       </c>
       <c r="H82">
@@ -4604,7 +4716,7 @@
       <c r="B83">
         <v>1</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="11" t="s">
         <v>230</v>
       </c>
       <c r="H83">
@@ -4630,7 +4742,7 @@
       <c r="B84">
         <v>1</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="11" t="s">
         <v>231</v>
       </c>
       <c r="H84">
@@ -4656,7 +4768,7 @@
       <c r="B85">
         <v>1</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="11" t="s">
         <v>232</v>
       </c>
       <c r="H85">
@@ -4682,7 +4794,7 @@
       <c r="B86">
         <v>1</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="11" t="s">
         <v>233</v>
       </c>
       <c r="H86">
@@ -4708,7 +4820,7 @@
       <c r="B87">
         <v>1</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H87">
@@ -4734,7 +4846,7 @@
       <c r="B88">
         <v>1</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="11" t="s">
         <v>235</v>
       </c>
       <c r="H88">
@@ -4760,7 +4872,7 @@
       <c r="B89">
         <v>1</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="11" t="s">
         <v>236</v>
       </c>
       <c r="H89">
@@ -4786,7 +4898,7 @@
       <c r="B90">
         <v>1</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="11" t="s">
         <v>237</v>
       </c>
       <c r="H90">
@@ -4812,7 +4924,7 @@
       <c r="B91">
         <v>1</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="11" t="s">
         <v>238</v>
       </c>
       <c r="H91">
@@ -4838,7 +4950,7 @@
       <c r="B92">
         <v>1</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="11" t="s">
         <v>239</v>
       </c>
       <c r="H92">
@@ -4864,7 +4976,7 @@
       <c r="B93">
         <v>1</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="11" t="s">
         <v>240</v>
       </c>
       <c r="H93">
@@ -4890,7 +5002,7 @@
       <c r="B94">
         <v>1</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="11" t="s">
         <v>241</v>
       </c>
       <c r="H94">
@@ -4916,7 +5028,7 @@
       <c r="B95">
         <v>1</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="11" t="s">
         <v>242</v>
       </c>
       <c r="H95">
@@ -4942,7 +5054,7 @@
       <c r="B96">
         <v>1</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="11" t="s">
         <v>243</v>
       </c>
       <c r="H96">
@@ -4968,7 +5080,7 @@
       <c r="B97">
         <v>1</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="11" t="s">
         <v>244</v>
       </c>
       <c r="H97">
@@ -4994,7 +5106,7 @@
       <c r="B98">
         <v>1</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="11" t="s">
         <v>245</v>
       </c>
       <c r="H98">
@@ -5020,7 +5132,7 @@
       <c r="B99">
         <v>1</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="11" t="s">
         <v>246</v>
       </c>
       <c r="H99">
@@ -5046,7 +5158,7 @@
       <c r="B100">
         <v>1</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="11" t="s">
         <v>247</v>
       </c>
       <c r="H100">
@@ -5072,7 +5184,7 @@
       <c r="B101">
         <v>1</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="11" t="s">
         <v>248</v>
       </c>
       <c r="H101">
@@ -5098,7 +5210,7 @@
       <c r="B102">
         <v>1</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="11" t="s">
         <v>249</v>
       </c>
       <c r="H102">
@@ -5124,7 +5236,7 @@
       <c r="B103">
         <v>1</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="11" t="s">
         <v>250</v>
       </c>
       <c r="H103">
@@ -5150,7 +5262,7 @@
       <c r="B104">
         <v>1</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="11" t="s">
         <v>251</v>
       </c>
       <c r="H104">
@@ -5176,7 +5288,7 @@
       <c r="B105">
         <v>1</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="11" t="s">
         <v>252</v>
       </c>
       <c r="H105">
@@ -5202,7 +5314,7 @@
       <c r="B106">
         <v>1</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="11" t="s">
         <v>253</v>
       </c>
       <c r="H106">
@@ -5228,7 +5340,7 @@
       <c r="B107">
         <v>1</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="11" t="s">
         <v>254</v>
       </c>
       <c r="H107">
@@ -5254,7 +5366,7 @@
       <c r="B108">
         <v>1</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="11" t="s">
         <v>255</v>
       </c>
       <c r="H108">
@@ -5280,7 +5392,7 @@
       <c r="B109">
         <v>1</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="11" t="s">
         <v>256</v>
       </c>
       <c r="H109">
@@ -5306,7 +5418,7 @@
       <c r="B110">
         <v>1</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="11" t="s">
         <v>257</v>
       </c>
       <c r="H110">
@@ -5332,7 +5444,7 @@
       <c r="B111">
         <v>1</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="11" t="s">
         <v>258</v>
       </c>
       <c r="H111">
@@ -5358,7 +5470,7 @@
       <c r="B112">
         <v>1</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="11" t="s">
         <v>259</v>
       </c>
       <c r="H112">
@@ -5384,7 +5496,7 @@
       <c r="B113">
         <v>1</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="11" t="s">
         <v>260</v>
       </c>
       <c r="H113">
@@ -5410,7 +5522,7 @@
       <c r="B114">
         <v>1</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="11" t="s">
         <v>261</v>
       </c>
       <c r="H114">
@@ -5436,7 +5548,7 @@
       <c r="B115">
         <v>1</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="11" t="s">
         <v>262</v>
       </c>
       <c r="H115">
@@ -5462,7 +5574,7 @@
       <c r="B116">
         <v>1</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="11" t="s">
         <v>263</v>
       </c>
       <c r="H116">
@@ -5488,7 +5600,7 @@
       <c r="B117">
         <v>3</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="11" t="s">
         <v>264</v>
       </c>
       <c r="H117">
@@ -5520,7 +5632,7 @@
       <c r="B118">
         <v>3</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="11" t="s">
         <v>265</v>
       </c>
       <c r="H118">
@@ -5552,7 +5664,7 @@
       <c r="B119">
         <v>3</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="11" t="s">
         <v>266</v>
       </c>
       <c r="H119">
@@ -5584,7 +5696,7 @@
       <c r="B120">
         <v>3</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="11" t="s">
         <v>267</v>
       </c>
       <c r="H120">
@@ -5616,7 +5728,7 @@
       <c r="B121">
         <v>3</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="11" t="s">
         <v>268</v>
       </c>
       <c r="H121">
@@ -5648,7 +5760,7 @@
       <c r="B122">
         <v>3</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="11" t="s">
         <v>269</v>
       </c>
       <c r="H122">
@@ -5680,7 +5792,7 @@
       <c r="B123">
         <v>4</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="11" t="s">
         <v>270</v>
       </c>
       <c r="G123" t="s">
@@ -5715,7 +5827,7 @@
       <c r="B124">
         <v>4</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="11" t="s">
         <v>271</v>
       </c>
       <c r="G124" t="s">
@@ -5750,7 +5862,7 @@
       <c r="B125">
         <v>4</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="11" t="s">
         <v>272</v>
       </c>
       <c r="G125" t="s">
@@ -5785,7 +5897,7 @@
       <c r="B126">
         <v>4</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="11" t="s">
         <v>273</v>
       </c>
       <c r="G126" t="s">
@@ -5820,7 +5932,7 @@
       <c r="B127">
         <v>4</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="11" t="s">
         <v>274</v>
       </c>
       <c r="G127" t="s">
@@ -5855,7 +5967,7 @@
       <c r="B128">
         <v>4</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="11" t="s">
         <v>275</v>
       </c>
       <c r="G128" t="s">
@@ -5893,7 +6005,7 @@
       <c r="B129">
         <v>4</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="11" t="s">
         <v>276</v>
       </c>
       <c r="G129" t="s">
@@ -5931,7 +6043,7 @@
       <c r="B130">
         <v>1</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="11" t="s">
         <v>277</v>
       </c>
       <c r="H130">
@@ -5957,7 +6069,7 @@
       <c r="B131">
         <v>1</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="11" t="s">
         <v>278</v>
       </c>
       <c r="H131">
@@ -5983,7 +6095,7 @@
       <c r="B132">
         <v>1</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="11" t="s">
         <v>279</v>
       </c>
       <c r="H132">
@@ -6009,7 +6121,7 @@
       <c r="B133">
         <v>1</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="11" t="s">
         <v>280</v>
       </c>
       <c r="H133">
@@ -6035,7 +6147,7 @@
       <c r="B134">
         <v>1</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="11" t="s">
         <v>281</v>
       </c>
       <c r="H134">
@@ -6061,7 +6173,7 @@
       <c r="B135">
         <v>1</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="11" t="s">
         <v>282</v>
       </c>
       <c r="H135">
@@ -6087,7 +6199,7 @@
       <c r="B136">
         <v>1</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="11" t="s">
         <v>283</v>
       </c>
       <c r="H136">
@@ -6113,7 +6225,7 @@
       <c r="B137">
         <v>1</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="11" t="s">
         <v>284</v>
       </c>
       <c r="H137">
@@ -6139,7 +6251,7 @@
       <c r="B138">
         <v>1</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="11" t="s">
         <v>285</v>
       </c>
       <c r="H138">
@@ -6165,7 +6277,7 @@
       <c r="B139">
         <v>1</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="11" t="s">
         <v>286</v>
       </c>
       <c r="H139">
@@ -6191,7 +6303,7 @@
       <c r="B140">
         <v>1</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="11" t="s">
         <v>287</v>
       </c>
       <c r="H140">
@@ -6217,7 +6329,7 @@
       <c r="B141">
         <v>1</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="11" t="s">
         <v>288</v>
       </c>
       <c r="H141">
@@ -6243,7 +6355,7 @@
       <c r="B142">
         <v>1</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="11" t="s">
         <v>289</v>
       </c>
       <c r="H142">
@@ -6269,7 +6381,7 @@
       <c r="B143">
         <v>1</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="11" t="s">
         <v>290</v>
       </c>
       <c r="H143">
@@ -6295,7 +6407,7 @@
       <c r="B144">
         <v>1</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="11" t="s">
         <v>291</v>
       </c>
       <c r="H144">
@@ -6321,7 +6433,7 @@
       <c r="B145">
         <v>1</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="11" t="s">
         <v>292</v>
       </c>
       <c r="H145">
@@ -6347,7 +6459,7 @@
       <c r="B146">
         <v>1</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="11" t="s">
         <v>293</v>
       </c>
       <c r="H146">
@@ -6373,7 +6485,7 @@
       <c r="B147">
         <v>1</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="11" t="s">
         <v>294</v>
       </c>
       <c r="H147">
@@ -6399,7 +6511,7 @@
       <c r="B148">
         <v>1</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="11" t="s">
         <v>295</v>
       </c>
       <c r="H148">
@@ -6425,7 +6537,7 @@
       <c r="B149">
         <v>1</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="11" t="s">
         <v>296</v>
       </c>
       <c r="H149">
@@ -6451,7 +6563,7 @@
       <c r="B150">
         <v>1</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="11" t="s">
         <v>297</v>
       </c>
       <c r="H150" s="3" t="s">
@@ -6474,7 +6586,7 @@
       <c r="B151">
         <v>1</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C151" s="11" t="s">
         <v>298</v>
       </c>
       <c r="E151" t="s">
@@ -6503,7 +6615,7 @@
       <c r="B152">
         <v>1</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C152" s="11" t="s">
         <v>299</v>
       </c>
       <c r="E152" t="s">
@@ -6532,7 +6644,7 @@
       <c r="B153">
         <v>1</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="11" t="s">
         <v>300</v>
       </c>
       <c r="E153" t="s">
@@ -6561,7 +6673,7 @@
       <c r="B154">
         <v>1</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154" s="11" t="s">
         <v>301</v>
       </c>
       <c r="E154" t="s">
@@ -6590,7 +6702,7 @@
       <c r="B155">
         <v>1</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C155" s="11" t="s">
         <v>302</v>
       </c>
       <c r="E155" t="s">
@@ -6619,7 +6731,7 @@
       <c r="B156">
         <v>1</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C156" s="11" t="s">
         <v>303</v>
       </c>
       <c r="E156" t="s">
@@ -6648,7 +6760,7 @@
       <c r="B157">
         <v>1</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C157" s="11" t="s">
         <v>304</v>
       </c>
       <c r="E157" t="s">
@@ -6677,7 +6789,7 @@
       <c r="B158">
         <v>1</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C158" s="11" t="s">
         <v>305</v>
       </c>
       <c r="E158" t="s">
@@ -6706,7 +6818,7 @@
       <c r="B159">
         <v>1</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C159" s="11" t="s">
         <v>306</v>
       </c>
       <c r="E159" t="s">
@@ -6735,7 +6847,7 @@
       <c r="B160">
         <v>1</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C160" s="11" t="s">
         <v>307</v>
       </c>
       <c r="E160" t="s">
@@ -6764,7 +6876,7 @@
       <c r="B161">
         <v>1</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C161" s="11" t="s">
         <v>308</v>
       </c>
       <c r="E161" t="s">
@@ -6793,7 +6905,7 @@
       <c r="B162">
         <v>1</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C162" s="11" t="s">
         <v>309</v>
       </c>
       <c r="E162" t="s">
@@ -6822,7 +6934,7 @@
       <c r="B163">
         <v>1</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C163" s="11" t="s">
         <v>310</v>
       </c>
       <c r="H163">
@@ -6848,7 +6960,7 @@
       <c r="B164">
         <v>1</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C164" s="11" t="s">
         <v>311</v>
       </c>
       <c r="H164">
@@ -6874,7 +6986,7 @@
       <c r="B165">
         <v>1</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C165" s="11" t="s">
         <v>312</v>
       </c>
       <c r="H165">
@@ -6900,7 +7012,7 @@
       <c r="B166">
         <v>1</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C166" s="11" t="s">
         <v>313</v>
       </c>
       <c r="H166">
@@ -6926,7 +7038,7 @@
       <c r="B167">
         <v>1</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C167" s="11" t="s">
         <v>314</v>
       </c>
       <c r="H167">
@@ -6952,7 +7064,7 @@
       <c r="B168">
         <v>1</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C168" s="11" t="s">
         <v>315</v>
       </c>
       <c r="H168">
@@ -6978,7 +7090,7 @@
       <c r="B169">
         <v>1</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C169" s="11" t="s">
         <v>316</v>
       </c>
       <c r="H169">
@@ -7004,7 +7116,7 @@
       <c r="B170">
         <v>1</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C170" s="11" t="s">
         <v>317</v>
       </c>
       <c r="H170">
@@ -7030,7 +7142,7 @@
       <c r="B171">
         <v>1</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C171" s="11" t="s">
         <v>318</v>
       </c>
       <c r="H171">
@@ -7056,7 +7168,7 @@
       <c r="B172">
         <v>1</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C172" s="11" t="s">
         <v>319</v>
       </c>
       <c r="H172">
@@ -7082,7 +7194,7 @@
       <c r="B173">
         <v>1</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C173" s="11" t="s">
         <v>320</v>
       </c>
       <c r="H173">
@@ -7108,7 +7220,7 @@
       <c r="B174">
         <v>1</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C174" s="11" t="s">
         <v>321</v>
       </c>
       <c r="H174">
@@ -7134,7 +7246,7 @@
       <c r="B175">
         <v>1</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C175" s="11" t="s">
         <v>322</v>
       </c>
       <c r="H175">
@@ -7160,7 +7272,7 @@
       <c r="B176">
         <v>1</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C176" s="11" t="s">
         <v>323</v>
       </c>
       <c r="H176">
@@ -7186,7 +7298,7 @@
       <c r="B177">
         <v>1</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C177" s="11" t="s">
         <v>324</v>
       </c>
       <c r="H177">
@@ -7212,7 +7324,7 @@
       <c r="B178">
         <v>1</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C178" s="11" t="s">
         <v>325</v>
       </c>
       <c r="H178">
@@ -7238,7 +7350,7 @@
       <c r="B179">
         <v>1</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C179" s="11" t="s">
         <v>326</v>
       </c>
       <c r="H179">
@@ -7264,7 +7376,7 @@
       <c r="B180">
         <v>1</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C180" s="11" t="s">
         <v>327</v>
       </c>
       <c r="H180">
@@ -7290,7 +7402,7 @@
       <c r="B181">
         <v>1</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C181" s="11" t="s">
         <v>328</v>
       </c>
       <c r="H181">
@@ -7316,7 +7428,7 @@
       <c r="B182">
         <v>1</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C182" s="11" t="s">
         <v>329</v>
       </c>
       <c r="H182">
@@ -7342,7 +7454,7 @@
       <c r="B183">
         <v>1</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C183" s="11" t="s">
         <v>330</v>
       </c>
       <c r="H183">
@@ -7368,7 +7480,7 @@
       <c r="B184" s="22">
         <v>1</v>
       </c>
-      <c r="C184" s="22" t="s">
+      <c r="C184" s="26" t="s">
         <v>364</v>
       </c>
       <c r="H184" s="22">
@@ -7394,7 +7506,7 @@
       <c r="B185" s="22">
         <v>1</v>
       </c>
-      <c r="C185" s="22" t="s">
+      <c r="C185" s="26" t="s">
         <v>365</v>
       </c>
       <c r="H185" s="22">
@@ -7420,7 +7532,7 @@
       <c r="B186" s="22">
         <v>1</v>
       </c>
-      <c r="C186" s="22" t="s">
+      <c r="C186" s="26" t="s">
         <v>366</v>
       </c>
       <c r="H186" s="22">
@@ -7446,7 +7558,7 @@
       <c r="B187" s="22">
         <v>1</v>
       </c>
-      <c r="C187" s="22" t="s">
+      <c r="C187" s="26" t="s">
         <v>367</v>
       </c>
       <c r="H187" s="22">
@@ -7472,7 +7584,7 @@
       <c r="B188" s="22">
         <v>1</v>
       </c>
-      <c r="C188" s="22" t="s">
+      <c r="C188" s="26" t="s">
         <v>368</v>
       </c>
       <c r="H188" s="22">
@@ -7498,7 +7610,7 @@
       <c r="B189" s="22">
         <v>1</v>
       </c>
-      <c r="C189" s="22" t="s">
+      <c r="C189" s="26" t="s">
         <v>369</v>
       </c>
       <c r="H189" s="22">
@@ -7524,7 +7636,7 @@
       <c r="B190" s="22">
         <v>1</v>
       </c>
-      <c r="C190" s="22" t="s">
+      <c r="C190" s="26" t="s">
         <v>370</v>
       </c>
       <c r="H190" s="22">
@@ -7550,7 +7662,7 @@
       <c r="B191" s="22">
         <v>1</v>
       </c>
-      <c r="C191" s="22" t="s">
+      <c r="C191" s="26" t="s">
         <v>371</v>
       </c>
       <c r="H191" s="22">
@@ -7576,7 +7688,7 @@
       <c r="B192" s="22">
         <v>1</v>
       </c>
-      <c r="C192" s="22" t="s">
+      <c r="C192" s="26" t="s">
         <v>372</v>
       </c>
       <c r="H192" s="22">
@@ -7602,7 +7714,7 @@
       <c r="B193" s="22">
         <v>1</v>
       </c>
-      <c r="C193" s="22" t="s">
+      <c r="C193" s="26" t="s">
         <v>373</v>
       </c>
       <c r="H193" s="22">
@@ -7628,7 +7740,7 @@
       <c r="B194" s="22">
         <v>1</v>
       </c>
-      <c r="C194" s="22" t="s">
+      <c r="C194" s="26" t="s">
         <v>382</v>
       </c>
       <c r="H194" s="22">
@@ -7654,7 +7766,7 @@
       <c r="B195" s="22">
         <v>1</v>
       </c>
-      <c r="C195" s="22" t="s">
+      <c r="C195" s="26" t="s">
         <v>383</v>
       </c>
       <c r="H195" s="22">
@@ -7680,7 +7792,7 @@
       <c r="B196" s="22">
         <v>1</v>
       </c>
-      <c r="C196" s="22" t="s">
+      <c r="C196" s="26" t="s">
         <v>384</v>
       </c>
       <c r="H196" s="22">
@@ -7706,7 +7818,7 @@
       <c r="B197" s="22">
         <v>1</v>
       </c>
-      <c r="C197" s="22" t="s">
+      <c r="C197" s="26" t="s">
         <v>385</v>
       </c>
       <c r="H197" s="22">
@@ -7732,7 +7844,7 @@
       <c r="B198" s="22">
         <v>1</v>
       </c>
-      <c r="C198" s="22" t="s">
+      <c r="C198" s="26" t="s">
         <v>386</v>
       </c>
       <c r="H198" s="22">
@@ -7758,7 +7870,7 @@
       <c r="B199" s="22">
         <v>1</v>
       </c>
-      <c r="C199" s="22" t="s">
+      <c r="C199" s="26" t="s">
         <v>387</v>
       </c>
       <c r="H199" s="22">
@@ -7784,7 +7896,7 @@
       <c r="B200" s="22">
         <v>1</v>
       </c>
-      <c r="C200" s="22" t="s">
+      <c r="C200" s="26" t="s">
         <v>388</v>
       </c>
       <c r="H200" s="22">
@@ -7810,7 +7922,7 @@
       <c r="B201" s="22">
         <v>1</v>
       </c>
-      <c r="C201" s="22" t="s">
+      <c r="C201" s="26" t="s">
         <v>389</v>
       </c>
       <c r="H201" s="22">
@@ -7836,7 +7948,7 @@
       <c r="B202" s="17">
         <v>1</v>
       </c>
-      <c r="C202" s="17" t="s">
+      <c r="C202" s="21" t="s">
         <v>392</v>
       </c>
       <c r="D202" s="17"/>
@@ -7872,7 +7984,7 @@
       <c r="B203" s="17">
         <v>1</v>
       </c>
-      <c r="C203" s="17" t="s">
+      <c r="C203" s="21" t="s">
         <v>393</v>
       </c>
       <c r="D203" s="17"/>
@@ -7908,7 +8020,7 @@
       <c r="B204" s="17">
         <v>1</v>
       </c>
-      <c r="C204" s="17" t="s">
+      <c r="C204" s="21" t="s">
         <v>394</v>
       </c>
       <c r="D204" s="17"/>
@@ -7944,7 +8056,7 @@
       <c r="B205" s="17">
         <v>1</v>
       </c>
-      <c r="C205" s="17" t="s">
+      <c r="C205" s="21" t="s">
         <v>395</v>
       </c>
       <c r="D205" s="17"/>
@@ -7980,7 +8092,7 @@
       <c r="B206" s="17">
         <v>1</v>
       </c>
-      <c r="C206" s="17" t="s">
+      <c r="C206" s="21" t="s">
         <v>396</v>
       </c>
       <c r="D206" s="17"/>
@@ -8016,7 +8128,7 @@
       <c r="B207" s="17">
         <v>1</v>
       </c>
-      <c r="C207" s="17" t="s">
+      <c r="C207" s="21" t="s">
         <v>397</v>
       </c>
       <c r="D207" s="17"/>
@@ -8025,11 +8137,11 @@
       <c r="G207" s="17"/>
       <c r="H207" s="17">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q207,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R207,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S207,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T207,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U207,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V207,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W207,use_fish!A:A,use_fish!E:E),0),)</f>
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="I207" s="17">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q207,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R207,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S207,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T207,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U207,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V207,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W207,use_fish!A:A,use_fish!I:I),0),)</f>
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="J207" s="16">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q207,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R207,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S207,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T207,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U207,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V207,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W207,use_fish!A:A,use_fish!K:K),0),)</f>
@@ -8052,7 +8164,7 @@
       <c r="B208" s="17">
         <v>1</v>
       </c>
-      <c r="C208" s="17" t="s">
+      <c r="C208" s="21" t="s">
         <v>398</v>
       </c>
       <c r="D208" s="17"/>
@@ -8061,11 +8173,11 @@
       <c r="G208" s="17"/>
       <c r="H208" s="17">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q208,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R208,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S208,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T208,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U208,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V208,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W208,use_fish!A:A,use_fish!E:E),0),)</f>
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="I208" s="17">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q208,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R208,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S208,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T208,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U208,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V208,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W208,use_fish!A:A,use_fish!I:I),0),)</f>
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="J208" s="16">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q208,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R208,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S208,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T208,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U208,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V208,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W208,use_fish!A:A,use_fish!K:K),0),)</f>
@@ -8088,7 +8200,7 @@
       <c r="B209" s="17">
         <v>1</v>
       </c>
-      <c r="C209" s="17" t="s">
+      <c r="C209" s="21" t="s">
         <v>399</v>
       </c>
       <c r="D209" s="17"/>
@@ -8097,11 +8209,11 @@
       <c r="G209" s="17"/>
       <c r="H209" s="17">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q209,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R209,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S209,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T209,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U209,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V209,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W209,use_fish!A:A,use_fish!E:E),0),)</f>
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="I209" s="17">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q209,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R209,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S209,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T209,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U209,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V209,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W209,use_fish!A:A,use_fish!I:I),0),)</f>
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="J209" s="16">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q209,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R209,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S209,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T209,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U209,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V209,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W209,use_fish!A:A,use_fish!K:K),0),)</f>
@@ -8116,6 +8228,622 @@
       <c r="Q209" s="21">
         <v>182</v>
       </c>
+    </row>
+    <row r="210" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="27">
+        <v>209</v>
+      </c>
+      <c r="B210" s="27">
+        <v>1</v>
+      </c>
+      <c r="C210" s="32" t="s">
+        <v>409</v>
+      </c>
+      <c r="D210" s="27"/>
+      <c r="E210" s="27"/>
+      <c r="F210" s="27"/>
+      <c r="G210" s="27"/>
+      <c r="H210" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q210,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R210,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S210,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T210,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U210,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V210,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W210,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>30</v>
+      </c>
+      <c r="I210" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q210,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R210,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S210,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T210,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U210,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V210,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W210,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>30</v>
+      </c>
+      <c r="J210" s="29">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q210,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R210,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S210,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T210,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U210,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V210,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W210,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K210" s="27"/>
+      <c r="L210" s="27"/>
+      <c r="M210" s="27"/>
+      <c r="N210" s="27"/>
+      <c r="O210" s="27"/>
+      <c r="P210" s="27"/>
+      <c r="Q210" s="32">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="211" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="27">
+        <v>210</v>
+      </c>
+      <c r="B211" s="27">
+        <v>1</v>
+      </c>
+      <c r="C211" s="32" t="s">
+        <v>410</v>
+      </c>
+      <c r="D211" s="27"/>
+      <c r="E211" s="27"/>
+      <c r="F211" s="27"/>
+      <c r="G211" s="27"/>
+      <c r="H211" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q211,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R211,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S211,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T211,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U211,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V211,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W211,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>40</v>
+      </c>
+      <c r="I211" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q211,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R211,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S211,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T211,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U211,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V211,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W211,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>40</v>
+      </c>
+      <c r="J211" s="29">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q211,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R211,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S211,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T211,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U211,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V211,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W211,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K211" s="27"/>
+      <c r="L211" s="27"/>
+      <c r="M211" s="27"/>
+      <c r="N211" s="27"/>
+      <c r="O211" s="27"/>
+      <c r="P211" s="27"/>
+      <c r="Q211" s="32">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="212" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="27">
+        <v>211</v>
+      </c>
+      <c r="B212" s="27">
+        <v>1</v>
+      </c>
+      <c r="C212" s="32" t="s">
+        <v>411</v>
+      </c>
+      <c r="D212" s="27"/>
+      <c r="E212" s="27"/>
+      <c r="F212" s="27"/>
+      <c r="G212" s="27"/>
+      <c r="H212" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q212,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R212,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S212,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T212,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U212,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V212,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W212,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>50</v>
+      </c>
+      <c r="I212" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q212,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R212,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S212,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T212,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U212,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V212,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W212,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>50</v>
+      </c>
+      <c r="J212" s="29">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q212,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R212,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S212,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T212,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U212,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V212,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W212,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K212" s="27"/>
+      <c r="L212" s="27"/>
+      <c r="M212" s="27"/>
+      <c r="N212" s="27"/>
+      <c r="O212" s="27"/>
+      <c r="P212" s="27"/>
+      <c r="Q212" s="32">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="213" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="27">
+        <v>212</v>
+      </c>
+      <c r="B213" s="27">
+        <v>1</v>
+      </c>
+      <c r="C213" s="32" t="s">
+        <v>412</v>
+      </c>
+      <c r="D213" s="27"/>
+      <c r="E213" s="27"/>
+      <c r="F213" s="27"/>
+      <c r="G213" s="27"/>
+      <c r="H213" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q213,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R213,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S213,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T213,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U213,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V213,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W213,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>60</v>
+      </c>
+      <c r="I213" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q213,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R213,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S213,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T213,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U213,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V213,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W213,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>60</v>
+      </c>
+      <c r="J213" s="29">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q213,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R213,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S213,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T213,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U213,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V213,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W213,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K213" s="27"/>
+      <c r="L213" s="27"/>
+      <c r="M213" s="27"/>
+      <c r="N213" s="27"/>
+      <c r="O213" s="27"/>
+      <c r="P213" s="27"/>
+      <c r="Q213" s="32">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="214" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="27">
+        <v>213</v>
+      </c>
+      <c r="B214" s="27">
+        <v>1</v>
+      </c>
+      <c r="C214" s="32" t="s">
+        <v>413</v>
+      </c>
+      <c r="D214" s="27"/>
+      <c r="E214" s="27"/>
+      <c r="F214" s="27"/>
+      <c r="G214" s="27"/>
+      <c r="H214" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q214,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R214,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S214,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T214,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U214,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V214,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W214,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>70</v>
+      </c>
+      <c r="I214" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q214,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R214,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S214,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T214,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U214,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V214,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W214,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>70</v>
+      </c>
+      <c r="J214" s="29">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q214,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R214,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S214,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T214,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U214,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V214,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W214,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K214" s="27"/>
+      <c r="L214" s="27"/>
+      <c r="M214" s="27"/>
+      <c r="N214" s="27"/>
+      <c r="O214" s="27"/>
+      <c r="P214" s="27"/>
+      <c r="Q214" s="32">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="215" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="27">
+        <v>214</v>
+      </c>
+      <c r="B215" s="27">
+        <v>1</v>
+      </c>
+      <c r="C215" s="32" t="s">
+        <v>414</v>
+      </c>
+      <c r="D215" s="27"/>
+      <c r="E215" s="27"/>
+      <c r="F215" s="27"/>
+      <c r="G215" s="27"/>
+      <c r="H215" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q215,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R215,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S215,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T215,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U215,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V215,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W215,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>250</v>
+      </c>
+      <c r="I215" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q215,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R215,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S215,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T215,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U215,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V215,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W215,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>250</v>
+      </c>
+      <c r="J215" s="29">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q215,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R215,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S215,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T215,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U215,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V215,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W215,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K215" s="27"/>
+      <c r="L215" s="27"/>
+      <c r="M215" s="27"/>
+      <c r="N215" s="27"/>
+      <c r="O215" s="27"/>
+      <c r="P215" s="27"/>
+      <c r="Q215" s="32">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="216" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A216" s="27">
+        <v>215</v>
+      </c>
+      <c r="B216" s="27">
+        <v>1</v>
+      </c>
+      <c r="C216" s="32" t="s">
+        <v>415</v>
+      </c>
+      <c r="D216" s="27"/>
+      <c r="E216" s="27"/>
+      <c r="F216" s="27"/>
+      <c r="G216" s="27"/>
+      <c r="H216" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q216,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R216,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S216,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T216,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U216,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V216,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W216,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>350</v>
+      </c>
+      <c r="I216" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q216,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R216,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S216,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T216,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U216,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V216,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W216,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>350</v>
+      </c>
+      <c r="J216" s="29">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q216,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R216,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S216,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T216,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U216,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V216,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W216,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K216" s="27"/>
+      <c r="L216" s="27"/>
+      <c r="M216" s="27"/>
+      <c r="N216" s="27"/>
+      <c r="O216" s="27"/>
+      <c r="P216" s="27"/>
+      <c r="Q216" s="32">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="217" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A217" s="27">
+        <v>216</v>
+      </c>
+      <c r="B217" s="27">
+        <v>1</v>
+      </c>
+      <c r="C217" s="32" t="s">
+        <v>416</v>
+      </c>
+      <c r="D217" s="27"/>
+      <c r="E217" s="27"/>
+      <c r="F217" s="27"/>
+      <c r="G217" s="27"/>
+      <c r="H217" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q217,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R217,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S217,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T217,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U217,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V217,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W217,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>450</v>
+      </c>
+      <c r="I217" s="27">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q217,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R217,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S217,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T217,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U217,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V217,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W217,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>450</v>
+      </c>
+      <c r="J217" s="29">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q217,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R217,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S217,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T217,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U217,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V217,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W217,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K217" s="27"/>
+      <c r="L217" s="27"/>
+      <c r="M217" s="27"/>
+      <c r="N217" s="27"/>
+      <c r="O217" s="27"/>
+      <c r="P217" s="27"/>
+      <c r="Q217" s="32">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="218" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A218" s="33">
+        <v>217</v>
+      </c>
+      <c r="B218" s="33">
+        <v>1</v>
+      </c>
+      <c r="C218" s="38" t="s">
+        <v>421</v>
+      </c>
+      <c r="D218" s="33"/>
+      <c r="E218" s="33"/>
+      <c r="F218" s="33"/>
+      <c r="G218" s="33"/>
+      <c r="H218" s="33">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q218,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R218,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S218,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T218,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U218,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V218,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W218,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>30</v>
+      </c>
+      <c r="I218" s="33">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q218,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R218,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S218,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T218,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U218,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V218,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W218,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>30</v>
+      </c>
+      <c r="J218" s="36">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q218,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R218,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S218,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T218,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U218,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V218,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W218,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K218" s="33"/>
+      <c r="L218" s="33"/>
+      <c r="M218" s="33"/>
+      <c r="N218" s="33"/>
+      <c r="O218" s="33"/>
+      <c r="P218" s="33"/>
+      <c r="Q218" s="38">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="219" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="33">
+        <v>218</v>
+      </c>
+      <c r="B219" s="33">
+        <v>1</v>
+      </c>
+      <c r="C219" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="D219" s="33"/>
+      <c r="E219" s="33"/>
+      <c r="F219" s="33"/>
+      <c r="G219" s="33"/>
+      <c r="H219" s="33">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q219,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R219,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S219,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T219,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U219,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V219,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W219,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>40</v>
+      </c>
+      <c r="I219" s="33">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q219,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R219,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S219,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T219,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U219,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V219,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W219,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>40</v>
+      </c>
+      <c r="J219" s="36">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q219,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R219,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S219,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T219,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U219,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V219,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W219,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K219" s="33"/>
+      <c r="L219" s="33"/>
+      <c r="M219" s="33"/>
+      <c r="N219" s="33"/>
+      <c r="O219" s="33"/>
+      <c r="P219" s="33"/>
+      <c r="Q219" s="38">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="220" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="33">
+        <v>219</v>
+      </c>
+      <c r="B220" s="33">
+        <v>1</v>
+      </c>
+      <c r="C220" s="38" t="s">
+        <v>423</v>
+      </c>
+      <c r="D220" s="33"/>
+      <c r="E220" s="33"/>
+      <c r="F220" s="33"/>
+      <c r="G220" s="33"/>
+      <c r="H220" s="33">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q220,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R220,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S220,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T220,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U220,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V220,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W220,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>50</v>
+      </c>
+      <c r="I220" s="33">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q220,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R220,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S220,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T220,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U220,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V220,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W220,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>50</v>
+      </c>
+      <c r="J220" s="36">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q220,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R220,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S220,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T220,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U220,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V220,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W220,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K220" s="33"/>
+      <c r="L220" s="33"/>
+      <c r="M220" s="33"/>
+      <c r="N220" s="33"/>
+      <c r="O220" s="33"/>
+      <c r="P220" s="33"/>
+      <c r="Q220" s="38">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="221" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A221" s="33">
+        <v>220</v>
+      </c>
+      <c r="B221" s="33">
+        <v>1</v>
+      </c>
+      <c r="C221" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="D221" s="33"/>
+      <c r="E221" s="33"/>
+      <c r="F221" s="33"/>
+      <c r="G221" s="33"/>
+      <c r="H221" s="33">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q221,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R221,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S221,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T221,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U221,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V221,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W221,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>60</v>
+      </c>
+      <c r="I221" s="33">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q221,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R221,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S221,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T221,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U221,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V221,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W221,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>60</v>
+      </c>
+      <c r="J221" s="36">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q221,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R221,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S221,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T221,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U221,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V221,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W221,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K221" s="33"/>
+      <c r="L221" s="33"/>
+      <c r="M221" s="33"/>
+      <c r="N221" s="33"/>
+      <c r="O221" s="33"/>
+      <c r="P221" s="33"/>
+      <c r="Q221" s="38">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="222" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A222" s="33">
+        <v>221</v>
+      </c>
+      <c r="B222" s="33">
+        <v>1</v>
+      </c>
+      <c r="C222" s="38" t="s">
+        <v>425</v>
+      </c>
+      <c r="D222" s="33"/>
+      <c r="E222" s="33"/>
+      <c r="F222" s="33"/>
+      <c r="G222" s="33"/>
+      <c r="H222" s="33">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q222,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R222,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S222,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T222,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U222,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V222,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W222,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>70</v>
+      </c>
+      <c r="I222" s="33">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q222,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R222,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S222,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T222,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U222,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V222,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W222,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>70</v>
+      </c>
+      <c r="J222" s="36">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q222,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R222,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S222,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T222,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U222,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V222,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W222,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K222" s="33"/>
+      <c r="L222" s="33"/>
+      <c r="M222" s="33"/>
+      <c r="N222" s="33"/>
+      <c r="O222" s="33"/>
+      <c r="P222" s="33"/>
+      <c r="Q222" s="38">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="223" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A223" s="33">
+        <v>222</v>
+      </c>
+      <c r="B223" s="33">
+        <v>1</v>
+      </c>
+      <c r="C223" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="D223" s="33"/>
+      <c r="E223" s="33"/>
+      <c r="F223" s="33"/>
+      <c r="G223" s="33"/>
+      <c r="H223" s="33">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q223,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R223,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S223,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T223,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U223,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V223,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W223,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>250</v>
+      </c>
+      <c r="I223" s="33">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q223,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R223,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S223,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T223,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U223,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V223,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W223,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>250</v>
+      </c>
+      <c r="J223" s="36">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q223,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R223,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S223,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T223,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U223,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V223,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W223,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K223" s="33"/>
+      <c r="L223" s="33"/>
+      <c r="M223" s="33"/>
+      <c r="N223" s="33"/>
+      <c r="O223" s="33"/>
+      <c r="P223" s="33"/>
+      <c r="Q223" s="38">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="224" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A224" s="33">
+        <v>223</v>
+      </c>
+      <c r="B224" s="33">
+        <v>1</v>
+      </c>
+      <c r="C224" s="38" t="s">
+        <v>427</v>
+      </c>
+      <c r="D224" s="33"/>
+      <c r="E224" s="33"/>
+      <c r="F224" s="33"/>
+      <c r="G224" s="33"/>
+      <c r="H224" s="33">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q224,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R224,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S224,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T224,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U224,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V224,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W224,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>350</v>
+      </c>
+      <c r="I224" s="33">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q224,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R224,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S224,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T224,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U224,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V224,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W224,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>350</v>
+      </c>
+      <c r="J224" s="36">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q224,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R224,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S224,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T224,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U224,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V224,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W224,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K224" s="33"/>
+      <c r="L224" s="33"/>
+      <c r="M224" s="33"/>
+      <c r="N224" s="33"/>
+      <c r="O224" s="33"/>
+      <c r="P224" s="33"/>
+      <c r="Q224" s="38">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="225" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A225" s="33">
+        <v>224</v>
+      </c>
+      <c r="B225" s="33">
+        <v>1</v>
+      </c>
+      <c r="C225" s="38" t="s">
+        <v>428</v>
+      </c>
+      <c r="D225" s="33"/>
+      <c r="E225" s="33"/>
+      <c r="F225" s="33"/>
+      <c r="G225" s="33"/>
+      <c r="H225" s="33">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q225,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R225,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S225,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T225,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U225,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V225,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W225,use_fish!A:A,use_fish!E:E),0),)</f>
+        <v>450</v>
+      </c>
+      <c r="I225" s="33">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q225,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R225,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S225,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T225,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U225,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V225,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W225,use_fish!A:A,use_fish!I:I),0),)</f>
+        <v>450</v>
+      </c>
+      <c r="J225" s="36">
+        <f>SUM(_xlfn.IFNA(LOOKUP(Q225,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(R225,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(S225,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(T225,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(U225,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(V225,use_fish!A:A,use_fish!K:K),0),_xlfn.IFNA(LOOKUP(W225,use_fish!A:A,use_fish!K:K),0),)</f>
+        <v>0</v>
+      </c>
+      <c r="K225" s="33"/>
+      <c r="L225" s="33"/>
+      <c r="M225" s="33"/>
+      <c r="N225" s="33"/>
+      <c r="O225" s="33"/>
+      <c r="P225" s="33"/>
+      <c r="Q225" s="38">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="226" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C226" s="26"/>
+      <c r="J226" s="24"/>
+      <c r="Q226" s="26"/>
+    </row>
+    <row r="227" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C227" s="26"/>
+      <c r="J227" s="24"/>
+      <c r="Q227" s="26"/>
+    </row>
+    <row r="228" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C228" s="26"/>
+      <c r="J228" s="24"/>
+      <c r="Q228" s="26"/>
+    </row>
+    <row r="229" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C229" s="26"/>
+      <c r="J229" s="24"/>
+      <c r="Q229" s="26"/>
+    </row>
+    <row r="230" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C230" s="26"/>
+      <c r="J230" s="24"/>
+      <c r="Q230" s="26"/>
+    </row>
+    <row r="231" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C231" s="26"/>
+      <c r="J231" s="24"/>
+      <c r="Q231" s="26"/>
+    </row>
+    <row r="232" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C232" s="26"/>
+      <c r="J232" s="24"/>
+      <c r="Q232" s="26"/>
+    </row>
+    <row r="233" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C233" s="26"/>
+      <c r="J233" s="24"/>
+      <c r="Q233" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8207,7 +8935,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H145 H149 H151:H209">
+  <conditionalFormatting sqref="H2:H145 H149 H151:H233">
     <cfRule type="iconSet" priority="17">
       <iconSet iconSet="5Arrows">
         <cfvo type="percent" val="0"/>
@@ -8218,7 +8946,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I145 I149 I151:I209">
+  <conditionalFormatting sqref="I2:I145 I149 I151:I233">
     <cfRule type="iconSet" priority="20">
       <iconSet iconSet="5Arrows">
         <cfvo type="percent" val="0"/>
@@ -8229,7 +8957,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J145 J149 J151:J209">
+  <conditionalFormatting sqref="J2:J145 J149 J151:J233">
     <cfRule type="iconSet" priority="23">
       <iconSet iconSet="5Arrows">
         <cfvo type="percent" val="0"/>
@@ -8249,7 +8977,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -8300,11 +9028,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:N183"/>
+  <dimension ref="A1:N207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H182" sqref="H182"/>
+      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A192" sqref="A192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16599,7 +17327,7 @@
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A176" s="19">
+      <c r="A176" s="23">
         <v>175</v>
       </c>
       <c r="B176" s="16">
@@ -16647,7 +17375,7 @@
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A177" s="19">
+      <c r="A177" s="23">
         <v>176</v>
       </c>
       <c r="B177" s="16">
@@ -16695,7 +17423,7 @@
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A178" s="19">
+      <c r="A178" s="23">
         <v>177</v>
       </c>
       <c r="B178" s="16">
@@ -16743,7 +17471,7 @@
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A179" s="19">
+      <c r="A179" s="23">
         <v>178</v>
       </c>
       <c r="B179" s="16">
@@ -16791,7 +17519,7 @@
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A180" s="19">
+      <c r="A180" s="23">
         <v>179</v>
       </c>
       <c r="B180" s="16">
@@ -16839,7 +17567,7 @@
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A181" s="19">
+      <c r="A181" s="23">
         <v>180</v>
       </c>
       <c r="B181" s="16">
@@ -16851,11 +17579,11 @@
       <c r="D181" s="20"/>
       <c r="E181" s="17">
         <f>LOOKUP(use_fish!B181,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C181,activity!A:A,0)),0)</f>
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="F181" s="19">
         <f t="shared" si="8"/>
-        <v>6.6666666666666671E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="G181" s="16" t="s">
         <v>81</v>
@@ -16866,7 +17594,7 @@
       </c>
       <c r="I181" s="17">
         <f>LOOKUP(use_fish!B181,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C181,activity!A:A,0)),0)</f>
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="J181" s="17">
         <v>1</v>
@@ -16877,7 +17605,7 @@
       </c>
       <c r="L181" s="17">
         <f t="shared" si="9"/>
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="M181" s="17">
         <v>1</v>
@@ -16887,7 +17615,7 @@
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A182" s="19">
+      <c r="A182" s="23">
         <v>181</v>
       </c>
       <c r="B182" s="16">
@@ -16899,11 +17627,11 @@
       <c r="D182" s="20"/>
       <c r="E182" s="17">
         <f>LOOKUP(use_fish!B182,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C182,activity!A:A,0)),0)</f>
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="F182" s="19">
         <f t="shared" si="8"/>
-        <v>4.0000000000000001E-3</v>
+        <v>2.8571428571428571E-3</v>
       </c>
       <c r="G182" s="16" t="s">
         <v>81</v>
@@ -16914,7 +17642,7 @@
       </c>
       <c r="I182" s="17">
         <f>LOOKUP(use_fish!B182,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C182,activity!A:A,0)),0)</f>
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="J182" s="17">
         <v>1</v>
@@ -16925,7 +17653,7 @@
       </c>
       <c r="L182" s="17">
         <f t="shared" si="9"/>
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="M182" s="17">
         <v>1</v>
@@ -16935,7 +17663,7 @@
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A183" s="19">
+      <c r="A183" s="23">
         <v>182</v>
       </c>
       <c r="B183" s="16">
@@ -16947,11 +17675,11 @@
       <c r="D183" s="20"/>
       <c r="E183" s="17">
         <f>LOOKUP(use_fish!B183,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C183,activity!A:A,0)),0)</f>
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="F183" s="19">
         <f t="shared" si="8"/>
-        <v>2.8571428571428571E-3</v>
+        <v>2.2222222222222222E-3</v>
       </c>
       <c r="G183" s="16" t="s">
         <v>81</v>
@@ -16962,7 +17690,7 @@
       </c>
       <c r="I183" s="17">
         <f>LOOKUP(use_fish!B183,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C183,activity!A:A,0)),0)</f>
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="J183" s="17">
         <v>1</v>
@@ -16973,14 +17701,854 @@
       </c>
       <c r="L183" s="17">
         <f t="shared" si="9"/>
+        <v>450</v>
+      </c>
+      <c r="M183" s="17">
+        <v>1</v>
+      </c>
+      <c r="N183" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="23">
+        <v>183</v>
+      </c>
+      <c r="B184" s="29">
+        <v>6</v>
+      </c>
+      <c r="C184" s="30">
+        <v>51</v>
+      </c>
+      <c r="D184" s="31"/>
+      <c r="E184" s="27">
+        <f>LOOKUP(use_fish!B184,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C184,activity!A:A,0)),0)</f>
+        <v>30</v>
+      </c>
+      <c r="F184" s="30">
+        <f t="shared" ref="F184:F191" si="10">1/E184</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="G184" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="H184" s="30" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B184,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C184,activity!A:A,0)),"")</f>
+        <v>蓝灯鱼+临时活动</v>
+      </c>
+      <c r="I184" s="27">
+        <f>LOOKUP(use_fish!B184,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C184,activity!A:A,0)),0)</f>
+        <v>30</v>
+      </c>
+      <c r="J184" s="27">
+        <v>1</v>
+      </c>
+      <c r="K184" s="27">
+        <f>LOOKUP(use_fish!B184,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L184" s="27">
+        <f t="shared" ref="L184:L191" si="11">I184</f>
+        <v>30</v>
+      </c>
+      <c r="M184" s="27">
+        <v>1</v>
+      </c>
+      <c r="N184" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="23">
+        <v>184</v>
+      </c>
+      <c r="B185" s="29">
+        <v>7</v>
+      </c>
+      <c r="C185" s="30">
+        <v>51</v>
+      </c>
+      <c r="D185" s="31"/>
+      <c r="E185" s="27">
+        <f>LOOKUP(use_fish!B185,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C185,activity!A:A,0)),0)</f>
+        <v>40</v>
+      </c>
+      <c r="F185" s="30">
+        <f t="shared" si="10"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G185" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="H185" s="30" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B185,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C185,activity!A:A,0)),"")</f>
+        <v>红杉鱼+临时活动</v>
+      </c>
+      <c r="I185" s="27">
+        <f>LOOKUP(use_fish!B185,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C185,activity!A:A,0)),0)</f>
+        <v>40</v>
+      </c>
+      <c r="J185" s="27">
+        <v>1</v>
+      </c>
+      <c r="K185" s="27">
+        <f>LOOKUP(use_fish!B185,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L185" s="27">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
+      <c r="M185" s="27">
+        <v>1</v>
+      </c>
+      <c r="N185" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="23">
+        <v>185</v>
+      </c>
+      <c r="B186" s="29">
+        <v>8</v>
+      </c>
+      <c r="C186" s="30">
+        <v>51</v>
+      </c>
+      <c r="D186" s="31"/>
+      <c r="E186" s="27">
+        <f>LOOKUP(use_fish!B186,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C186,activity!A:A,0)),0)</f>
+        <v>50</v>
+      </c>
+      <c r="F186" s="30">
+        <f t="shared" si="10"/>
+        <v>0.02</v>
+      </c>
+      <c r="G186" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="H186" s="30" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B186,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C186,activity!A:A,0)),"")</f>
+        <v>海龟+临时活动</v>
+      </c>
+      <c r="I186" s="27">
+        <f>LOOKUP(use_fish!B186,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C186,activity!A:A,0)),0)</f>
+        <v>50</v>
+      </c>
+      <c r="J186" s="27">
+        <v>1</v>
+      </c>
+      <c r="K186" s="27">
+        <f>LOOKUP(use_fish!B186,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L186" s="27">
+        <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="M186" s="27">
+        <v>1</v>
+      </c>
+      <c r="N186" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="23">
+        <v>186</v>
+      </c>
+      <c r="B187" s="29">
+        <v>9</v>
+      </c>
+      <c r="C187" s="30">
+        <v>51</v>
+      </c>
+      <c r="D187" s="31"/>
+      <c r="E187" s="27">
+        <f>LOOKUP(use_fish!B187,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C187,activity!A:A,0)),0)</f>
+        <v>60</v>
+      </c>
+      <c r="F187" s="30">
+        <f t="shared" si="10"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="G187" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="H187" s="30" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B187,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C187,activity!A:A,0)),"")</f>
+        <v>灯笼鱼+临时活动</v>
+      </c>
+      <c r="I187" s="27">
+        <f>LOOKUP(use_fish!B187,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C187,activity!A:A,0)),0)</f>
+        <v>60</v>
+      </c>
+      <c r="J187" s="27">
+        <v>1</v>
+      </c>
+      <c r="K187" s="27">
+        <f>LOOKUP(use_fish!B187,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L187" s="27">
+        <f t="shared" si="11"/>
+        <v>60</v>
+      </c>
+      <c r="M187" s="27">
+        <v>1</v>
+      </c>
+      <c r="N187" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="23">
+        <v>187</v>
+      </c>
+      <c r="B188" s="29">
+        <v>10</v>
+      </c>
+      <c r="C188" s="30">
+        <v>51</v>
+      </c>
+      <c r="D188" s="31"/>
+      <c r="E188" s="27">
+        <f>LOOKUP(use_fish!B188,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C188,activity!A:A,0)),0)</f>
+        <v>70</v>
+      </c>
+      <c r="F188" s="30">
+        <f t="shared" si="10"/>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="G188" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="H188" s="30" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B188,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C188,activity!A:A,0)),"")</f>
+        <v>魔鬼鱼+临时活动</v>
+      </c>
+      <c r="I188" s="27">
+        <f>LOOKUP(use_fish!B188,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C188,activity!A:A,0)),0)</f>
+        <v>70</v>
+      </c>
+      <c r="J188" s="27">
+        <v>1</v>
+      </c>
+      <c r="K188" s="27">
+        <f>LOOKUP(use_fish!B188,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L188" s="27">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="M188" s="27">
+        <v>1</v>
+      </c>
+      <c r="N188" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="23">
+        <v>188</v>
+      </c>
+      <c r="B189" s="29">
+        <v>35</v>
+      </c>
+      <c r="C189" s="30">
+        <v>48</v>
+      </c>
+      <c r="D189" s="31"/>
+      <c r="E189" s="27">
+        <f>LOOKUP(use_fish!B189,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C189,activity!A:A,0)),0)</f>
+        <v>250</v>
+      </c>
+      <c r="F189" s="30">
+        <f t="shared" si="10"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G189" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="H189" s="30" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B189,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C189,activity!A:A,0)),"")</f>
+        <v>活动boss+临时活动</v>
+      </c>
+      <c r="I189" s="27">
+        <f>LOOKUP(use_fish!B189,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C189,activity!A:A,0)),0)</f>
+        <v>250</v>
+      </c>
+      <c r="J189" s="27">
+        <v>1</v>
+      </c>
+      <c r="K189" s="27">
+        <f>LOOKUP(use_fish!B189,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L189" s="27">
+        <f t="shared" si="11"/>
+        <v>250</v>
+      </c>
+      <c r="M189" s="27">
+        <v>1</v>
+      </c>
+      <c r="N189" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="23">
+        <v>189</v>
+      </c>
+      <c r="B190" s="29">
+        <v>35</v>
+      </c>
+      <c r="C190" s="30">
+        <v>49</v>
+      </c>
+      <c r="D190" s="31"/>
+      <c r="E190" s="27">
+        <f>LOOKUP(use_fish!B190,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C190,activity!A:A,0)),0)</f>
         <v>350</v>
       </c>
-      <c r="M183" s="17">
-        <v>1</v>
-      </c>
-      <c r="N183" s="17">
-        <v>1</v>
-      </c>
+      <c r="F190" s="30">
+        <f t="shared" si="10"/>
+        <v>2.8571428571428571E-3</v>
+      </c>
+      <c r="G190" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="H190" s="30" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B190,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C190,activity!A:A,0)),"")</f>
+        <v>活动boss+临时活动</v>
+      </c>
+      <c r="I190" s="27">
+        <f>LOOKUP(use_fish!B190,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C190,activity!A:A,0)),0)</f>
+        <v>350</v>
+      </c>
+      <c r="J190" s="27">
+        <v>1</v>
+      </c>
+      <c r="K190" s="27">
+        <f>LOOKUP(use_fish!B190,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L190" s="27">
+        <f t="shared" si="11"/>
+        <v>350</v>
+      </c>
+      <c r="M190" s="27">
+        <v>1</v>
+      </c>
+      <c r="N190" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="23">
+        <v>190</v>
+      </c>
+      <c r="B191" s="29">
+        <v>35</v>
+      </c>
+      <c r="C191" s="30">
+        <v>50</v>
+      </c>
+      <c r="D191" s="31"/>
+      <c r="E191" s="27">
+        <f>LOOKUP(use_fish!B191,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C191,activity!A:A,0)),0)</f>
+        <v>450</v>
+      </c>
+      <c r="F191" s="30">
+        <f t="shared" si="10"/>
+        <v>2.2222222222222222E-3</v>
+      </c>
+      <c r="G191" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="H191" s="30" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B191,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C191,activity!A:A,0)),"")</f>
+        <v>活动boss+临时活动</v>
+      </c>
+      <c r="I191" s="27">
+        <f>LOOKUP(use_fish!B191,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C191,activity!A:A,0)),0)</f>
+        <v>450</v>
+      </c>
+      <c r="J191" s="27">
+        <v>1</v>
+      </c>
+      <c r="K191" s="27">
+        <f>LOOKUP(use_fish!B191,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L191" s="27">
+        <f t="shared" si="11"/>
+        <v>450</v>
+      </c>
+      <c r="M191" s="27">
+        <v>1</v>
+      </c>
+      <c r="N191" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="23">
+        <v>191</v>
+      </c>
+      <c r="B192" s="36">
+        <v>6</v>
+      </c>
+      <c r="C192" s="35">
+        <v>55</v>
+      </c>
+      <c r="D192" s="37"/>
+      <c r="E192" s="33">
+        <f>LOOKUP(use_fish!B192,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C192,activity!A:A,0)),0)</f>
+        <v>30</v>
+      </c>
+      <c r="F192" s="35">
+        <f t="shared" ref="F192:F199" si="12">1/E192</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="G192" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="H192" s="35" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B192,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C192,activity!A:A,0)),"")</f>
+        <v>蓝灯鱼+临时活动</v>
+      </c>
+      <c r="I192" s="33">
+        <f>LOOKUP(use_fish!B192,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C192,activity!A:A,0)),0)</f>
+        <v>30</v>
+      </c>
+      <c r="J192" s="33">
+        <v>1</v>
+      </c>
+      <c r="K192" s="33">
+        <f>LOOKUP(use_fish!B192,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L192" s="33">
+        <f t="shared" ref="L192:L199" si="13">I192</f>
+        <v>30</v>
+      </c>
+      <c r="M192" s="33">
+        <v>1</v>
+      </c>
+      <c r="N192" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="23">
+        <v>192</v>
+      </c>
+      <c r="B193" s="36">
+        <v>7</v>
+      </c>
+      <c r="C193" s="35">
+        <v>55</v>
+      </c>
+      <c r="D193" s="37"/>
+      <c r="E193" s="33">
+        <f>LOOKUP(use_fish!B193,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C193,activity!A:A,0)),0)</f>
+        <v>40</v>
+      </c>
+      <c r="F193" s="35">
+        <f t="shared" si="12"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G193" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="H193" s="35" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B193,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C193,activity!A:A,0)),"")</f>
+        <v>红杉鱼+临时活动</v>
+      </c>
+      <c r="I193" s="33">
+        <f>LOOKUP(use_fish!B193,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C193,activity!A:A,0)),0)</f>
+        <v>40</v>
+      </c>
+      <c r="J193" s="33">
+        <v>1</v>
+      </c>
+      <c r="K193" s="33">
+        <f>LOOKUP(use_fish!B193,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L193" s="33">
+        <f t="shared" si="13"/>
+        <v>40</v>
+      </c>
+      <c r="M193" s="33">
+        <v>1</v>
+      </c>
+      <c r="N193" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="23">
+        <v>193</v>
+      </c>
+      <c r="B194" s="36">
+        <v>8</v>
+      </c>
+      <c r="C194" s="35">
+        <v>55</v>
+      </c>
+      <c r="D194" s="37"/>
+      <c r="E194" s="33">
+        <f>LOOKUP(use_fish!B194,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C194,activity!A:A,0)),0)</f>
+        <v>50</v>
+      </c>
+      <c r="F194" s="35">
+        <f t="shared" si="12"/>
+        <v>0.02</v>
+      </c>
+      <c r="G194" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="H194" s="35" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B194,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C194,activity!A:A,0)),"")</f>
+        <v>海龟+临时活动</v>
+      </c>
+      <c r="I194" s="33">
+        <f>LOOKUP(use_fish!B194,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C194,activity!A:A,0)),0)</f>
+        <v>50</v>
+      </c>
+      <c r="J194" s="33">
+        <v>1</v>
+      </c>
+      <c r="K194" s="33">
+        <f>LOOKUP(use_fish!B194,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L194" s="33">
+        <f t="shared" si="13"/>
+        <v>50</v>
+      </c>
+      <c r="M194" s="33">
+        <v>1</v>
+      </c>
+      <c r="N194" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="23">
+        <v>194</v>
+      </c>
+      <c r="B195" s="36">
+        <v>9</v>
+      </c>
+      <c r="C195" s="35">
+        <v>55</v>
+      </c>
+      <c r="D195" s="37"/>
+      <c r="E195" s="33">
+        <f>LOOKUP(use_fish!B195,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C195,activity!A:A,0)),0)</f>
+        <v>60</v>
+      </c>
+      <c r="F195" s="35">
+        <f t="shared" si="12"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="G195" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="H195" s="35" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B195,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C195,activity!A:A,0)),"")</f>
+        <v>灯笼鱼+临时活动</v>
+      </c>
+      <c r="I195" s="33">
+        <f>LOOKUP(use_fish!B195,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C195,activity!A:A,0)),0)</f>
+        <v>60</v>
+      </c>
+      <c r="J195" s="33">
+        <v>1</v>
+      </c>
+      <c r="K195" s="33">
+        <f>LOOKUP(use_fish!B195,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L195" s="33">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="M195" s="33">
+        <v>1</v>
+      </c>
+      <c r="N195" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="23">
+        <v>195</v>
+      </c>
+      <c r="B196" s="36">
+        <v>10</v>
+      </c>
+      <c r="C196" s="35">
+        <v>55</v>
+      </c>
+      <c r="D196" s="37"/>
+      <c r="E196" s="33">
+        <f>LOOKUP(use_fish!B196,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C196,activity!A:A,0)),0)</f>
+        <v>70</v>
+      </c>
+      <c r="F196" s="35">
+        <f t="shared" si="12"/>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="G196" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="H196" s="35" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B196,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C196,activity!A:A,0)),"")</f>
+        <v>魔鬼鱼+临时活动</v>
+      </c>
+      <c r="I196" s="33">
+        <f>LOOKUP(use_fish!B196,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C196,activity!A:A,0)),0)</f>
+        <v>70</v>
+      </c>
+      <c r="J196" s="33">
+        <v>1</v>
+      </c>
+      <c r="K196" s="33">
+        <f>LOOKUP(use_fish!B196,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L196" s="33">
+        <f t="shared" si="13"/>
+        <v>70</v>
+      </c>
+      <c r="M196" s="33">
+        <v>1</v>
+      </c>
+      <c r="N196" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="23">
+        <v>196</v>
+      </c>
+      <c r="B197" s="36">
+        <v>35</v>
+      </c>
+      <c r="C197" s="35">
+        <v>52</v>
+      </c>
+      <c r="D197" s="37"/>
+      <c r="E197" s="33">
+        <f>LOOKUP(use_fish!B197,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C197,activity!A:A,0)),0)</f>
+        <v>250</v>
+      </c>
+      <c r="F197" s="35">
+        <f t="shared" si="12"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G197" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="H197" s="35" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B197,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C197,activity!A:A,0)),"")</f>
+        <v>活动boss+临时活动</v>
+      </c>
+      <c r="I197" s="33">
+        <f>LOOKUP(use_fish!B197,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C197,activity!A:A,0)),0)</f>
+        <v>250</v>
+      </c>
+      <c r="J197" s="33">
+        <v>1</v>
+      </c>
+      <c r="K197" s="33">
+        <f>LOOKUP(use_fish!B197,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L197" s="33">
+        <f t="shared" si="13"/>
+        <v>250</v>
+      </c>
+      <c r="M197" s="33">
+        <v>1</v>
+      </c>
+      <c r="N197" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="23">
+        <v>197</v>
+      </c>
+      <c r="B198" s="36">
+        <v>35</v>
+      </c>
+      <c r="C198" s="35">
+        <v>53</v>
+      </c>
+      <c r="D198" s="37"/>
+      <c r="E198" s="33">
+        <f>LOOKUP(use_fish!B198,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C198,activity!A:A,0)),0)</f>
+        <v>350</v>
+      </c>
+      <c r="F198" s="35">
+        <f t="shared" si="12"/>
+        <v>2.8571428571428571E-3</v>
+      </c>
+      <c r="G198" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="H198" s="35" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B198,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C198,activity!A:A,0)),"")</f>
+        <v>活动boss+临时活动</v>
+      </c>
+      <c r="I198" s="33">
+        <f>LOOKUP(use_fish!B198,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C198,activity!A:A,0)),0)</f>
+        <v>350</v>
+      </c>
+      <c r="J198" s="33">
+        <v>1</v>
+      </c>
+      <c r="K198" s="33">
+        <f>LOOKUP(use_fish!B198,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L198" s="33">
+        <f t="shared" si="13"/>
+        <v>350</v>
+      </c>
+      <c r="M198" s="33">
+        <v>1</v>
+      </c>
+      <c r="N198" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="23">
+        <v>198</v>
+      </c>
+      <c r="B199" s="36">
+        <v>35</v>
+      </c>
+      <c r="C199" s="35">
+        <v>54</v>
+      </c>
+      <c r="D199" s="37"/>
+      <c r="E199" s="33">
+        <f>LOOKUP(use_fish!B199,base_fish!A:A,base_fish!C:C)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C199,activity!A:A,0)),0)</f>
+        <v>450</v>
+      </c>
+      <c r="F199" s="35">
+        <f t="shared" si="12"/>
+        <v>2.2222222222222222E-3</v>
+      </c>
+      <c r="G199" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="H199" s="35" t="str">
+        <f>INDEX(base_fish!E:E,MATCH(use_fish!B199,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C199,activity!A:A,0)),"")</f>
+        <v>活动boss+临时活动</v>
+      </c>
+      <c r="I199" s="33">
+        <f>LOOKUP(use_fish!B199,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C199,activity!A:A,0)),0)</f>
+        <v>450</v>
+      </c>
+      <c r="J199" s="33">
+        <v>1</v>
+      </c>
+      <c r="K199" s="33">
+        <f>LOOKUP(use_fish!B199,base_fish!A:A,base_fish!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="L199" s="33">
+        <f t="shared" si="13"/>
+        <v>450</v>
+      </c>
+      <c r="M199" s="33">
+        <v>1</v>
+      </c>
+      <c r="N199" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="23"/>
+      <c r="B200" s="24"/>
+      <c r="C200" s="23"/>
+      <c r="D200" s="25"/>
+      <c r="F200" s="23"/>
+      <c r="G200" s="24"/>
+      <c r="H200" s="23"/>
+    </row>
+    <row r="201" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="23"/>
+      <c r="B201" s="24"/>
+      <c r="C201" s="23"/>
+      <c r="D201" s="25"/>
+      <c r="F201" s="23"/>
+      <c r="G201" s="24"/>
+      <c r="H201" s="23"/>
+    </row>
+    <row r="202" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="23"/>
+      <c r="B202" s="24"/>
+      <c r="C202" s="23"/>
+      <c r="D202" s="25"/>
+      <c r="F202" s="23"/>
+      <c r="G202" s="24"/>
+      <c r="H202" s="23"/>
+    </row>
+    <row r="203" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="23"/>
+      <c r="B203" s="24"/>
+      <c r="C203" s="23"/>
+      <c r="D203" s="25"/>
+      <c r="F203" s="23"/>
+      <c r="G203" s="24"/>
+      <c r="H203" s="23"/>
+    </row>
+    <row r="204" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="23"/>
+      <c r="B204" s="24"/>
+      <c r="C204" s="23"/>
+      <c r="D204" s="25"/>
+      <c r="F204" s="23"/>
+      <c r="G204" s="24"/>
+      <c r="H204" s="23"/>
+    </row>
+    <row r="205" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="23"/>
+      <c r="B205" s="24"/>
+      <c r="C205" s="23"/>
+      <c r="D205" s="25"/>
+      <c r="F205" s="23"/>
+      <c r="G205" s="24"/>
+      <c r="H205" s="23"/>
+    </row>
+    <row r="206" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="23"/>
+      <c r="B206" s="24"/>
+      <c r="C206" s="23"/>
+      <c r="D206" s="25"/>
+      <c r="F206" s="23"/>
+      <c r="G206" s="24"/>
+      <c r="H206" s="23"/>
+    </row>
+    <row r="207" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="23"/>
+      <c r="B207" s="24"/>
+      <c r="C207" s="23"/>
+      <c r="D207" s="25"/>
+      <c r="F207" s="23"/>
+      <c r="G207" s="24"/>
+      <c r="H207" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -16992,10 +18560,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18181,7 +19749,7 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="17">
+      <c r="A45" s="22">
         <v>44</v>
       </c>
       <c r="B45" s="17">
@@ -18197,14 +19765,14 @@
         <v>1</v>
       </c>
       <c r="F45" s="17">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G45" s="17" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="17">
+      <c r="A46" s="22">
         <v>45</v>
       </c>
       <c r="B46" s="17">
@@ -18220,14 +19788,14 @@
         <v>1</v>
       </c>
       <c r="F46" s="17">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="G46" s="17" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="17">
+      <c r="A47" s="22">
         <v>46</v>
       </c>
       <c r="B47" s="17">
@@ -18243,21 +19811,21 @@
         <v>1</v>
       </c>
       <c r="F47" s="17">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="G47" s="17" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="17">
+      <c r="A48" s="22">
         <v>47</v>
       </c>
       <c r="B48" s="17">
         <v>9</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D48" s="18">
         <v>1</v>
@@ -18272,97 +19840,205 @@
         <v>132</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="22">
         <v>48</v>
       </c>
-      <c r="B49" s="22">
+      <c r="B49" s="27">
         <v>9</v>
       </c>
-      <c r="C49" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D49" s="4">
-        <v>1</v>
-      </c>
-      <c r="E49" s="4">
-        <v>1</v>
-      </c>
-      <c r="F49" s="22">
-        <v>150</v>
-      </c>
-      <c r="G49" s="22" t="s">
+      <c r="C49" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="D49" s="28">
+        <v>0</v>
+      </c>
+      <c r="E49" s="28">
+        <v>1</v>
+      </c>
+      <c r="F49" s="27">
+        <v>250</v>
+      </c>
+      <c r="G49" s="27" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="22">
         <v>49</v>
       </c>
-      <c r="B50" s="22">
+      <c r="B50" s="27">
         <v>9</v>
       </c>
-      <c r="C50" s="22" t="s">
-        <v>407</v>
-      </c>
-      <c r="D50" s="4">
-        <v>1</v>
-      </c>
-      <c r="E50" s="4">
-        <v>1</v>
-      </c>
-      <c r="F50" s="22">
-        <v>250</v>
-      </c>
-      <c r="G50" s="22" t="s">
+      <c r="C50" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="D50" s="28">
+        <v>0</v>
+      </c>
+      <c r="E50" s="28">
+        <v>1</v>
+      </c>
+      <c r="F50" s="27">
+        <v>350</v>
+      </c>
+      <c r="G50" s="27" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="22">
         <v>50</v>
       </c>
-      <c r="B51" s="22">
+      <c r="B51" s="27">
         <v>9</v>
       </c>
-      <c r="C51" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="D51" s="4">
-        <v>1</v>
-      </c>
-      <c r="E51" s="4">
-        <v>1</v>
-      </c>
-      <c r="F51" s="22">
-        <v>350</v>
-      </c>
-      <c r="G51" s="22" t="s">
+      <c r="C51" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="D51" s="28">
+        <v>0</v>
+      </c>
+      <c r="E51" s="28">
+        <v>1</v>
+      </c>
+      <c r="F51" s="27">
+        <v>450</v>
+      </c>
+      <c r="G51" s="27" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="22">
         <v>51</v>
       </c>
-      <c r="B52" s="22">
+      <c r="B52" s="27">
         <v>9</v>
       </c>
-      <c r="C52" s="22" t="s">
-        <v>400</v>
-      </c>
-      <c r="D52" s="4">
-        <v>1</v>
-      </c>
-      <c r="E52" s="23">
-        <v>1</v>
-      </c>
-      <c r="F52" s="22">
+      <c r="C52" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="D52" s="28">
+        <v>1</v>
+      </c>
+      <c r="E52" s="28">
+        <v>1</v>
+      </c>
+      <c r="F52" s="27">
         <v>10</v>
       </c>
-      <c r="G52" s="22" t="s">
+      <c r="G52" s="27" t="s">
         <v>132</v>
       </c>
+    </row>
+    <row r="53" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="22">
+        <v>52</v>
+      </c>
+      <c r="B53" s="33">
+        <v>9</v>
+      </c>
+      <c r="C53" s="33" t="s">
+        <v>417</v>
+      </c>
+      <c r="D53" s="34">
+        <v>0</v>
+      </c>
+      <c r="E53" s="34">
+        <v>1</v>
+      </c>
+      <c r="F53" s="33">
+        <v>250</v>
+      </c>
+      <c r="G53" s="33" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="22">
+        <v>53</v>
+      </c>
+      <c r="B54" s="33">
+        <v>9</v>
+      </c>
+      <c r="C54" s="33" t="s">
+        <v>418</v>
+      </c>
+      <c r="D54" s="34">
+        <v>0</v>
+      </c>
+      <c r="E54" s="34">
+        <v>1</v>
+      </c>
+      <c r="F54" s="33">
+        <v>350</v>
+      </c>
+      <c r="G54" s="33" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="22">
+        <v>54</v>
+      </c>
+      <c r="B55" s="33">
+        <v>9</v>
+      </c>
+      <c r="C55" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="D55" s="34">
+        <v>0</v>
+      </c>
+      <c r="E55" s="34">
+        <v>1</v>
+      </c>
+      <c r="F55" s="33">
+        <v>450</v>
+      </c>
+      <c r="G55" s="33" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="22">
+        <v>55</v>
+      </c>
+      <c r="B56" s="33">
+        <v>9</v>
+      </c>
+      <c r="C56" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="D56" s="34">
+        <v>1</v>
+      </c>
+      <c r="E56" s="34">
+        <v>1</v>
+      </c>
+      <c r="F56" s="33">
+        <v>10</v>
+      </c>
+      <c r="G56" s="33" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+    </row>
+    <row r="58" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+    </row>
+    <row r="59" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+    </row>
+    <row r="60" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -19350,7 +21026,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F36" s="16">
         <v>0</v>

--- a/config_debug/fish_2d_fish_server.xlsx
+++ b/config_debug/fish_2d_fish_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="group" sheetId="1" r:id="rId1"/>
@@ -1734,22 +1734,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,1,0.2,0.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,0.3,0.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,0.4,0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,0.01,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>183,</t>
   </si>
   <si>
@@ -1774,22 +1758,6 @@
     <t>190,</t>
   </si>
   <si>
-    <t>2,2,0.2,0.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,2,0.3,0.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,2,0.4,0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,2,0.01,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>191,</t>
   </si>
   <si>
@@ -1812,6 +1780,38 @@
   </si>
   <si>
     <t>198,</t>
+  </si>
+  <si>
+    <t>1,0,0.2,0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,0,0.3,0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,0,0.4,0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,0,0.01,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,0,0.2,0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,0,0.3,0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,0,0.4,0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,0,0.01,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2326,7 +2326,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+    <sheetView topLeftCell="A190" workbookViewId="0">
       <selection activeCell="E218" sqref="E218"/>
     </sheetView>
   </sheetViews>
@@ -8237,7 +8237,7 @@
         <v>1</v>
       </c>
       <c r="C210" s="32" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D210" s="27"/>
       <c r="E210" s="27"/>
@@ -8273,7 +8273,7 @@
         <v>1</v>
       </c>
       <c r="C211" s="32" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D211" s="27"/>
       <c r="E211" s="27"/>
@@ -8309,7 +8309,7 @@
         <v>1</v>
       </c>
       <c r="C212" s="32" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D212" s="27"/>
       <c r="E212" s="27"/>
@@ -8345,7 +8345,7 @@
         <v>1</v>
       </c>
       <c r="C213" s="32" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D213" s="27"/>
       <c r="E213" s="27"/>
@@ -8381,7 +8381,7 @@
         <v>1</v>
       </c>
       <c r="C214" s="32" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D214" s="27"/>
       <c r="E214" s="27"/>
@@ -8417,7 +8417,7 @@
         <v>1</v>
       </c>
       <c r="C215" s="32" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D215" s="27"/>
       <c r="E215" s="27"/>
@@ -8453,7 +8453,7 @@
         <v>1</v>
       </c>
       <c r="C216" s="32" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D216" s="27"/>
       <c r="E216" s="27"/>
@@ -8489,7 +8489,7 @@
         <v>1</v>
       </c>
       <c r="C217" s="32" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D217" s="27"/>
       <c r="E217" s="27"/>
@@ -8525,7 +8525,7 @@
         <v>1</v>
       </c>
       <c r="C218" s="38" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="D218" s="33"/>
       <c r="E218" s="33"/>
@@ -8561,7 +8561,7 @@
         <v>1</v>
       </c>
       <c r="C219" s="38" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="D219" s="33"/>
       <c r="E219" s="33"/>
@@ -8597,7 +8597,7 @@
         <v>1</v>
       </c>
       <c r="C220" s="38" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="D220" s="33"/>
       <c r="E220" s="33"/>
@@ -8633,7 +8633,7 @@
         <v>1</v>
       </c>
       <c r="C221" s="38" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="D221" s="33"/>
       <c r="E221" s="33"/>
@@ -8669,7 +8669,7 @@
         <v>1</v>
       </c>
       <c r="C222" s="38" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="D222" s="33"/>
       <c r="E222" s="33"/>
@@ -8705,7 +8705,7 @@
         <v>1</v>
       </c>
       <c r="C223" s="38" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="D223" s="33"/>
       <c r="E223" s="33"/>
@@ -8741,7 +8741,7 @@
         <v>1</v>
       </c>
       <c r="C224" s="38" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="D224" s="33"/>
       <c r="E224" s="33"/>
@@ -8777,7 +8777,7 @@
         <v>1</v>
       </c>
       <c r="C225" s="38" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="D225" s="33"/>
       <c r="E225" s="33"/>
@@ -18562,8 +18562,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19848,7 +19848,7 @@
         <v>9</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="D49" s="28">
         <v>0</v>
@@ -19871,7 +19871,7 @@
         <v>9</v>
       </c>
       <c r="C50" s="27" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="D50" s="28">
         <v>0</v>
@@ -19894,7 +19894,7 @@
         <v>9</v>
       </c>
       <c r="C51" s="27" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="D51" s="28">
         <v>0</v>
@@ -19917,7 +19917,7 @@
         <v>9</v>
       </c>
       <c r="C52" s="27" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="D52" s="28">
         <v>1</v>
@@ -19940,7 +19940,7 @@
         <v>9</v>
       </c>
       <c r="C53" s="33" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="D53" s="34">
         <v>0</v>
@@ -19963,7 +19963,7 @@
         <v>9</v>
       </c>
       <c r="C54" s="33" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="D54" s="34">
         <v>0</v>
@@ -19986,7 +19986,7 @@
         <v>9</v>
       </c>
       <c r="C55" s="33" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="D55" s="34">
         <v>0</v>
@@ -20009,7 +20009,7 @@
         <v>9</v>
       </c>
       <c r="C56" s="33" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="D56" s="34">
         <v>1</v>

--- a/config_debug/fish_2d_fish_server.xlsx
+++ b/config_debug/fish_2d_fish_server.xlsx
@@ -1438,10 +1438,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1465,6 +1465,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -1479,59 +1501,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1555,23 +1526,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1583,8 +1540,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1608,6 +1600,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1657,7 +1657,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1669,13 +1705,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1687,7 +1729,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1699,13 +1771,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1717,97 +1813,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1820,18 +1832,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1871,6 +1871,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1903,11 +1912,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1923,24 +1930,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1968,16 +1957,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1986,136 +1986,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -9033,7 +9033,7 @@
       </c>
       <c r="H226" s="17">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q226,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(R226,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(S226,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(T226,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(U226,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(V226,use_fish!A:A,use_fish!E:E),0),_xlfn.IFNA(LOOKUP(W226,use_fish!A:A,use_fish!E:E),0),)</f>
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="I226" s="17">
         <f>SUM(_xlfn.IFNA(LOOKUP(Q226,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(R226,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(S226,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(T226,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(U226,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(V226,use_fish!A:A,use_fish!I:I),0),_xlfn.IFNA(LOOKUP(W226,use_fish!A:A,use_fish!I:I),0),)</f>
@@ -9270,7 +9270,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F207" sqref="F207"/>
+      <selection pane="bottomLeft" activeCell="F206" sqref="F206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -18348,7 +18348,7 @@
         <v>30</v>
       </c>
       <c r="F192" s="30">
-        <f t="shared" ref="F192:F199" si="12">1/E192</f>
+        <f t="shared" ref="F192:F200" si="12">1/E192</f>
         <v>0.0333333333333333</v>
       </c>
       <c r="G192" s="29" t="s">
@@ -18730,11 +18730,11 @@
         <v>249</v>
       </c>
       <c r="E200" s="10">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="F200" s="30">
-        <f>1/E200</f>
-        <v>0.00285714285714286</v>
+        <f t="shared" si="12"/>
+        <v>0.02</v>
       </c>
       <c r="G200" s="29" t="s">
         <v>245</v>
